--- a/JAVA18 TRANTHUYVAN DATABASE DESGIN.xlsx
+++ b/JAVA18 TRANTHUYVAN DATABASE DESGIN.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="B1. Mô hình quan niệm" sheetId="1" r:id="rId1"/>
     <sheet name="B2. Mô hình logic" sheetId="3" r:id="rId2"/>
+    <sheet name="BTVN" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -381,8 +382,330 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="K2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+muốn cho khách hàng gửi đánh giá và nhận xét về sân bóng hoặc các trận đấu đã tham gia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ACHIEVEMENTS, REPRESENTATIVE_NAME, CONTACT_INFORMATION, LOGO, ESTABLISHEDDATE,...</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+GIẢI ĐẤU, GIAO HỮU</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+HOME TEAM || AWAY TEAM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+đánh giá về sân bóng hoặc dịch vụ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NGÀY ĐÁO HẠN THANH TOÁN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+bình luận hoặc đánh giá chi tiết về trải nghiệm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mức giảm giá hoặc ưu đãi áp dụng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ngày đánh giá được tạo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+mô tả chi tiết về chương trình khuyến mãi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+đã xác nhận, chưa xác nhận, đã hoàn thành</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CHƯA THANH TOÁN, ĐÃ THANH TOÁN, HỦY BỎ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ghi chú, yêu cầu đặc biệt</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="178">
   <si>
     <t>Xác định đối tượng lưu trữ
 Xác định thông tin, thuộc tính của từng đối tượng</t>
@@ -790,6 +1113,135 @@
   </si>
   <si>
     <t>T12</t>
+  </si>
+  <si>
+    <t>FOOTBALL_FIELD</t>
+  </si>
+  <si>
+    <t>OWNER</t>
+  </si>
+  <si>
+    <t>BOOKING</t>
+  </si>
+  <si>
+    <t>MATCH</t>
+  </si>
+  <si>
+    <t>FIELD_ID</t>
+  </si>
+  <si>
+    <t>CUSTOMER_ID</t>
+  </si>
+  <si>
+    <t>BOOKING_DATE</t>
+  </si>
+  <si>
+    <t>NUMBER_OF_PLAYERS</t>
+  </si>
+  <si>
+    <t>MATCH_DATE_TIME</t>
+  </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>PRICING</t>
+  </si>
+  <si>
+    <t>DAY_OF_WEEK</t>
+  </si>
+  <si>
+    <t>START_TIME</t>
+  </si>
+  <si>
+    <t>END_TIME</t>
+  </si>
+  <si>
+    <t>PRICE_PER_HOUR</t>
+  </si>
+  <si>
+    <t>MATCH_TYPE</t>
+  </si>
+  <si>
+    <t>MATCHTEAM</t>
+  </si>
+  <si>
+    <t>MATCH_ID</t>
+  </si>
+  <si>
+    <t>TEAM_ID</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>ADDITIONAL_DETAILS</t>
+  </si>
+  <si>
+    <t>TIME_RANGE</t>
+  </si>
+  <si>
+    <t>SCORE</t>
+  </si>
+  <si>
+    <t>BOOKING_HISTORY</t>
+  </si>
+  <si>
+    <t>BOOKING_STATUS</t>
+  </si>
+  <si>
+    <t>INVOICE</t>
+  </si>
+  <si>
+    <t>BOOKING_ID</t>
+  </si>
+  <si>
+    <t>ISSUE_DATE</t>
+  </si>
+  <si>
+    <t>DUE_DATE</t>
+  </si>
+  <si>
+    <t>TOTAL_AMOUNT</t>
+  </si>
+  <si>
+    <t>REVIEW</t>
+  </si>
+  <si>
+    <t>RATING</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>PROMOTION</t>
+  </si>
+  <si>
+    <t>START_DATE</t>
+  </si>
+  <si>
+    <t>END_DATE</t>
+  </si>
+  <si>
+    <t>DISCOUNT</t>
+  </si>
+  <si>
+    <t>MEMBERSHIP_TYPE</t>
+  </si>
+  <si>
+    <t>INVOICE_ID</t>
+  </si>
+  <si>
+    <t>PROMOTION_FIELD</t>
+  </si>
+  <si>
+    <t>PROMOTION_ID</t>
   </si>
 </sst>
 </file>
@@ -853,7 +1305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -869,6 +1321,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,7 +1358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -924,6 +1382,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -935,11 +1399,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,6 +1426,139 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3089" name="AutoShape 17" descr="data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/4gHYSUNDX1BST0ZJTEUAAQEAAAHIAAAAAAQwAABtbnRyUkdCIFhZWiAH4AABAAEAAAAAAABhY3NwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQAA9tYAAQAAAADTLQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlkZXNjAAAA8AAAACRyWFlaAAABFAAAABRnWFlaAAABKAAAABRiWFlaAAABPAAAABR3dHB0AAABUAAAABRyVFJDAAABZAAAAChnVFJDAAABZAAAAChiVFJDAAABZAAAAChjcHJ0AAABjAAAADxtbHVjAAAAAAAAAAEAAAAMZW5VUwAAAAgAAAAcAHMAUgBHAEJYWVogAAAAAAAAb6IAADj1AAADkFhZWiAAAAAAAABimQAAt4UAABjaWFlaIAAAAAAAACSgAAAPhAAAts9YWVogAAAAAAAA9tYAAQAAAADTLXBhcmEAAAAAAAQAAAACZmYAAPKnAAANWQAAE9AAAApbAAAAAAAAAABtbHVjAAAAAAAAAAEAAAAMZW5VUwAAACAAAAAcAEcAbwBvAGcAbABlACAASQBuAGMALgAgADIAMAAxADb/2wBDAAMCAgICAgMCAgIDAwMDBAYEBAQEBAgGBgUGCQgKCgkICQkKDA8MCgsOCwkJDRENDg8QEBEQCgwSExIQEw8QEBD/2wBDAQMDAwQDBAgEBAgQCwkLEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBD/wAARCAOPBnMDASIAAhEBAxEB/8QAHQABAQADAAMBAQAAAAAAAAAAAAcFBggDBAkCAf/EAGkQAAEDBAECAgMLCQIFDA4GCwABAgMEBQYHEQgSEyEUMdUWFxgiN0FWWHeVlxUyOFFXlrW20yNhCUJxgdIZJCUzUlNidqa0wdQmJzRUY3JzhZGSoqSzwjU2VXR1obHEQ0Rko7LDgoPx/8QAFAEBAAAAAAAAAAAAAAAAAAAAAP/EABQRAQAAAAAAAAAAAAAAAAAAAAD/2gAMAwEAAhEDEQA/APqmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOdcQ0hpfZW2t433Y2ocKyq5QZxRUkVZe7BSV08cDcXsbmxNkmjc5GI573I1F45e5fnU3X4J3Sx9WnVX7m27+iNN/KLvb7QKP8AlWwlVAlXwTulj6tOqv3Nt39EfBO6WPq06q/c23f0SqgCVfBO6WPq06q/c23f0R8E7pY+rTqr9zbd/RKqAJV8E7pY+rTqr9zbd/RHwTulj6tOqv3Nt39EqoAlXwTulj6tOqv3Nt39EfBO6WPq06q/c23f0SqgCVfBO6WPq06q/c23f0R8E7pY+rTqr9zbd/RKqAJV8E7pY+rTqr9zbd/RHwTulj6tOqv3Nt39EqoAlXwTulj6tOqv3Nt39EfBO6WPq06q/c23f0SqgCVfBO6WPq06q/c23f0R8E7pY+rTqr9zbd/RKqAJV8E7pY+rTqr9zbd/RHSd+ixpv7P8e/h0BVSVdJ36LGm/s/x7+HQAVUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAASrTfyi72+0Cj/lWwlVJVpv5Rd7faBR/yrYSqgTW69TPTfYrpU2O+dQWtbdcqKZ1PU0dXldBDPBK1eHMfG6VHNci+SoqcobbPneD02JyZ5U5lYosZih9JkvT7jC2gZDzx4i1Cu8NG8+Xd3cHEui9ydNOD1WzbFtazSVV898W/S9zcDuN35idP8VPHp6SVnzL8Xv5T50QwuaY3PbukXqpyuw4VccPwPKZXV+LWWut77e9saQwsqKltI9Gup2TSorkYrW88K7hO4DsOg6oeme61sNttfURrKsq6h6RwwU+XW+SSRy+prWtlVVX+5CmLJGkfjLI1I0b3d3Plx+vn9RyVf+ovpWu+CU2v6/Br9kN3yC1ehUOPv1pdmTXWbwURY4lqKNka+fmr1ejWp8ZXIicmv+5HNabAOm3pT2hVVDIsibUvy2lSqdI6po6CmdMy2yTNdy5iudCyReVR7Y1avKOA6px3cGpcvvlRjGJbRxG93mkVUnt1uvdNU1MSp6++KN6vbx/ehkcmzvB8LmtlPmOZWOxS3qqbQ21lzuMNK6tqV44hhSRyLJIvKcNbyvn6ifbe6fdYZVrCusFvxG02Kqs1FJU4/cbVRx0lTZquJiuhmppI2o6JWuROUb5KnKKiovBylth1z6sdOdMdyvCJFf8AKqO518UyInMV1htb3xTt/UqTxNcn/wCj5gPoLWVlJb6SevuFVDTUtNG6aaeZ6MjijanLnOcvk1ERFVVXyREPRxvKcZzGyU2TYhkVrvlnrGq+muFtrI6mmmaiqiqyWNVa5EVFTyX1opAM52HLuLpswy00DpILntx1FYKmNrlbJTte1XXNPJeWuZDBVN/uXgh+CTJL099PvT9RST0OP7CzG7Wi7JTTOje+10clbUPpUc1e5Gy+EyN3C89quTnzA7Usu4dR5Jkc2H47tPELpfqdVbNaqK+Us9ZGqetHQser09S+tPmGcbg1JrGekpdk7SxHE5q9jpKWO+XumoHTtaqI50aTParkRVRFVOeOUNbz7pz1Blet58DiwSy2mmo6Z35IntlFHSz2qdjeYp6WSNEdDIxyIqOaqL5efPKmvdOFxo94dPWF5rsyw2m+378nSUdXV1tBHKss0Ej4ZJG96KrUe6Pv4/WoG22LqT6dcovFJj2M781zd7rXyJDSUNDlVDUVFRIvqZHGyVXPcv6kRVN2suR49kkdVNjt+t11joqqShqX0VUydIKmNeJIXqxV7ZGr5Oavmnzoc/8ARHhGFu0FjV6diFlW4x19zeyrW3xeM1zbhOjVR/b3IqIiceflwSey55f9ddLu9L/ita+ivE+zL1a6KsYiK6llqq6KnSZOfnYkiuT+9EA66um4dSWPJo8Lve0sQt+QzKiR2mqvdNFWvVfUiQOej155T5vnM5kWT41iFplv+WZDbLLbIVY2WtuNXHTQMVzka1HSSKjUVXKiJyvmqohomJ9OOlsa14zXTNc2GutVRToy4enUMdRLcZXJ/aTVEkiK+WVzlVyvcqu5X1nIGwEfcOmPc3T3fLhX3Oz4FsO2YxQVFVUOkn/JVRU0c0UCyL8ZViZOsaOXleGt814A+g1RXUVJRS3KrrIIaSGJ08lRJIjY2RonKvc5fJGoicqq+XB47VdbXfbbS3myXKluFvromz0tXSzNlhnicnLXse1Va5qovKKiqinLmAZRfcHwnZPSxsW4y1V8wrGa6pxu5To7uvWOugkbTy9y8980PlDL588ta7/GK30sfo26x/4q23/m7AKmSrpO/RY039n+Pfw6AqpKuk79FjTf2f49/DoAKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJVpv5Rd7faBR/wAq2EqpKtN/KLvb7QKP+VbCVUCM9MOvsv15Zc5pMxtH5PlvOd3q80TfSIpfFo55UdFJzG5yN7k/xXcOT50Q8/V5gWWbQ6adha/wW1flO/3yzvpaCk8eKHxpVc1Ub3yuaxvki+bnIhXwBMNraWtm49Mu1xfpH0Fe2jgkt1whVPHtdyhaiw1MTk9T45EReU9acp6lJ47XW9tl6uwPLMst9vxjc2t7i+ppn1VRHPbrs5rHQTd7qd71ZBVQrz5p3xuVFVnxeF6SAHPeWX/qg2ljNbry1aXi13U3eF1DcMmumR0VdTUcD07ZZKKGmc6aeTtVyMSZkCIqoq+rg8150XX41k3T7Zte2RZMX1nPWQVkqzxMWmpltzoInq1zkc9XPVOUYiqiryqInmX4Ac26p0ln2Lb2yOqvdrp4tf4/Lcbjhcjatj3SVV2eyWsasSL3R+C5kjWqqJyk7uPJDFYj03Z7L094TZZvRMb2NgGQ1eR2OSrcypp2TuqqhUimWFzk8KaCZWOVqq5qP545Tg6nAEAv+YdVeb47V4RZdF0eE3m4QrRz5NcslpK22UbXp2vnpooFWpqHInKsZLFAnPby5E5Kjq7W9m1JrSw6zxx8stDj9vZRRSzLzJM5E+NI9f8AdOcrnL/eptwAk3Szg2U640nZsRzO1/k67UlVcJJqfx45u1stbNIxe6Nzmryx7V8l8ueF4XyND17063m96d2xq3ZVDLZmZpmF7uVBPDPFNJHBNM2SlqmdjnIjkc1r0a7hydvCoh0qAILac46rMas0WH3jQtBlF+pIUposmocmpKSz1itTtbUTxSr6XAqpw50bIZkReURypwppuU9NGe2/p3vmMUklPlOwcvy2gyrIamndHSwzVPp1PJKkXiuaiRRQxIxiOXuVsaeXK8HVgAgnV9o7KNrYH7otUzQ0eysYhqXWCoe5rGVUc8Sx1NDKrlRqxzRqqfGXtR6Md5cG+6Cxe+4TpHBcQyeh9Cu9mx+hoa6n8VknhTxwta9vcxVa7hUVOWqqfqU34ACVdJ36LGm/s/x7+HQFVJV0nfosab+z/Hv4dABVQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKtN/KLvb7QKP+VbCVUilNYN+4NsDYt3wrCNf5BZczyCmvtNNdMxrbXVQdlnt1C+J8MdrqWfn0Dno5JfNr05RFRTLe6Pqn/Y3qr8S7j7CAqoJV7o+qf9jeqvxLuPsIe6Pqn/Y3qr8S7j7CAqoJV7o+qf8AY3qr8S7j7CHuj6p/2N6q/Eu4+wgKqCVe6Pqn/Y3qr8S7j7CHuj6p/wBjeqvxLuPsICqglXuj6p/2N6q/Eu4+wjUtsb23ppXXd82hn+rNV0VisFN6RUvbsm4ukeqqjWRRt/ISd0j3uaxqcpy5yeaJ5gdBAjGNbF6j8vx21ZZj2qNT1lqvVFBcaGoZsu49s1PNGkkb0/2B9Stci/5zJe6Pqn/Y3qr8S7j7CAqoJV7o+qf9jeqvxLuPsIe6Pqn/AGN6q/Eu4+wgKqCVe6Pqn/Y3qr8S7j7CHuj6p/2N6q/Eu4+wgKqCVe6Pqn/Y3qr8S7j7CHuj6p/2N6q/Eu4+wgKqSrpO/RY039n+Pfw6Ae6Pqn/Y3qr8S7j7CNg0hhV11rpfAdc32opJ7liuL2qyVktI9zoJJ6akjhkdG5zWuViuYqoqtavHHKJ6gN1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADjP/AAlGidh7w1vE2lzyhsODYrTS3euoWQSS1l1ufckdNGqctY2FqPd59yr3PX4q8NVOzCU9T/x9N19H/wDaF4sNv4/X6Rd6OHj/AD+JwBhuj7UWy9C6fi0/sbIrbf48Zr56awXSkWRH1Nrd2yR+NG9OY3te+VnajnIjWtRF4RC3gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACU9R/9thuN27/vzP8AD28frSK+0U6p/wCiFSrEp31/bVesbd/35sC2+X6/Bgqaj/8Asc/5gKsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKdxf642NpCgT1Lm9XVPT9bI8du/H/tujKsSnY3+uN56ho/X4El+uHH/iUKQ8/+8/8A5gVYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYDP80teucIvue3unqp7fj1vnuVVHSsa6Z8UTFe5GI5zWq7hPJFcif3oYHU2xNbb7wvG90YRHT19JW0sq2+rqKdnpdEkitSeBV81id3Rta9qO4VWJ60RFMT1T/o27O/4q3L/m7yH65anS5lWF3uJEp9Xbet9sguDe5UhseTOpY2xTIn5rIatERjvUiStav+MoHSmq9nWHb2Hx5rjVJcKahlq6uiSOujYyXvp53wvVUY9ycK6Nyp588KnKIvkbeQPof+QCj/APx6/fxOoL4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABq21MH98zW2T69/Kn5N90dqqbZ6Z4HjeB40as7+zub3cc88dyc/rQxt+1DjeXacdpjLebha5bLFZ5pmt8N6rHE1jZ2eaqx6Oaj2qiqrVRPPyN7JpiF2utfvrY9vmudXJbbZZschpqR0zlggmctfJK9jFXta97Xwo5yJy5I2IvPanAePpt0ovT1p+zaodlcuSLaH1L1uc1L6O+fxZny8uZ3v8ANO/hV7l5VOfLngp4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlOr/8AXG49zVnr8G82e38/+JZ6Wbj/AN5//MqxKdKf22Y7ouPr9Lz9qIv90NitMHH/AKYV/wDzAqwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEq6ff7ajz+4/wDfmwL95/r8GdKf/wDscf5iqkq6af7XXNzr19ddm+ZVSL+tjsiuHZ/7HYBVQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGqbO2FR6vxCTLa2w3W9/7IW2109utfgelVVVXVsFFTxsWoliiTmapj5V8jWo3lefI1X35Ni/VO2r95Yr7ZAqoJV78mxfqnbV+8sV9sj35Ni/VO2r95Yr7ZAqoIpifUblGc4rZs1xbpc2rW2XILfT3S3VPpuMR+PSzxtkik7H3hr29zHtXhyI5OeFRF8jLe/JsX6p21fvLFfbIFVBKvfk2L9U7av3livtke/JsX6p21fvLFfbIFVBKvfk2L9U7av3livtke/JsX6p21fvLFfbIFVBKvfk2L9U7av3livtke/JsX6p21fvLFfbIFVBKvfk2L9U7av3livtke/JsX6p21fvLFfbIFVBKvfk2L9U7av3livtke/JsX6p21fvLFfbIHu773vifTphMGxc7tt3nx5LnTW64Vdup2zfk1k3c1tTMxXI5YkkRjF7Ec7mRvDVJD0N9R+tNr4w7XWBT3S612Pw1V3vVeygfHQ0stZXzyx06yv4V0zke56IjVThj/AI3LVQ2XbF8ybcGtcl1hk/SXtVbbkttmt8zvT8Uc6JXt+JK1FvPHcx/a9v8AwmoTjo3wbLulHS9Drqn6V9m196qJn3C+3KGvxdG1dY/y+L3Xnu8NjEaxqLx+aruEVygdkAlXvybF+qdtX7yxX2yPfk2L9U7av3livtkCqglXvybF+qdtX7yxX2yPfk2L9U7av3livtkCqglXvybF+qdtX7yxX2yPfk2L9U7av3livtkCqglXvybF+qdtX7yxX2yPfk2L9U7av3livtkCqglXvybF+qdtX7yxX2yPfk2L9U7av3livtkCqglXvybF+qdtX7yxX2yPfk2L9U7av3livtkCqgimJ9RuUZzitmzXFulzatbZcgt9PdLdU+m4xH49LPG2SKTsfeGvb3Me1eHIjk54VEXyMt78mxfqnbV+8sV9sgVUEq9+TYv1Ttq/eWK+2TYNY7Oj2VHkcM2F5BityxW8JZLlbb26idPHO6ipaxrmuo6iohcx0NbCqKknPPcionAG6gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABNNj7Hz6wZ/jGudc4Lj+QXLILPd73LLe8jmtMFNBQTW+FzWuhoqp0j3uuLFRFa1ESN3mvKIUslWR/pT68+z/Mv4jjgD3R9U/7G9VfiXcfYQ90fVP8Asb1V+Jdx9hFVAEq90fVP+xvVX4l3H2EPdH1T/sb1V+Jdx9hFVAEq90fVP+xvVX4l3H2EPdH1T/sb1V+Jdx9hFVAEq90fVP8Asb1V+Jdx9hD3R9U/7G9VfiXcfYRVQBKvdH1T/sb1V+Jdx9hD3R9U/wCxvVX4l3H2EVUASr3R9U/7G9VfiXcfYQ90fVP+xvVX4l3H2EVUASr3R9U/7G9VfiXcfYQ90fVP+xvVX4l3H2EVUASrF9l7T99O16z2ZrnFLJ+W8ful9oq2xZZU3X/uGpoIZIpY5rdS9nd+UWOa5rnf7W5FROUUqpKsj/Sn159n+ZfxHHCqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAI+/aG6L/AJvm2Na51ZhVxtuF3insktde82q7dPUzyWyir3ObBDa6lrWI2uYxFWVVVWOXhPIsBKtN/KLvb7QKP+VbCA90fVP+xvVX4l3H2EPdH1T/ALG9VfiXcfYRVQBKvdH1T/sb1V+Jdx9hD3R9U/7G9VfiXcfYRVQBKvdH1T/sb1V+Jdx9hD3R9U/7G9VfiXcfYRVQBKvdH1T/ALG9VfiXcfYQ90fVP+xvVX4l3H2EVUASr3R9U/7G9VfiXcfYQ90fVP8Asb1V+Jdx9hFVAEq90fVP+xvVX4l3H2EPdH1T/sb1V+Jdx9hFVAEq90fVP+xvVX4l3H2EPdH1T/sb1V+Jdx9hFVAHzq33/hY8q6dtsX3Tma9Nlqrb1j/ovpM9rzuSSlf49NFUM7HSWyN68Mmai8sT4yLxynCqOFv8KP8Ap2bN/wDMv8HogB9/gAAAAAAAAAAAAAAAAAAAAAAASrqW+Tq0faBgn81WsqpKupb5OrR9oGCfzVayqgAABKuk79FjTf2f49/DoCqkq6Tv0WNN/Z/j38OgKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKuk79FjTf2f49/DoCqkq6Tv0WNN/Z/j38OgKqAJVpv5Rd7faBR/yrYSqkq038ou9vtAo/5VsIFVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACVZH+lPrz7P8AMv4jjhVSVZH+lPrz7P8AMv4jjgFVAAAHOUmx+o7ON6bE1trS962stnwZtr7JL7jtfX1NQ6qp1lVVfDXQNRGqionxPUpmMG21tax7tp9E7tpMTrK+92Oov9ivWMw1NNBUR08rI6iGamqJJXRPb4sbkckrkcir5IqAXUHJmptndaG77LecvxC86VtFpo8ku9kpaa5Y9dpqnso6uSBHPfHXNaquRiKvCJ6/UhuedbL39pbX1lzXZjsDvDYspo6PI5bDbK2CKns1Q9sPjxNmqHuZLHK9rnOcrm9nPDUXzA6ABpO59kQan1TkuxlgZVSWe3yT0lOvmlTUqnbBEnCoq98jmN4ReV7ifU+5NnWrcen9S5ZbceSfNMSul4yGSlppmOgr6RlMqR03dM5GR90z0VH96rwnDk8+Qu4OVsD2T1i7frcwuWCXjTVpsuP5VcsepYbvYLpPVPZSy9qPe+KtaxVVFT1NT/IbPl+x+oXTeDWrKtpVGvrw6bMLXbLjJYLVXU8NPaauVkDpEbNUyOSVksjV71VWIxfNvkqgdBA596quoXM9Jz4xT4LZbNc3zLUXrI0uLZXei2CldE2rmi8N7eJUWdnaruW+S8opuG1dqXzFsk1li2GUlBW1We5AlJM+qY97YbbFTyVFRM1GPbw5Gsa1qryiK9OWqBUgABKsj/Sn159n+ZfxHHCqkqyP9KfXn2f5l/EccKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlWm/lF3t9oFH/ACrYSqkq038ou9vtAo/5VsIFVAAAAmu14eop9XSz6WvmuaCgip3urm5Raa6smfKi8p4S01TC1re31o5FXn9QFKBzN04551dbbx7F9k5Vd9QQYvdpJH1tDb7Fc4q9IWSPjckcr6x8aO5ZyiuYqcfMZfBtn742/hWWVeAS4Fab/j+c3PH4ZLxbqyejfQUr+1qujiqGvWZeW8uR6N9fxUA6CByPr7Y3XJsDMdg4dR3/AEXSTa/vMFnqZpMbvDm1T5aOGpR7ES4ctREmRvC/O1SzYTs7Jr9vLO9W3eltbaHFLTZa2nnpopGzSTVbJVmR6ueqK1FjTtRGoqIq8qoFSBGurDbWb6Z1XBlOvKaxzXyuyC0WSn/LVPNPSMSsq2QK97IZI3r2o/lOHp6vnMXBbeu1J41qsz0M+FHp4jY8ZvLXK3nzRFWvVEXj5+F/yAXkH5Z39jfE47uE549XP9x+gAAA+AP+FH/Ts2b/AOZf4PRAf4Uf9OzZv/mX+D0QA+/wAAAAAAAAAAAAAAAAAAAAAAAJV1LfJ1aPtAwT+arWVUlXUt8nVo+0DBP5qtZVQAAAlXSd+ixpv7P8e/h0Bp996h90Vm38x1Zqfp/s+VR4W2gWsuNfmyWpXuqofFajYlo5fVwqc96+r5jcOk79FjTf2f49/DoCF2el6gKjq33kuk75r63xNbj3p6ZTaq2sc93oTuzwlpqiFGpx3c93PzccAVfEepG9VlbmGH7I1XVYdm2IWB2SOtS3aKuo7jQ9r+JKasjY3uTvjVjkdG1zVVFVq8mA13v7qb2dr2wbNxrpmw99oyO2wXWjifsp7KpYZWI9rVY61oxH8L6leic/4yes/TNMZ1ZaHZW5tx5xacjzC64ZVWSnhstqfQW22UMcUsixQskllle58ju5z3v+ZERE4I7qK89ZGEdF2AZlr2760utkt+I2+pbbkxWvmu8NvSBqudGq3FkNTUMZ59qtia9UX1eoDpnC+pDBcm09c9x32Ksxigx6WrpL9RXFqLUW2spZFjmp3IzlJHd6IjVZz39zePXwa+zem9ai1rmlJ0r3N2K+GtS2OXJaaPIH0/HPiJbfDWPlW+aRrVJJ83bz5EQ2HjGJ2fotxbJsAy2pynHrxnNhzLJb5UNax1fBPdYpq2aWNvxY2NVURY08mNZ2qq8Lz3IyaF8KVDJWLE5vej0cnareOeef1cAQLcPVxZ8F6fLZv7WmIy5/S3mupKGhtjKxbfNI+Z7mOa5XRSKyRjmuasas57kVPIreN7Ax/JddW7Z1JVMZZbhaI702VXIqMp3RJKqqvq8m88/5Dh63shrdLJcrfEnucu3UbHU2VOziOSkddOHPYnzsdKkqoqeS8qqes36lqaq162yPpLhlkjuD859yNAn5rksFcq1yvbx/isolqY0X9caIBS9F9Wtj2tp7KNz5njD8Ds+LXGrpallZWLUP9GhYx7Z3f2TFa57ZGqkfaqoqonKqp5YN7bzuVq92tm6WLnNirovSYWVOS01Pf56fjlJGW5Y1jRVb5pG+pZJ6kVqKvBzlnlvnpNBbmS3MSK0WfdlLVXVrfJjLVBWUDp+7/gNjby75u1FPoBBPTz00dTTSsfBIxHxvYqK1zFTlFRfVxwBKajdOU5rrmw7F6dMAt+f095kck1Pc78tifRtby17ZO+nmd4rZGqx0StarVRfPy855r7qS6mtiXC80tr6VMcjhxy+S2G6Su2U3uini7FlVjVt6eIiNeip5pz6uU9ZlujN7ay0bQvNqVFx257IvdRZXMTiOSHva2V8f62umbKvKeSryp73Sp/3fuX7Tbt/8KADc8X3FHkW3s81XUWFtCzB6K21j7k6s7kqUq43vVFj7E8NGdnr7nc88+XBp1r6hdk7EimyDR+iHZPiUUskVPfLvkcVmbdUYqtdJQQrDK6WNVRUbJKsLXetFVPMmWSUN9ue2erG3Ywki3apwa1RUaR/nrKtDUo1G/wB6+pC+dNlfY7l0/wCu6vG5IH25cat7IfB4Rre2BrXN4T1Kjkcip8yooGDpupnH7lqDONlW/G7hBedfU9X+XcXub201bRVkESyLTyub4jURzeFbKzvY5rkcnPqM108b0xzqJ1Zatl49RTW59Wiw19rqHcz26rb/ALZBJyjVVU5RUdwnc1Wu4Tk5r2i+S4Z71dXKyStkstNrm326udGqLH+VmUtU97V4/wAdsD4Ud/laZ+mhf02XjB992yPwsCzuy2e0Z/BGxeyirfR446O7+XqTzSGZePzVY5V+KB0Fo/anvza/hzr8g/kfxa+vofRfSvSOPRqqSDu7+xn53h93Hb5c8crxyb8QDoalin6e6CeCRskcl9vr2PavLXNW51CoqKnrQv4HMeIdSvUZsll7uuuOl7H7nZLTkF0sEVZWbFSjlqH0VVJTvkWFbe7sRyx8oncvHPrU3W970zjCbRrx2xNV0dovmcZVHjU9upMiStit7ZElcyoSdKdnjctjRVZ2M4V3Hd5crB+l/Vu58qxPMLxhfU9kGFWuTYeVsZaKPGrPWxRubdZ0c9JaqnfKquXzVFcqJ83CFD6j7bd7OvTzar/kc9/uVJsW1w1V0np4qeSskSnnR0ro4WtjYrl81RjUanzIgGYy3qK283eGTaW1Poa05dLitqtt0rq+vzNLSitrPE7GtjWjl54WJ3K936vI2zD9i70mpb7ctq6Ms2JUNqtstdTS0GZtuzqqWNFcsTmpSReGioi/H+N/kIVPhGxc066NuRa+3TdteyUmJ4u6qkoLNb7gtY13pfa1yVkUiM7eHKis457l554QuFrwXZeF4Jmnvg7wu2wkqrRUei+n2S3W9aTthk7u30OKPv7uU/O547fL1gbRpXY/vwakxDaf5G/JPurs1LdvQPSPSPRvGjR/h+J2s7+OeO7tbz+pCZZr1Ebapd5XvSWp9E2rL6jH7HQXusrq/MUtKIyqfKxrGxrSTcqiwr593z+ozPRX+iRqD/ida/8Am7TVsF/T72r9n+N/85rANv1vv28X3PF1NtnWdXr7NJqF9yt1K65xXKhutKxUSV9LVRo3vdGrm97HxsciOReOCxnOu+3Orepvp3tlomb+U6a6Xy4VbGO+OltbbnxyKqcKvasr4U55ROfLzOigJV0nfosab+z/AB7+HQFVJV0nfosab+z/AB7+HQFVAEq038ou9vtAo/5VsJVSVab+UXe32gUf8q2ECqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKsj/AEp9efZ/mX8RxwqpKsj/AEp9efZ/mX8RxwCqgADj7H8Fz7MerLe7sJ3ZkGArTsx5srbZarZWNqXLRO7XPStppVTt49TFbzyvPzcZDplo6u3b5zPHt65Hecj3NYbfHDR3m5OgjpK/HpX9zJrdTU8MUUDVkaiTM4e9HtTl6oqcdH2TX2IY7lmQ5zZrR6Pe8q9G/K9V6RK/0n0dish+I5ysZ2tVU+I1vPz8qetftW4JkucY9sm8WLxMmxZk8VquMVTNBJDFM3iWJyRva2WN3CL2SI5vKIqJz5gcgdJPTpZdja+yTKa3ae2LHLNneTxLR49nNwtlE1GXOZEVsEMiMa5fWqonmvmp1HPpDHp9M3jStxvmQ3+13ehq6KWryK6zXOtck/d5unmVXu7Vd8XlfioiInkiGlS9CvTK+trq+LDsgpZLjWT19S2jza+00T6iaRZJXpHFWNY1XPcqqjURPMpOr9QYHpy0VdjwCguVLR1tT6XM2uvVbcnrJ2o3lJKuaV7U4anxWqjfWvHKqoHNGK5JeN50emNJ5KqT3LGK+ouedsdGvDpLFL6PE1yc+Xi1fgSpzzy1i+v1m77M/Tv0l/xQyz/9NEWTGtS67w/Nsl2LjeMw0WRZesK3qubNK51UsSKjPiucrGetVXsRvK+a8r5ntXPXOGXjPLJs25Wbxslxyjq6C2VvpErfAgqezx2eGjkjd3eGzzc1VTjyVOV5Dkjp06e7Nsv3zckrtn7UsMq7Hv8AB6JjebV9rpOGzp8bwIHtZ3Lz5u45XhC6Z1oqBnThmOprTlOU3uWuttZLR1+Q3ia6VzKrt8SHiedXOVGyMYrUVeE/yHo3Poi6brrerpkFRiN/grbzWzXGtWizO90kctRK7ukk8KGsbG1VVefitRDftXaX17pqgr7ZgFuudLT3KVs1SlffK65uc5re1OH1k0rmJwq+TVRPn45Ag+lay39UN5zTObh21Fqkwe14XEip5MnqqX0qvRP1L3TwNX9Sx/5TG9Lt3uOz9jYnPf3ulrdQYK/H7gvn2peJqt1NKvHzOSK38/rRJv1KdLa21VgGoLHVY3rnHIrNbq24VN1ngZNLL31U7++V/dI5zk5X/FRe1E4RERE4P7hOrMB11dMmvOF47FbKzMbmt5vcrJpX+l1isRiycPcqM8mp8ViNbzyvHKqqhtYAAlWR/pT68+z/ADL+I44VUlWR/pT68+z/ADL+I44VUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYvKMnsGF49X5VlN1gttptkLqiqqplXtjYn9yeaqq8IjURVcqoiIqqiAcw9YnX3b+lJ0tqbpjM8huC+G2C4y0jqKxue9iPRra1yO8V6Iq8sYxfNrkVzVPN/g8tlZzuLBdjbQ2PZ7far7kubQ3CWkt7Xtgjp347ZvRu1Huc7zp/Bcqqq8qqr5epNjumhW9Tlnv9+3/bK2jt+QWuotWM44/sbNjlHM3j056ORzUucnxXqrkckLWtiRF/tlkzfTRitswW67ZwmyNc23Y9ltqtVIjuOUhgxDH4mc8eXPaxPUBbgAAPBW/9xz/+Sf8A/oU85+XsbIx0b05a5FaqfrRQId0RfowYT/5Gr/53MYrot/8Aq5s37Tsi/wDjoWvCMIxfXGL0OGYZbPydZ7cj201N40k3ho56vd8eRznry5yr5qvrPFhWvsQ15TXOkw60fk+K83SpvNa30iWXxayd3dLJzI5yt7l/xW8NT5kQCNdNny49Sf8Ax4t/8Foj29b/AKYe5v8A8Axj/wCHUlaxrX2IYhfMlyTHbR6Jccvro7lepvSJZPSqlkLIGv7XuVrOI4mN4YjU8ueOVVV0PYHSdorZ+ZVWf5hjN3lv1bTw0tTV0GUXW3eLFEipG1zKWpjYvajl8+3nzA0H/CG29l20JbbXJU1VOyszjGKd01LO6GaNH3OFqujkbw5j055RyeaKiKhtdn6Tcest3obxFuveNU+hqYqlsFZsi6T08qscjkZLE+RWyMXjhzXIqKiqi+SmTm6T9E1Wt6vUlbit0q8XrbjDdZqWpyW6TTLVROa6ORtS+pWoZ2qxqojZEb5eowHwF+mz6OZb+IORf9eAvoPHT08VLTxUsDVbHCxsbEVyuVGonCea+a/5VPIAAAHwB/wo/wCnZs3/AMy/weiA/wAKP+nZs3/zL/B6IAff4AAAAAAAAAAAAAAAAAAAAAAAEq6lvk6tH2gYJ/NVrKqSrqW+Tq0faBgn81WsqoAAASrpO/RY039n+Pfw6A2LF9VY9iWw8x2Vbqy4yXPNvQfyhFPIxYIvRYljj8JqMRzeWqvd3Odyvq49RrvSd+ixpv7P8e/h0BVQMfkNlpcksFyx2ukljprrRzUUzolRHtZKxWOVqqioi8OXjlFTn5lMPrHXlk1RrnHNY49U1tVasYtkFqpJa57HzyQxMRjVkVjWtVyonmqNRP7kNoAE0150/YFray5ZiVo9Or8Yy641NxnsFyWGegolqE/t4aeNI0VsL3KrlY9z0RXLxwi8GrfBJxplA/F6fbW06fC3sWFcUiyTigSBfXA2fw/TWxcfF8NtSjUavCJx5F0AE+yfRuBZHh+M4HT0ctjseI3S3XW10lp8OFkT6J/fDFw5jk8PlPjIiI5f90i+Z+KjReEVO76bf0j7kmSUtndZmwpUIlE5iuVUmdF28rMjXOYj+7yY5ycefJRABpGJagxDEqTL7dEyoulHm93q7zdaa5eHNE6SoY1kkTWoxE8JWsRO13cvmvKqaGzpKxqmon4za9s7St2Gvasa4pS5H20DYV9cLJljWsii45Tw2VDWoi8IiJ5FzAGKxXFccwfHLdiOI2WktNmtNOyloqKljRkUETU4RrUT/wD6q+a+Zhtf6zsOuJsmmsdXXzuyq+1GQVnpcjHJHUTNY1zY+1jeI0RicIvcvr81NuAGmY9qnHca2Xle06GsuMl2zGnoaauhmkYtPG2kY5saxNRiORVR693c53PlxwaVVdLeNUdzr6zXuyNga+obtUSVdwtGMXWKGgnmkXmSRkM8MvoznqvLlp1iVV8/WqqWgATam6fdbWzUt80zYqCrtlkyOmq4LjUw1Ky11RJUtVJqmSom73Szu5VVfJ3efHzJwbJVa9xi468XV15ovynYJLS2yzwVfDlnpkiSLh/CIiqrU9aInn5pwbKAIhhVFqjo315j+oLa3Pa+1UjaiShkpsWud+lRrpVe5JZLdRvYzhX8NR6NVUT5+FUz9n6jtcXy60lnobVsRlRWzNgidVa1yOlhRzl4TvmmoWxxt/W57kanrVUKgANM1VqrHtQWC4Y5jVZcammuV7uV+lfXSMe9tRW1L6iVrVYxiIxHyKjUVFVE45VV8xsXVWPbNrcTr79WXGCTDr7DkNClJIxqSVMTHta2XuY7mPh68o3tX1eaG5gCG5v0p23LNpXjbti3Rs3Cb3fqCjt1wjxqvoYaeeKl7/C5bPSSu5TxH/43Hn6jMYXoGvxSa5ret97SzKlulumtz6PIrjQywRNkThZWJBSRKkiJyiKqqnmvkpWgBzdi/RdNhWOW3EcV6rd7W2z2eljo6Gjhu9pSOCBje1jG827nhEREM7mnSjbcr2XWbXs269n4dfbjaKOy1rseuFDFHUwUyvWNXpPSSuV3Mj1VUciefqQugAmOrun3D9YX2uzL8uZNlmV3KnbR1GQ5Pc1rq70Zq9yQR8NbHDH3easiYxFX188JxTgAJV0nfosab+z/AB7+HQFVJV0nfosab+z/AB7+HQFVAEq038ou9vtAo/5VsJVSVab+UXe32gUf8q2ECqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKsj/AEp9efZ/mX8RxwqpKsj/AEp9efZ/mX8RxwCqgAAAAAAAAAAAAAAAAACVZH+lPrz7P8y/iOOFVJVkf6U+vPs/zL+I44VUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADw1lZSW+knr6+qhpqWmjdNNPM9GRxRtTlznOXya1ERVVV8kRCM45bK/fmW27Z+Qxzwa9sUyVWH2iZisW71KfmXmpY5OexPXSxO9SL47k7nRJH4rlDL1K5F+TIJ3e9JYKtW18jPzcvr4X8LTtX/Gt8Mjf7RU8p5WdnnEx/i3BERqI1qIiJ5IifMB/SVab+UXe32gUf8q2EqpKtN/KLvb7QKP+VbCBVQAAAAAAAAAAAAAAAAAB8Af8KP8Ap2bN/wDMv8HogP8ACj/p2bN/8y/weiAH3+AAAAAAAAAAAAAAAAAAAAAAABKupb5OrR9oGCfzVayqmv55geM7KxmfEMvpaue2z1FJVqlJcKihnjnpqiOpp5Y6imfHNE9k0MT0cx7V5YhpXwaddfSPav4sZV7RAqoJV8GnXX0j2r+LGVe0R8GnXX0j2r+LGVe0QHSd+ixpv7P8e/h0BVSP2npT1LYLVRWKxXDZVuttup46Sjo6TaWUQwU0EbUbHFHG24I1jGtRGo1ERERERD2/g066+ke1fxYyr2iBVQSr4NOuvpHtX8WMq9oj4NOuvpHtX8WMq9ogVUEq+DTrr6R7V/FjKvaI+DTrr6R7V/FjKvaIFVBKvg066+ke1fxYyr2iPg066+ke1fxYyr2iBVQSr4NOuvpHtX8WMq9oj4NOuvpHtX8WMq9ogVUEq+DTrr6R7V/FjKvaI+DTrr6R7V/FjKvaIFVBxB1xZBqrpG1RBllNeNkXPJ7zXR0VktlVtvLEZP2ua6okf23JHdjIlXzT/HfGi+SlwwvTGndgYhZc5xjLtq1Nov8AQQXKilXbGUoroZmI9nKflHyXhycp8y8oBbwSr4NOuvpHtX8WMq9oj4NOuvpHtX8WMq9ogVUEq+DTrr6R7V/FjKvaI+DTrr6R7V/FjKvaIFVBKvg066+ke1fxYyr2iPg066+ke1fxYyr2iBVQSr4NOuvpHtX8WMq9oj4NOuvpHtX8WMq9ogVUEq+DTrr6R7V/FjKvaI+DTrr6R7V/FjKvaIFVBKvg066+ke1fxYyr2iPg066+ke1fxYyr2iA6Tv0WNN/Z/j38OgKqR+09KepbBaqKxWK4bKt1tt1PHSUdHSbSyiGCmgjajY4o423BGsY1qI1GoiIiIiIe38GnXX0j2r+LGVe0QKqSrTfyi72+0Cj/AJVsI+DTrr6R7V/FjKvaJtWvdY4hq+julFiUN1/2buH5UuNRdL3W3WqqqrwIadJH1FbNLKvENNAxE7+1GxpwiAbWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlXUtsfamq9W3DMtSa4t2YXWibJLUR3G9QW2lt9MyJ8j6uZ8zmJJGzsRFY17XL3IqKiIqpxt0D1OWdY+ZbUzPrDxC05fUYxPQWqy2fIbFDNSWR8njvqY6elmYrYXqjKVHu48R6MZ3ud2odbZKrt5bJdr6BHuwTBquCryWZO10N5uzeJILV/woof7OeoT1K5YIl5TxmpULNiGMY9d73frJZKWiuGR1EdXdZ4WdrqyaOJsTJH/ADK5I2Mbz+pqAaF8E7pY+rTqr9zbd/RHwTulj6tOqv3Nt39EqoAlXwTulj6tOqv3Nt39EfBO6WPq06q/c23f0SqgCVfBO6WPq06q/c23f0R8E7pY+rTqr9zbd/RKqAJV8E7pY+rTqr9zbd/RHwTulj6tOqv3Nt39EqoAlXwTulj6tOqv3Nt39EfBO6WPq06q/c23f0SqgCVfBO6WPq06q/c23f0R8E7pY+rTqr9zbd/RKqAJV8E7pY+rTqr9zbd/RHwTulj6tOqv3Nt39EqoA+fX+EFslN0nYzr7bPSlgWPYNlsmUNssq4zj9NTOu0E8Ej/Qp44Y09Ijc+BqpG5F+M1rm8Oa1U6V6St57E3xrSlyrZWpqrDbjJS0tVFUxVEc9su0M7XOZPRva9z0ThvLmPT4qPZw5/K8VfIcPxfLJ7NU5LYqS5SY/cmXi1uqI+/0StZHJGydn6ntbLIiL83dynnwpNsEcupNp3DUdQnh41lrqrIsPd59lPUd3fcranzNRr3pUxN+dk07URGwAWIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABzRjvVldm9WuU9Pub2ChoMeilpqHGb7E17PSLi6lbUSUU7nPVqyOYrnx9rW8oxyea+ZvGaZhcL9u6Lp5uFLT+5nKMEuVwrqiF80Nc1/jsplbFMx6eGnZK5eUb3I5EVHJwSOn1JbN1Zz1K4VWVklvrVyCx1loukPHjW24w22N9PUxr8zmPRF/vTlPnMLovbV02b1aWK0ZrSNt+e4bgFzseWUCJwkdayvg4mZ+uKZnbKxf9y/j5gOyrTabZYbVR2OyW+nobfb4I6WkpaeNGRQQsajWMY1PJrUaiIiJ6kQ9sAAT/ACnp60FnN9qspzXR+v8AIL1W9npNxumM0VXVT9jGsZ3yyRue7tYxrU5Xya1ETyRCgACVfBO6WPq06q/c23f0R8E7pY+rTqr9zbd/RKqAJV8E7pY+rTqr9zbd/RHwTulj6tOqv3Nt39EqoAlXwTulj6tOqv3Nt39EfBO6WPq06q/c23f0SqgCVfBO6WPq06q/c23f0R8E7pY+rTqr9zbd/RKqAJV8E7pY+rTqr9zbd/RHwTulj6tOqv3Nt39EqoAlXwTulj6tOqv3Nt39EfBO6WPq06q/c23f0SqgCVfBO6WPq06q/c23f0R8E7pY+rTqr9zbd/RKqAJV8E7pY+rTqr9zbd/RBVQABH7T1Walv9qor7Yrfsq422408dXR1lJq3KJoKmCRqOjljkbb1a9jmqjkciqioqKh7fwltdfRzav4T5V7OAqoJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4CqglXwltdfRzav4T5V7OHwltdfRzav4T5V7OAqoJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4CqglXwltdfRzav4T5V7OHwltdfRzav4T5V7OAqoJV8JbXX0c2r+E+Vezjf8TymxZzitmzXFq702y5Bb6e6W6p8J8fj0s8bZIpOx6Ne3uY9q8ORHJzwqIvkBlgAAAAAAAAAAAAAAAAAAAAAAAcodaXS/qba1VY9i7AoLnermt6xXFaKiluMsVFSUlTf6dlY+OKJWr4stPUTMc9zl+K2PtRqtRxb9FaYsOgNd0mr8Uvd4uNkttVVTW9t0mjlko4ZpnSpTMcxjVWNivVG9/c7z/O44RMVv8A/t4td2z1+m7Asvl+vwXvqf8A9X5/zFVAAAAAAAAAAAAAAAAAAAAAAABr+eZ5jOtcZny/L6qrgtsFRSUirSW+orp5J6mojpqeKOnpmSTSvfNNExGsY5eXoBsAJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4CqglXwltdfRzav4T5V7OHwltdfRzav4T5V7OAqoJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4CqglXwltdfRzav4T5V7OHwltdfRzav4T5V7OAqoJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCVM6mdXemUFFW0ewLZ+U7hR2unqLprjIqCl9Kqp2U9PG+oqKFkUXfNLGxFe9re56efmVUAAAAAAAAAAAAAAAAAAABOdxZ3fLHBbMB19LTuzzMXSU1mSdniRUMMaNWquUzfnip2ORe1fz5XwxeSycpt2X5ZYsExe55hk1alJa7RTPqqmVU5Xtan5rWp5ve5eGtanKucqNRFVUQ0fTeJZBLUXPb2xKOWmy3MGRK23TK1y2C1s5WmtjVTy7m9zpJnIvDp5H8KrGRogbdr/BLBrXEbfhmNxSpR0DXK6Wd/fPVTvcr5qiZ/rfLLI58j3L+c57l+c2IAAAAAAAAAAAAAAAAAAAABpG4MArNhYc+hsVfFbcktNTFeMcuMrFcyiukHKwyPanm6N3Lo5G/40Usjf8Y3cAanq7P6bZeFUGUx0EttrHrJS3O2zORZrbcIXrHU0snH+NHK17efUqIjk8lRTbCOXlF09uWnyiN6xYhs6pgtl2Z5JFQZCjUjo6vhPUlXG1tK9fV4kNJx5vcpYwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABO9qbBvNmlo9f65gpq/Pshie63Qzorqe20zVRstyrEaqKkESqiI3lHSyKyNvHLnMyOztjRYBaqWG22x16ye+TLQ49Y4pO2W4VfarvN3n4cMbUWSWVU7Y2NVfNe1rvT1JrKpwOiuF7yi8pf81yWVtXkN58PsbNI1FSOngYv+1UsLXKyKP5k7nOVz3vc4NgsOB4pjGQZDlNjtXo10yqohqrvP48j/SZYokijd2ucrWcMRE4YjUX1ryvmY6HUeuqfaE+56fGIIszqrYlnnurJZGvlpEcjkjexHeG5UVE4cre5ETjnjyNwAAAAAAAAAAAAAAAAAAAAAAAAAAAASrpO/RY039n+Pfw6AqpKuk79FjTf2f49/DoCqgAAAAAAAAAAAAAAAACVdJ36LGm/s/x7+HQFVJV0nfosab+z/Hv4dABVQAAAAAAAAAAAAAAAAAAAAAAASrc/9vnmk7d60nzueZ6f8GHH7vIi/wDrtj/9JVSU7J/1zu7T1F6/Aqr5ceP/ABLc6Hn/AN64/wA5VgAAAAAAAAAAAAAAAAAAAAAASrqW+Tq0faBgn81WsqpKupb5OrR9oGCfzVawKqAAAAAAAAAAAAAAAAAAJV1LfJ1aPtAwT+arWVUlXUt8nVo+0DBP5qtZVQAAAAAAAAAAAAAAAAABLdx5Tf6+tt2mNe3KahyrLIZJKi6U6IrrBaWKjaivXlFRJV58GBF/OmejuFbFJwGIgczfWzPS0VlRrzXVyVKdzXcsvWSwPVHOX5nwUTkVqfM6q5X10yc2kxWK4vYcJxu24ljFujobVaaZlJSU7PUyNqcJyq+blX1q5eVVVVVVVVVMqAAAAAAAAAAAAAAAAAAAAAAAABgs5wyxbExC74RksMkltvNK+ln8KRY5WI5PKSN6ebJGO4ex6ebXNa5PNENW0lmV7v1ir8QziZj8zwqq/I19c1nY2rcjEdT10bf97qYXMlTjya9ZI/XGpRiP7kik1tktr6hrZA5aW0wJaMziiTznsLnq5Kpf1rRSvdP+vwX1aJyrkAsAPxFLFPEyeCRkkcjUex7FRWuaqcoqKnrRT9gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANcz/PLFrjG5skvyzyNSRlNR0dLH4tVcKuRe2Glp4/XJNI7hrW/5VVUaiqkb6+N43vp96Ycnz3Erw22ZK+Wkt9kqFjjk7amWdvcqNka5rlSFszuFaqL2+aE86OOoXCesHNKjaF6uU65Rj1E6O04u2hqfQcfgcjY56pKhzEimq51fwq93dHCrWNThZXyBe9U67yGlu9ftfaUsNTnN/hSBKaKTxKbH7dyjmW2ld/jIioj5pfXNL5+TGRMZTwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACVdJ36LGm/s/wAe/h0BVSVdJ36LGm/s/wAe/h0BVQJPuPqItOnslxnDl1zm2Y3vK46uWgosYpKWeRGUyNWVz/SKiFEREenqVfnMdiHVLjd+zO0YDmGtNha7vOQrKyysyy0RQQ3KWNqvfFDPTzTReIjEV3Y5zXKiKqIpO+pu8Z3YuqLSNx1zhNDld7ZbsjbHbay8pa4nsWKHucs6xS8KiefHYvP60M1PhfUJvHYGCXrbOA4tr/GsDvPugSmoMlfea65VjIXxwsRyU0LIYk8RXO83OXhE9XIGd+FdFccvy3D8L0HtLLZMKu7rJdK60QWlKVKpI2SK1i1FfFI5OyRi8qxPWbTrbf8AimyK6/4/+QMjxjJsXhjqbrj2QUTKevggkRyxzN7JHxSxu7HIj45HN5aqcoc6abyzeWNbS6jn6r07j+aUbdizzTLXZg60VHjpb6X+xjj9DmY/lqNVHOkZ5qqKiccrt/TnU3XcWRZt1MZXU2m3XmptLsN9y1uknlfYUpXySSxVcs0UTpKlZH+fbG1iNRvarkXuULLiO+Ne5VpqDfFRXTWDE5aOWulnvCMhfTwxvcxyyIxz2ovLV4RrlVeURPNeDT39XGJ0FLT5Fkmr9mY9h9U6NseV3WwJBbmtkVEZJKzxVqqeNVVv9pNAxqIqKqohzljLFq+kDpstFxa11guGfWuG8Nf/ALW+NKyofEx/62rM2LyXyVeDuzKbPj1/xm62PLaamnsldRTU9xiqXdsTqZzFSRHu5Ttb2qvK8px6+UA16+bbxixbGxHWU9PXVFxzWlray3VNOyN9K2OlYx71ker0cncj07e1rkX51QweuOo/W+z9n55p+wzV1Nk+vKtlNc6WtjjYk7XIipPTq17lfGir2qrka5F9beFRVmOUU+M0fU9060eFz001hp8dyGG2vpqn0iJaZtNA2Psk7nd7e1E4Xlef1kug13kUmWbe3zqygSXYGutl19VBAxOHXm1upKVay2PX50kYnczn1SMYoHYVLs6w1e1q/T8dJcEvNuscF/lndGz0VaeWZ8TWtd39/f3MVVRWInHHmvqNLufU5jr71cbJr3XOe7FdZal9Hc6vGLZC+jpahi8Pi9JqpoIpXtXycyF0jkXyVOfIjFDsyj2Jt3PNn6xqnVKXPR8FfbFTykZP6TVKjHJwqtkY9O1U45RzVQqPTtd7NgXR9geQYhjd3yemgxmirG0Njjjnrq+eVrXSuZ4r2NfIsj3ucrnp59yqoFC1buDDNvW+4VWLyXCmrbLVLQXe1XShkoq+21PajvCngkRHNVWqio5OWuReWuVPM3ci+l954ls7YmX4tT6dy3BMstNDb7hd0yO2UVNUVkE6ysp3d9NUTLJx4L0TvVOE44LQAJV0nfosab+z/Hv4dAVU5W/wf/U3p3beisE1zi+URxZZh+LWyz3KyV3bDWd9LSxwvmiZyviwqrO5HsVeGub3oxy9oHVIAAAAAAAAAAAAAAAAAAAAAAYzIsmxvELTLfstyG22S2QOY2WtuNXHTQRq5yNajpJFRqKrlRE5XzVUQCe5V/rnqb1zSetKbD8rrl/uclVZYm/+lJn/APoUqprFfi+OszKm2xX3OSGe02KstaOfMxtIykmlgnllcqpyiotLH8buRqNReU+dM5arra77baW82S5Utwt9dE2elq6WZssM8Tk5a9j2qrXNVF5RUVUUD2wAAAAAAAAAAAAAAAAAAAAAlXUt8nVo+0DBP5qtZVSVdS3ydWj7QME/mq1gVUAAYrKcpx3CMduGW5beKW1We1QOqaysqX9kcMTU83Kv/R61XhE8yQP6t8ZpKBMovOptpWrDVRJPdVW44jKBkK+qeSFJVrIoeOFWSSna1EXlVRPMx3WKjqqg1XZrgxr7Bctk2WC8Nf8A7W+JHPfEx/8AwVmZF5L5KqIX+rp6WqpJqWtijkp5o3RyskRFY5ipw5FRfLhU5A0yv3FiNDmWFYdGlVWe76lq6qzXSk8KSgkSCJsqtWTv7u57HdzO1rkVGu5VPLnE5j1DYNhG48S0jd6O8S3zMYny0tVT07H0VLx3+G2okV6OjdKsciM4a7lWKiqnlzyprhlZbul7Xmx2wvdSaw2lVOtT08u2wuuk9B5L88aU9Rz+rtYnCeo2vYtsq81su799WyF0lbh+RW38gyRJ3PfBj7mzTo3/AMeWWtZwnr/zgdJ5juTF8Kzi06/uFFc6q63ez3K+s9EijdHBSUTWLK+VXPare5ZGNZwi8uXz4TzPU0Bv3X3Unrei2hrepqltlXJJBJTVsbI6qkmYvDopmMc5rXJ5L5OVFRUVFXkldrrqXZe1dubNo5mz2zH8IpMatj0TlEkqKZ9fUqi/rVs1Kn+YjXT5E/pq1fpjflqhWPA85xWyWfYFPG1eyirHQsZR3jhPJERVSGZ3H5rmOVfiqB09kHVHgePazzXadRYckqbbgt8nsFfS09PAtVUVMUzIVWBrpkY5iukbwrnsXjnlE9Rg29VmRvaj2dH+/Fa5OUX8j2nzT7xOfNhPlm6P+oOS3ywrI/Zte6B70V0auW5Uvaq8KnLfV6l9R0Jabd1ztWidWZjol9GnhrKyLGrw2RY/LlGuWvVEdxzwqoqc/MoGb2F1KW7A86x/WlHqnPcqyTIrJNf4aGx09B309LFIyOTxlqquFEe10jEVGq71+s/mO9TNkr81s+A5xrPPNeXXI3yRWVcnoaVtPcZmMV7oYp6SonjSXtRzkY9zXKjV4RSVbnuuwbP11a/q9cYbaMmu662vLH0Vyvb7VCkS19L3PSZtPOquRUaiN7PPlV7k44XxUGQbH6heoGwYBtzF8f1rPqy4R5cyyU95mutbfviPigqIZ1poIW0rXSL3dqvk7kRrmsRfMOvQABKupb5OrR9oGCfzVayqkq6lvk6tH2gYJ/NVrKqAAAAAAAAAAAAAAAcy7w6js9sux8WwTW2KXGntLM1tNiyfJa6kSOmX0hyOWjo0lavjvc1U8SRqdsaLwju/83poD1bpVVVDbKytobZNcamngklho4XxskqXtaqtia6RzWNc5URqK5yNRV81RPM0TTWB3vG7fccyz3wJM7zKWOvyB0Eqyw0itarYKCncqJ/YU7FVjV4TvessqojpXEN3P1K7J0/1XUNrrHMqtR0eN0VRk7Epo1ltUlXVyQRXBHtZ4ixte1jZEV3a1jldwnHJV9rbBybH9taZx3HLy2Kz5fdblBdI2wxSNq4Y6B8sSI9zVc1EeiO5YqKvzqqeQFgAAAAAAAAAAAAAAAAAAAAAAAAAAA8VTTU9ZTy0dZTxzwTsdHLFIxHMkY5OFa5F8lRUVUVFPKRjqV3dkuqsXqrdrrCbjkeYVlprrhRdsCpb7fDTs5kqqyoX4kbG8p2x+b5HfFanrVA2HS2NZbgNqumuL3SvlsOOVngYrc31LZX1Vpe1HxQSN572yUyq6n5cnD444XIquc9G0Y0zS+Q3fLdQ4VlGQVfpVzu9goK2sn8NrPFmkgY57u1iI1vLlVeERET5kJP1p7N3RrTG8FqNFup5sgvGW09C+31EMT2XKnSGaWSlVz2uVivSPhHM4ci8cKB0WDn7ZfUG++dH9831qO8PoKz8kNqqSSWnY+WhqUlYyWGWKVqtSSN3exzXN8lRfIu9rmlqbZSVEzu6SWCN71445crUVV8gPaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAj+0H5vf90YRrnGto5BhdtuOL5Je66WyUlsmnqZ6Ors8MDXOr6Spa1iNrqhVRjWqqq3lfLgsBKsj/Sn159n+ZfxHHAHvN7F+tjtX7txX2MPeb2L9bHav3bivsYqoA51z/ENtYrletbFb+qnZUlPmOUT2SudNa8XV8cDLLc65HRKloREf4tDE1Vcjk7HPTjlUc3dfeb2L9bHav3bivsYbk+UXRP2gVn8q34qoEq95vYv1sdq/duK+xh7zexfrY7V+7cV9jFVAEq95vYv1sdq/duK+xh7zexfrY7V+7cV9jFVAEq95vYv1sdq/duK+xh7zexfrY7V+7cV9jFVAEq95vYv1sdq/duK+xh7zexfrY7V+7cV9jFVAEq95vYv1sdq/duK+xh7zexfrY7V+7cV9jFVAHOe1ujCk3hbLXZNrdQmzsjt1muLLtSUdTSY22BKpjHsa98bLS1svDZHp2yI5vxl8jZ7D09ZNitpprBjHUrsWz2yjZ4dPRUFkxKnghb/uWRssqNan9yIWUASr3m9i/Wx2r924r7GHvN7F+tjtX7txX2MVUASr3m9i/Wx2r924r7GHvN7F+tjtX7txX2MVUASr3m9i/Wx2r924r7GHvN7F+tjtX7txX2MVUASr3m9i/Wx2r924r7GHvN7F+tjtX7txX2MVUASr3m9i/Wx2r924r7GHvN7F+tjtX7txX2MVUASr3m9i/Wx2r924r7GNKz/ENtYrletbFb+qnZUlPmOUT2SudNa8XV8cDLLc65HRKloREf4tDE1Vcjk7HPTjlUc3oolW5PlF0T9oFZ/Kt+Ae83sX62O1fu3FfYw95vYv1sdq/duK+xiqgDn/AGRju0dX2myZbRdSewL3/wBmGLWuot10tuO+i1VLXXyioqiN609rilTmGpk4VkjXI7hefI6AJV1LfJ1aPtAwT+arWVUAAAAAAAAAAAJV0nfosab+z/Hv4dAVUlXSd+ixpv7P8e/h0BVQJ3lmo/dRuTBdt+6D0b3F0lzpfyf6J3+l+lsY3u8XvTw+zs547Xc8/MUQACbak0571uS7IyH3R/lP3wsofkng+h+D6D3U0MPg93e7xf8Aae7v4b+dx2+XK4yj0H+Qd3ZDtvEcrS1W/M7SlFktg9A8SKvrY07YK9kiSN8KVrF7HfEd3tRPNqpyVwARnFumPF7d05UPTnmF1mvttpKd0S3GniWhnbKk6zRTw8PesUkb1a5rkcvCtRf7jB3Xp53VluPv17nHVFcbjhtRF6LWsosZp6G9V9L6nQzXBsjmIjm/Fc+KnjeqKvDkVeToIASyu0NaffJ1tm9guUVptut7XX2qks8VH3NmhqIo42IknenhoxI08u13dz60Mrq/VfvbXjO7t+Xvyj7tclmyHw/RfB9E8SKKPwee93iceFz3cN9fHHl578AIRqfpOxrT2+c+3Ji1+e2251RxxOx1aTiGgqPFWWeWKTv47ZXuVyx+GnDnOXleeE8lL0+7BwCatpNDbsXE8fr6mWr/ACBesejvVFQSSOV0noSpNBLA1XKrvDdJJG1VXtaieRcwBLdSaKi1vkeQ7ByHOb3meaZXFTU91vFxbFAz0enV6wwQU0LWxwxMWWThPjOXuXlylSAAHyB6W+g604HguCdS27ai4PtOQz0c3fZLrPST2OgrYIHW66JNTua9qtnkRkyKvEbJEk54jdz9fiPdM9nteQ9IOqbBfKGKtt1z1tYqOsppm90c8ElrhY+NyfOjmqqKn6lAsIJRpG8XfH57ro3MLhJV3nC2ROtldN+fdrDIrko6hVXzfLGjHU8zvWssPevCStKuAAAAAAAAAAAAAAAAAAAA516/LPRZD0zXywXJrnUlzutmo6hGu7XLHJcIGORF+ZeFXzOiiRdVGB5XsjT9Ti2F2r8o3SS72mqbB48cPMUNdDLK7ukc1vkxjl455XjhOV4QCXYBlF9wfCdk9LGxbjLVXzCsZrqnG7lOju69Y66CRtPL3Lz3zQ+UMvnzy1rv8YrfSx+jbrH/AIq23/m7DV+r7R2UbWwP3Rapmho9lYxDUusFQ9zWMqo54ljqaGVXKjVjmjVU+Mvaj0Y7y4N90Fi99wnSOC4hk9D6Fd7Nj9DQ11P4rJPCnjha17e5iq13CoqctVU/UoG/AAAAAAAAAAAAAAAAAAAAABKupb5OrR9oGCfzVayqkq6lvk6tH2gYJ/NVrAqoAA1rY+u8V2rhtxwXM6F9Ta7k1qP8KV0UsUjXI6OWKRvxo5GPa1zXJ5orUUllVojd94s8mD5D1SXSpxSaL0aZ1LjdNTX6emVOFikuKSLGiub5LJHTMk9ao5FXkvAA0K86Zw+s0tW6MsVGyy49NZH2SkZAzu9EjWNWse1FVFc5q8O815VU5VeV5PV1Dpqk1jpmg1Jcr27IXMpKmK6XOWmSF1yqKl731E7o+53ar3yPXjud6/WpRwBHdH9PEemdN3HVTsxnv1Vc31r6i8z0aRSSeM3w4u6NHu58KJsUafG80jRfLkzWvdJ2PEtA2LQGS1EWS2q2Y5FjlZNLS+C2uhbCkTnLF3P7O5PPjudx+v5ykADlnHuh33L9MOUdN1s2rUSpfrzJdaW+VlqWeWkatRFLHG+JZ08dWpEjVf3s7ueeE9Rs8equsWKNsTOrbEu1iI1P+1Y31J/5yL+AJWmlLhUbwxXd13zNlVXY9iFXi9TSMtqRNrZZ5oZXVSOSRfCTmFU8Ptd+d+d5ef8ANw6M98nKMK2HjWUJi2YYPcfSKK6pQ+lJUUUnlVUM0aSRq6KVvH+N8VyI5EXjhaqAAAAlXUt8nVo+0DBP5qtZVSVdS3ydWj7QME/mq1lVAAAAAAAAAAAAAAIL1bf9wat+02wf/FeZfdvwwfyzb/g4e87+SfRnflD3b/lT0j0ju8vC9D+L2dvHPd58/wBxvOwbpr200tlm2FSUVSye90dNaI6i3LWyLc3v4p1hjax7kkavc7van9m1r3uVrWucm1Ac102P0uV9XGX4zm1voq6G66nt1HdKZjVWnlSStnbK1qO8+xeXcc+fHHzkXsdfk+u+pvS/TBmjq6ufhd3u1di95m7npccekt8rIGySL654HIsLvNVVGsd853YzH7DFfZcojslvZeZ6ZtFLcW0zEqpKdrlc2J0vHerEcqqjVXhFVV4PHcMVxe7Xm25HdcbtdZdrN4n5Or6ijjkqKLxE7ZPBkciuj7k8l7VTlPJQMoAAAAAAAAAAAAAAAAAAAAAAAAAABpO7/kZzv/i3cv8AmzzdjwV1DRXOinttyo4Kukqo3QzwTxpJHLG5OHMc13KOaqKqKi+SooEKxX37vgpa694D3D+6n3P2fj3Yel/k/wBH9GZ4n/cv9p3+rj5vXyabsb34vC0D7+3uN913vnw+ke5L0r8m+F6NVeF2elf2vd28d3Plz6vI6lt1tt1nt9NabRQU9DQ0cTYKampomxRQxNThrGMaiI1qIiIiInCIh4Lpj9hvk1BUXqyW+4S2upStoZKqmZK6lqERWpLErkVWPRHORHN4XhV8/MDg/rVt1f05Y5sN9qoaiXXW5o2smgga57LLkyyMXxEb6mQ1TGL3epElZz/jHedk/wDoWg/+6xf/ANCGAhqtcbjx+6Wqqt1uyS00lyntVyoLpbe+NlZSy8PjkgqGJ5tc1rmqreHNVj2KrXNcu1MYyJjY42NYxiI1rWpwiInqREA/QAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEqyP9KfXn2f5l/EccKqSrI/0p9efZ/mX8RxwCqgACVbk+UXRP2gVn8q34qpKtyfKLon7QKz+Vb8R/q9v1kp94ajxjOt233W+HXWjvclyrLfmMuOxyzRRwrAkk7JI2qvcq8I5fnXgDrUHMem8f6cKrYNun1t1h5Pnd7okkqY7I/cMt8inYjFa9ZKP0h6SMajufNqoioi+SohpnTLnmwaHqa2FZ8yze/XvHMxv19pLDS3Guknp7VVWudvdT06Pcvhtkgn7uxqIn9ioHZ4OPN853n1f1bavtOKZreLViuN5HQWa90FDWSRU91ra6CefwqhrHIkjYoYYndrkVOZ+T2LJret3Z1H7poMk29tW00GMV9pp7ZQ49m1wtlLAyWia9/EUMiM5V3nyifOoHXYOMH5JmmuL1vnUNg2zk+WWLGderf6C5XS5LVXKw3KSOdq0y1qcSPVWxtlaj1V7OOefNDqDT1dW3PU2GXK5Vk9XV1Vgt80888iySSyOp2K57nO5VzlVVVVXzVVA28HOtZcMq6hdy5nr215/fMUwbXElLbrp7nqn0S4Xe6TwpO6N1UieJBDFG+PyhVr3OevLkROD1717r+mTYWEejbAyPKNdZrd48ar6HJrg+41dorpmOWlqYKyXmZ0bnM8N8crn+bmuaqeaKHSQOdrBlGQ6P6hbpr7PspuVxwrY/jXrEbjdq58/5Nr4md1Za/EkVVbH2N8aJvPCIkjU8kNXZkef7A1/t/qUZll+tWPVOM3ChwK2U1fLBCyigikX8rLGxUTx55E7o3ry5sbWcKncoHWIOB9Y/BYveuMXvGZf4QDLKS/V1opKi5wSb6mgfFVPiasrXRrVcsVHKqdq+aeo23qmrrHiDunjEKjfmVY3gl1vNZS3bJmZzPQzVlG23SSQvqLkkrVkRZEjVHvcvcqp61UDssHK+rsf6Za3PLQmA9aeU5hfIJ/SKay+/RLd21fYiuc19J6Q9JmcIqq1WqnCcnVAAHOfWU691seqcVtWZZNjlPkufUVquNRj94nttVJTPhmV0fjQOa5EVWovHPHkhrm3taZd0y4BdN5ax3Xsm7rh0X5Vu1hyzJJr3Q3W3xqi1ESJU9z4ZPD7lY+N7eHJ5ovIHV4OKeoXNcTv/AFK62tWe7+yDWuBXzX1devFoc4mxuCorPSafwO+VssbXv8OSThF5VURf1FC0tjHT7cctldq/q4yrPrpFQzpLbPfblvzGQvb2LMtP470RWq5FbJx8V3HCgdKA4u2P0+pjO59U4Ra9971ba8unu0dya/Zd2c9yU9J4sfY7xfi/G9f6yl7Zo6/QuipsIwTMsxvGR5hdoMfsVdfL7PcrjDV10jY1kZUTOV6NijSSVPP4vYqoB0MCHdKuS39thybUGbX+43nJdZXuay1FwuUr5aqvopESeiqZJHqrpHOgka1Xqq8ujd8/kRi/7Az2HRPVJd4c2v7K/H8yraW0VTblMk1vhalL2x07+7uhYnc7hrFRE7l/WB2wSrcnyi6J+0Cs/lW/FJs73y2mikke57300bnOcvKqqtTlVUm25PlF0T9oFZ/Kt+AqoAAlXUt8nVo+0DBP5qtZVSVdS3ydWj7QME/mq1lVAAAAAAAAAAACVdJ36LGm/s/x7+HQFVIpifTllGDYrZsKxbqj2rRWXH7fT2u3U3oWMSeBSwRtjij732dz3drGNTlyq5eOVVV8zLe83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYe83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYe83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYe83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYe83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYe83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYe83sX62O1fu3FfYwFVJV0nfosab+z/AB7+HQD3m9i/Wx2r924r7GN117hVq1rgGNa5sVRVz23FbPRWSjlq3tdPJBTQshjdI5rWtV6tYiqqNanPPCJ6gNP3di178C1bZwS1SV2YYI6WqpqOBESa722RG+nWxFXy5mYxjo+fJJ4IFXyRed7xXJ7HmuNWzLsZr4621XikiraOoZ6pIpGo5q8etF4XzRfNF5RfNDKkaxZW6a2zUa7qJvCxHYNRU3bF+9UbHQ3fh01fbGInqbKiSVsSfr9MTyRrEAsoAAAAAAAAAAAAAAAAAAAADScEza65TmOxrDWU9Iyjw/IKWzUb4mOSSRH2mhrXrIquVFcjq1UTtRqdqInCryq7sSrRn9vfdt3P/v3YFT5/r8G20FN/+r8f5iqgAAAAAAAAAAAAAAAAAAAAAAlXUt8nVo+0DBP5qtZVTVNna9o9oYhJiVbfrrZP9kLbdKe42vwPSqWqoa2Ctp5GJURSxLxNTR8o+NzVbynHmBtYJV7zexfrY7V+7cV9jD3m9i/Wx2r924r7GAqoJV7zexfrY7V+7cV9jD3m9i/Wx2r924r7GAqoJV7zexfrY7V+7cV9jD3m9i/Wx2r924r7GAqoPkt1YdSXW7pPaC4/qbqXmzzGbjcWWu3VNLjFpqZqetd5JQzzR25sEtTzzyyFVcicdzWKqIvdustPdRc2A2OfbfVdnUeYTUjZbvFZbRjMdFDO5Vd4USSWqRyoxFRiuV6o5zVciNRUagXwEq95vYv1sdq/duK+xh7zexfrY7V+7cV9jAVUEq95vYv1sdq/duK+xh7zexfrY7V+7cV9jAVUEq95vYv1sdq/duK+xh7zexfrY7V+7cV9jAOpb5OrR9oGCfzVayqkfr+n6/3+S2w5f1GbKyC2268Wy9rbaukx6GCpnoK2Gsp2yOprVFMjPGp4lVGSNVURU58ywAAAAAAAAAAAAPHUVFPSU8tXVzxwwQsdJLLI5GsYxE5VzlXyREROVVTyEZ2VJLuXNnaHtci+5q2Mhrdgzo1e2amkb3U9na5F/PqE4km/3NMnavHpDFQP3rKmqNt5j7/l7p5YrNTQzUGB0cqKiegSceLdnMX1S1SIiR8py2mRnqWaRCxn4iiigiZBBEyOONqMYxjURrWonCIiJ6kQ/YAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAR3MFdqHbdFsuJqsxXPJaWw5Tx5Mo7knEVuuLlX1Nf8AFopF+dX0irwkblLEYnLMWseb4zdMPyWhZWWq80ktFVwO/wAeKRqtdwvzL58oqeaKiKnmhpGj8ov1RbrprTOq59Xl+Bzx26vqpPz7nRvarqK5Lx5czxN5fx5NnjqGJ+YBTQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJVkf6U+vPs/zL+I44VUlWR/pT68+z/Mv4jjgFVAAEq3J8ouiftArP5VvxG+q/MdXYL1LaTyHcVzs1BjUVvyGOaa7xtfTJI6KFGIqORU559XkWTcnyi6J+0Cs/lW/FVA59171H9E1+zG22DWed6/myW5y+i0ENrpY46mZ7kX4jFbGi+ac8+fqI3FFLY9Y5/t+ihfJWaw3PdsmckbFe91EyVsVcxqN815ppZl4T1q1DuYAcWVlBUzWnRefXSF8dz2BtpmU1KSM7Xsjqaap9Gjci+pWUzYGcf8ABPPivTxpPdnVFvuv2vrazZPUWy42WGjkr4lesLHW9qua3hU8lVEU7MAER2PqvW+pOmfZGO6ywey4xbn4zdJZKe2UbIGyv9Fene9Wpy93HzuVVNK0z1sdKNHrfCcXqd6Ywy7Q2a3UL6Tx3LIlQkLGLHwjfzu7y4/WdRgDmOlvVt6YN4bFyPYEFXRYHs+ro79S5M2CSajt9xjpm089NVuY1fR2ubFG9kj+GLy5FVFREX183zG0dVeea9xLUfjX3DsYyGnyvIsqhgelsT0VHLT0dPO5EbUTSSOaq+ErkYxq9yoqoh1IAObf8INZbVeem24flOijnWmvVnfC53k6Jzq6KNytcnm3lj3tXhfNHKnqUom96GjtnTfndut1LFTUtLh9whghiajWRxtpHo1rUTyREREREKcAOJ9LdSnQNadQYVa8mzrWUV3pLBQQV8dTRROlZUNgYkiPVY15cjkXnz9Z++qPaGkanJOmTZdfkVgl1t7pbnItwmjRbf6OlsnjZ8VW8dvf2tTy4544O1QBznh3Uz0K3HKLZbMGz7XTr/W1LKW3st9JGyofNIva1rFbGioq88ev5zow/ju7tXtVEdx5KqcpySeawdVrppHU+2dTsiVyrG1+vLk5zW8+SKqXpEVePn4T/IgE764cqx3B/eay7LbvT2uz2rY9BU1tZUO4jgiSCflzl/UYPeXUlrbqE1dfdJdOeSuznKs4plsTH2Wmnlp7XBOqMmrKqo7UjhZHG5zvjORyr2oiLydI4HQ7OoaSqZs7KMXvdU6Rq0slhsNRa444+PNr2TVlSr3c+aKjmpx5cL6zaAOItzZBpvTfV1qqPc16sVDjNt1bcbVDUXqJskDp2VdK2NOHI5O5WseqeXzKWXVvUL0cZZmNLjOos2wWqyS4tfHT09opmR1ErWt73oitYi8cN5XlePIvAAgu5/0ltB//AHvIP4eaTt7Hsu6guqS1YVg+xazD6fTtqS+1N1pLXS17m3ivR0UESMqWPi7m0zZlXlqqnipxxydYADjmkxXPum3qlxPOc923cM5te26d2H3S4V1oo6BaWugas1u5bRxxxqjv7ePucndy5qc8cIaXlM0VP05dX08z0ZHHm9we9y+pGolIqqd9ACD4V1qdKuRT2TFLHvHGa271/o9FTUcM7nSSzuRGtY1O31qvkbHuT5RdE/aBWfyrfiqkq3J8ouiftArP5VvwFVAAEq6lvk6tH2gYJ/NVrKqSrqW+Tq0faBgn81WsqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA0/ZuNYhm9oo8Nye+/kqrr62Kps1RT1UUNfFXUzknjlpFkR3MrPDVyp2uRWI9HIrVci7gch5JgGbWbq91Fm+w8/lv9yu1fkdPQUFLD6PbrVb20bnRQxRcqr5VRWrJM9eXKnCI1qIgHXhi7flOMXa8XLHbVkdrrLrZljS40NPWRyVFEsje6Pxo2qro+5PNO5E5TzQyhwFfaDKNd9Tm5+p/Ckra5+F3e00OU2aHuelxx6S3xPndHGnrngciTNXhVVGvb84Hdr8gsMV9ixeS929l5npnVsVudUsSqkp2uRrpWxc96sRyoiuROEVUTkyBzlDkFnyvrHwfJseuEVdbLrqyurKOpidyyWGSup3Nci/3oqHRoAAAAAAAAAAAAAAAAEq6dP7fGsuuf/fuwMr8/1+Ddqim//V+P8xVSVdMX9pqKCt/+0cgyS48/r9IvdbNz/n8TkqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAYHNc7w/XVikyXOMiorNbWSMhSeqk7fElevDIo2/nSSPXybGxFc5fJEVSdrdNy7hd4eP0tdq/D5PzrlX0zFyO4RryipBSyIsdvavzSTpJN/wCBiXhwG05/uLEsBrYMee2uv2U10Sy0GNWWFKm5VTUXjv8AD5RsMXPrmmdHEnzvQ1Vdb7H243x913lLFj0ju5uF47XPa2ZqLy1LjcG9ktRynk6CHw4fW1yzt8zecA1jhWsqKqpcRs6QT3GVKm53CeV9RXXKoROPGqqmRXSzyceXc9yqieScIiIbUBqFZqPWldLiUk2F2xkeCVTq3HaaCLwaa3TLE6Lvjgj4j5Rj3dvLVRqqjm8ORFTbwAAAAAAAAAAAAAAAAAAAAAHo3u92nGrNX5Ff7hBQWy100tZWVU7u2OCCNqufI5fmRGoqqv8AcBqW3dhV+C2KlosXtsV2zDI6pLXjlse7hs9W5FV0svHm2nhjR80rk9TI1RPjOai+/rDXtDrPEoMcguE90rZJZa663WpaiVFzr5nd89VLx5dz3L5NTyY1GMbw1rUTUNR2K55pkFVv/Nbc+mr7xTLRYrb6mLsms1hc5r2o9q/mVNS5rJpk9bUSCJf9pVVrYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJFu2iqsJulp6g7DTTSz4nC+jySmga576/HZHI6o4Yn58tM9ramP1r2snY3/blK6fl7GSMdHIxHNcio5qpyiovzKB46SrpLhSQ19BUxVNNUxtmhmhej2SRuTlrmuTyVFRUVFTyVFPMR3UD26uyy5dPNaqRW2igfesHc5eEfZVkRstCz9a0Ur2RonzQTUvrVHFiAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEqyP9KfXn2f5l/EccKqRTamRRYNv3X+a3fH8rrbLDh+VWuapsWMXK9eBVT1tikhjlZQwTPj72UtQrVciNXwnJzz5AWsEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZwDcnyi6J+0Cs/lW/FVOatl7txfIM01PdrRhu1aikxnMKm6XST3q8nZ6PSvsF2pGycOoEV/M9XTs4aiu+Pzx2tcqUD4S2uvo5tX8J8q9nAVUEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZwFVBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cBVQSr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nAVUEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZwFVBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cBVQSr4S2uvo5tX8J8q9nHrV3VPqq1wtqbnatm0kL5YoGyT6ryiNqyyPRkbEV1vRO5z3Na1PWrnIieagV4Eq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZwFVBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cBVQSr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nAVUEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZwFVBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cBVSVbk+UXRP2gVn8q34fCW119HNq/hPlXs4n+y924vkGaanu1ow3atRSYzmFTdLpJ71eTs9HpX2C7UjZOHUCK/merp2cNRXfH547WuVA6VBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cA6lvk6tH2gYJ/NVrKqc67a21YNlWCw4hiGJbKnuU+cYfVolXrbIaGCOCmyG31NRLJUVNFHDExkMMr1c97U4Yp0UAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJJs3BcqyHeGosws9q9ItGL1F4fdqjx42ejtno/DiXsc5HP7n+XxEXj1rwnmVsARXPujPps2hs6m3JnOt/ynmFJJSzQ3L8sV8Pa+mVFhXwop2xL2q1PWzz48+T2tU6+ybH9tbmyLI7M2Kz5fdbbPa5HTRSNq4Y6BkUqqxrlc1Eeit4eiKvzIqeZYDVdnXfNcewuvyDALJBe7ta+ys/JT2Kslwp43o6engVHtRtQ+JHtic7lviKzuRUVQOc9M9NmytQ9V9ddKRjKrUdFjdbTYxItRH4lrkqquOeWgViv8RY2va90ao3ta1yN55Tg62MViuT2PNcatmXYzXx1tqvFLHW0dQz1SRSNRzV49aLwvmi+aLyi+aGVAAAAAAAAAAAAAAABzf14Z1u7Uemmbm0ldokqMLr2Vt7tFTRsnp7nbZEWJ6P+L4rfDe+OTmN7OGo9V54RUDe+lX+06c9e1v/ANo2OnuPP6/SE8bn/P4nJVTkD/BmZXu3PdC2/Ktlrb7fitLbbdjuGWikofCc2it8ToH1skjlc+R0yoxvCqjUWByta1H+fX4AAAAAAAAAAAAAAAAAAAAABgLzneI4/ktiw68XyCnvWTPnZaqJUc6Sp8GNZJVRGova1rU5VzuE5VE55VEXPnI+SahoMG6t9R5pcckvGS5LkdxyJam5XOZF9HpEo3OhoqeJqIyGCNHcIiJy5eXOVyrydB3/AHdpfFMnjwnKdvYVZ8imdEyO0XC/0lPWvdKqJGiQPkSRVeqp2oiefPlyB5rBtvXWT5/kWrbHlEFTlWKRwS3e2LFJHLTxzN7o3or2o2RqoqebFciKqIvC+R+8hzi2MyCXWNkv9JR5xcLHVXa1Q1lDPPA1jFSJJ5Ozsa5jZXs7o0lY9yc8Kn5ycb5FgmS03UDuvqE1dRS1Oca6v1qlWhiVEW92Z9sjWsty8+XLmp4kfq4kjb+sq+M53jmzerDX2fYjXJV2i+aqr6ymkT1o11fBy1yfM5q8tcnzKioBV8M0nYrBe484y67V2a5o1rmtv15RjnUjXfnRUUDUSGji+biJqPcnHiPkX4xRgAAAAAAAAAAAAAAAAAAAAAAAAABF8kV289lOwCBHuwTBayCryWZO10N5uzeJILX/AMKKD+znqE9SvWCJeU8Zqcw9e3W5sLpm6j8UxDEJZZ7bdcMnfW0rYEqFiqKmqkjgrI4VVEkmh9Gc5saua16OVrlRHdydddN02N1GmMcnxTDcqxe3yRSyJQ5VR+jXZ8jpXukqapvc7ulnerp1f3L3eL3LwqqiBTAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABPN14XfMlx2jyTB44vdph1Wl6x5ZJPDZUTMa5stFI/1pDUwukhd8yd7X+tjeNkwLNrJsfDbTnGOvlWgu9M2ojZMxY5oXeaPilYvmySN6OY9q+bXNci+aGfPlnsLrL2przqcs+mbDrvItZ27Ls+sd4vtFd0ifIjn1SMr20k0bnRSUtX2xvc5i8d7Z1RV8Z3aH1MAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD53/4U+DqG2fJjGqNP4VfPc/aLha7ldb33JRU1Rdq2tZQ2ylhqJXMbI5k0zXPRjnI1Zonu7fDVU+iBKupb5OrR9oGCfzVawPb6dM2zrPtO47fdn4jdMazCKB1BfaC4UbqZ3psDlilmjaqIjopVZ4rHNVW9siIirwpSgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAI3iyt01tmo11UTeFiOwKipu+L96o2Ohu/Dpq+2MRPU2VEkrYk/X6YicI1iFkNS2ngEGysLrMa9Pkttwa+OttNziaiy224QPSSmqWc/OyRrVVPU5vcxfJyoetqHYFVsPD2197t0VsyS01MlnyO2RPV7aG6QcJPGxy+bo15bJG//Hiljd/jAartB+b3/dGEa5xraOQYXbbji+SXuulslJbJp6mejq7PDA1zq+kqWtYja6oVUY1qqqt5Xy4Pb95vYv1sdq/duK+xhkf6U+vPs/zL+I44VUCVe83sX62O1fu3FfYw95vYv1sdq/duK+xiqgCVe83sX62O1fu3FfYw95vYv1sdq/duK+xiqgCVe83sX62O1fu3FfYw95vYv1sdq/duK+xiqgCVe83sX62O1fu3FfYw95vYv1sdq/duK+xiqgCVe83sX62O1fu3FfYxjsj6essy3HrpimR9UW0a603qint9fSyW7FkbPTzMWOSNeLOi8Oa5yLwqL5lmAEXxnp3yjDccteJYx1P7Qt1nstHDQUFJFbcW7IKeJiMjYnNmVeEa1E8158jJ+83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKtF3DL/yts/Estzu65b7kswhtduuN0pqKGq9FksdqrVjelFTwRO4mrJ+F8NHdqoiqvBVSVab+UXe32gUf8q2EqoAA9C/X+xYtZ6vIcmvNDabVQRLNVVtdUMgggjT1ufI9Ua1P71UD3zGXHJsdtN3tVgul8oaW53ySWK2Uc07WzVj44nSyJExV7n9sbHOXhPJE5Ul67B2btxvo+mbQuNY7I5EdmeRUD0dOznzW3W5/ZJLyn5tROscXqc1k7fI2zAdP4fr6tqr9SNrbxk1xjSK45JeZ/SrnWMReUY6ZURGRovqhiayJv+KxAMVsDWd+yvb2sc/t1XQR2/C57pJXxTSPSaVKml8KPwkRitdw7zXuc3y9XPqMvf8ASOl8ryePNsp1DhV4yKF0T47vcLBSVFax0SosapO+NZEVionaqL5ceXBuoAmOs9Y37DNn7TzW6Vdvloc4udvrbfHBI90sTIKNkL0mRzERqq5qqnark49aovkTbWvSfeNW9VV829jmQUSYDdLNVQ0dgc96S2y4VNRHNU+CxGdiQSPYsn5/KOcqI3jzOlwAAAAAAAAAAAAAAAABNOoe+ZNYNbRTYhklXj9yuOUYvZEuVJBTzT00FffaGjqHRtqY5YVf4NRKiK+NyIqovHker7zexfrY7V+7cV9jDqW+Tq0faBgn81WsqoHOuAYhtrKsr2VYrh1U7Kjp8OyiCyULobXi6PkgfZbZXK6VVtCor/FrpWorUanY1iccornbr7zexfrY7V+7cV9jDTfyi72+0Cj/AJVsJVQJV7zexfrY7V+7cV9jD3m9i/Wx2r924r7GKqAJV7zexfrY7V+7cV9jD3m9i/Wx2r924r7GKqAOdJ+jKhq9m+/LX772JWZmyjhoIbvVWzF55aaGJXqxIGvs6shdzI/l8bWuXuVFVUN295vYv1sdq/duK+xiqgCVe83sX62O1fu3FfYw95vYv1sdq/duK+xiqgCVe83sX62O1fu3FfYw95vYv1sdq/duK+xiqgDnXAMQ21lWV7KsVw6qdlR0+HZRBZKF0NrxdHyQPstsrldKq2hUV/i10rUVqNTsaxOOUVzva2Rju0dX2myZbRdSewL3/wBmGLWuot10tuO+i1VLXXyioqiN609rilTmGpk4VkjXI7hefI2vTfyi72+0Cj/lWwjqW+Tq0faBgn81WsCqgAAAAAAAAAAAAAAAAAAAAAAAE06h75k1g1tFNiGSVeP3K45Ri9kS5UkFPNPTQV99oaOodG2pjlhV/g1EqIr43Iiqi8eRSyVdS3ydWj7QME/mq1gPeb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsY0/ZHR7Ht2jt1DsbqC2Re2WeuiuVukltuMMmo6mN7Xtkhljs7ZI15Y3ntciOROHcoqodCgCVe83sX62O1fu3FfYw95vYv1sdq/duK+xiqgCVe83sX62O1fu3FfYw95vYv1sdq/duK+xiqgCVe83sX62O1fu3FfYw95vYv1sdq/duK+xiqgCVe83sX62O1fu3FfYw95vYv1sdq/duK+xiqgCf8AT1lN9znQWtM1ymu9NvWQYfZrpcanwmR+PVT0UUksnYxGsb3Pe5eGojU54RETyKASrpO/RY039n+Pfw6AqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAn+8MWvuYYXbbTjlD6XV0+YYndJI/FZH20tFf6CrqZOXqiL2QQSv457ndvDUVyoi0A5G6beprYl73LmGs9yzRSWy7ZNeaTArq2COJsraGbsnt0ixsa3xWN7ZGK7l729/Kr2gdcgkWE55ld36ktm4Bcbr4thx60WKqttJ4EbfAlqGTrM7vRqPd3Kxvk5yonHlx5ldAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEb2L26f2RR7rp++PHMh9FsGasbyrIPj9lvunank3wpJPAmf8A7zKx7l7adCyE06h8b2vlurbrYdPVuLMvVXHJDPR5LQvqaG40b4pI5aV3Y5qxq/vaqP8AjJ8VWqnDlc0MZfbjb6nqzwW3U9fTy1VHr/L1qYGStdJCj7hjis72ovLe5EVU59fC8FePlN/g4LDvDHevHNbd1C0N3pcwi11UQSJcl73Ppoa21wwLHLyrZY0ZGjUka5yO7FXuVeVO9Osq/XzF+ljaGQ4zea60XW343Vz0ldQ1L6eop5Eb5PjkYqOY5PmVFRQLKDi/Dce6VcidZaG39eeZV97uCQMjoKffE8001S5E/s2wpVKrnK5eOzhVX1cFLya6ZluPd930hjec3nE8TwW1UVXkdws8rI7nc6yrR6w0jKlUc6njbHH3vexEkcr2o1zeFA6FBzLncOTdKFyxjNrRsfKsiwC63yix/IbRlN1lustF6ZKkMFbS1c/dO1WzPYj2Pe5itdyiNVDLZFc8x3jvDItR2HOrviOG4FRUb79U2KZsFyutwqmukjpm1PCup4Y4mtc5Y+JHOeiI5qIvIdCA5nzFmU9K2R4jktt2Lk2R69yG+0mN3y15TdJLnPbpat3h01ZS1c3dPx4qtY+OR72qj+W9qp56Z1d6dqcNsNBneM7u3Lb6+/51YrbUwU2wLlFSRU1dcYop44YGSIyJOyRyNRqfF8uPUB2WDk7qE10ug+m3OrxjO49nrNWPtjJLles3rqqegi9NibI+CeSTup+WPcjnNcnKJ5+o0DK7zq7DrdQXnps6zsqzjYS3GiitmM++UuVR3bvmY2WCWifJKqR+Gr1dKiN7Eb3K5EQDvAEh6nc3vuJaoktuK1E9NlWYVtJjFlfTP7ZYauskSNZmLyiosUfiS8p6vD5MZ0q5Lf22HJtQZtf7jecl1le5rLUXC5Svlqq+ikRJ6Kpkkequkc6CRrVeqry6N3z+QFxBCejDI8hynTtbdMnv1xu9YzMcnpW1FfVPqJUhiu9THFGjnqq9jGNa1reeGtaiJwiHs5/kF+ouqvU2O0d7uEFquVkyKWtoYql7aepfEynWN0kaL2vVvc7tVUVU5XjjkC2gAADifPrrrK8dUGyrFujqnyTXNDaaKyOslup9mzY5TvSWB6zuZCk7GvXuRvKonrXz9Zs+bRYlg/R9uHNtG9QGV5oz3OXCalv0meT319DVQ07uPRqrxXrC9FVFVGORUVEX1gdYg4l3jlNunyjp5s2yN7ZFgGL33GK2qvFypM0msCVVSykpnRLNUpKxHuV7ncdyqqq5f1m/abx/pwqtg26fW3WHk+d3uiSSpjsj9wy3yKdiMVr1ko/SHpIxqO582qiKiL5KiAdOAivS/kF+yCi2Q+/XuvuTqHYd7oqVaupfMsFPHI1GQs7lXtjai+TU4RPmQ03q6ivl+2doXXtDnWXY1a8rye5Ul1fjd9qbXUVEUdtmmYxZYHNcqI9jV4XlAOnAco7TwvL+lPH6fc+Bbi2BkNnsldStyTHsvyCW8U1ZbppmRSyQyVCOlgmjR6ParH9ru1Wq3z5Oq4Zo6iGOoid3Mlaj2r+tFTlAJbpv5Rd7faBR/wAq2Eqp81utHrDk6eKfemu8CvElPsLNM5pW076aRWz2u2ri1iZLVtc34zJHKjo4neS9ySOaqLGW7pszaDrc1zTZLkeyHLjttbDRXDDbHUVMEyztaiol1rXIyedXoncsMXZCqKrXunTlQLNet4LervU4dpLH0zm+0siwVtayo8Cx2mT5/Sq7hzXPavrggSWZP8ZrEXuT+2HR7bleKfM9z5AudZFTSpUUUEtP4Fms8nH/AO5UPLmo5F9U87pZ/Xw9qL2pR7LZLNjlqpbFj1oorXbaKNIaajoqdkEEDE9TWRsRGtT+5ERD3QABLt49TOkenSz/AJW2zntBaJZI1kpbc13jV9WnPCeFTs5e5OfLvVEYiqnc5PWBUQaZpzZMe4dZWDZ9NjN0sFJklOtdRUN0SNKlKRz3eBK9I3OanixJHKiI5eEkROeTcwAAAAAAAcXb62ttzV/VwuZWC8XO46/xLDaKvy3G45nvjdRVFZLFJXQw93YksHDZHKidzo2uTzA7RBCNq5rWz7c0BJimUVSWPJrpc5J20VW9tPcaf8mvki8RrV7ZWovDmo5FRF4VPMu4AAAAAAANM3HsmPT2sr/s+pxm6X+kxunbXVtDa0jWpWka9vjysSRzWr4USySqiuTlI1TnkDXepb5OrR9oGCfzVayqnLOS9TOkeovUVou2ps9oLvLHnmByVVuc7wa+kT3VWtF8Wnfw9qc+XeiKxVRe1y+s6mAlWm/lF3t9oFH/ACrYSqnC29r7T2jMcqo7zs274Hj923taqK+Xe3ZFJZHR0a4baHOR9Ux7Oxnc1vrdxyiGXx694djW2MAoOmvqmyTaU13vHouS2Gpzj3V00Vo8J6y1b3OfI6jWNyR9r+9qOV3bw5VA7SBz3kVzzHeO8Mi1HYc6u+I4bgVFRvv1TYpmwXK63Cqa6SOmbU8K6nhjia1zlj4kc56Ijmoi84vMWZT0rZHiOS23YuTZHr3Ib7SY3fLXlN0kuc9ulq3eHTVlLVzd0/Hiq1j45HvaqP5b2qnmHTAOc1rso6jduZxhtDsC/wCK4JresgstZHjtV6FX3i6vgbPKj6tqeLDDEyWNqNhcxznKqq7hODx3CTL+mnZuDWxmeZFlWu89unudmpskrnXCts1xfG99NNFWSf20kMixrG5krpFRytVqonKAdIA5NsfUbFq124K3Lbrc8iusmyp8ew/H3ViyVFbUPpqbwaKlbI7iOPuernKnDGIrnL/fmL9i229e9N+1djbE2Rd6rYF5x+uuUjLdc6iO3WBzKdyxU1ujRyJH4flzMiI+RyK5V9SIHTQOJd/ZNvl2FdNdRpzMbhHlVcxblUU01dKkN+WC1JO6lquF/tUl7XJy9HcOcjvWnJve5t5Mz7pNots62vtzs0twu1mhlWmqX09XRTflKCKqpJFYqOa5q+JG9vzpyi+SgdPggGZXzNtv71uWj8WzC7YhjGH2ilueTXO0LHHcK+pq3O9HooJnNcsDEZG58j2Ij17mo1zfNTKW/Rud6/yyw3zWG48rrLQ2s7MhsWY3uovMFXRuavL6eaoSSeCoa7tVvEiRqnKK31AZbTfyi72+0Cj/AJVsI6lvk6tH2gYJ/NVrGm/lF3t9oFH/ACrYTwdUdbR23V1vuNxq4aWkpc7weeeeeRGRxRtyi1q57nL5NaiIqqq+SIgFcByjev8ACO6GqNvY/pfV9xizW73a4spq66U9ZHS2a2UyfGnmdWSfFlVkaOe1Ikc16p296KvB0H77GrP2l4r9803+mBtYNU99jVn7S8V++ab/AEx77GrP2l4r9803+mBtYNU99jVn7S8V++ab/THvsas/aXiv3zTf6YG1g1T32NWftLxX75pv9MP2Lgl4p6m32DO7DW3CSmmdBBR3SGSZytjc5Va1jlcvCIq+XqRFUDawcX9Be59jpZ7NrLeWQ1l6rcrt82S4bfa2d8slfR+K5tRQySvcrnz07kR3n643t48mlT0bsFKbINyzZ7m/hUNu2JU223Pu9z7YqaJKSB7aeFZXcMb+e5GN4T85ePWBfQap77GrP2l4r9803+mPfY1Z+0vFfvmm/wBMDawap77GrP2l4r9803+mPfY1Z+0vFfvmm/0wNrBqnvsas/aXiv3zTf6Y99jVn7S8V++ab/TA2sHMO6ev7T2hNkWHF85clTi2RUSywZRZKyK4xUlUyRUlhqaeLmRjUYsTkezvV3eqIz4qql9wTYeC7QxyDLtd5basjs9QqtZWW6qZPGj0RFVjlavxHpynLHcObz5ogGwkq6lvk6tH2gYJ/NVrKqSrqW+Tq0faBgn81WsCqgxWV5HQYfi93yy6qqUdmoZ6+o49fhxMV7uP8zVOfdX61zbfWBWvbu1NtZ/ZrnlVO27WyzYxfpbRRWOllTup4UZT8elSNYrVe6oWVrnKvDUbwgHS4OStzXnfmA9JGbRZ1ktZDkmPXanorTlFuqm0tVdbctbAkVS9KdyeDK5jlZI1Eaiqir2ojuDpXLKqppsAvNZT1EsVRFZ6iVkrHq17HpA5Ucjk80VF8+QNgBw5Wbgy609JnTpccr2nfsXseZ0lup80zpsiz11LE6iV7VdUytk8F08yNYtQ5FVvK+aKqKlK15jl/wAeyzEso6ft4Xva+A3arfRZVTXnMIb5HRQOie6KupqmRyyo9siNa6Jr1RzX8o1O0DpkHGnV3p2pw2w0Gd4zu7ctvr7/AJ1YrbUwU2wLlFSRU1dcYop44YGSIyJOyRyNRqfF8uPUbvn1treljAJ5te5rm2U5Rm93t2NWRuZ5NVXqGkraiVWNnRtQ9VaxjVfI5rVTv8NEA6UBB5umjK4LS+62zqR2iucti8Vl3qb0slvkqUTnh9q7fQkhV3krGxI7t8kfz5kO3JtjaG8emjAqjDsvuuDZzcc89yl2nsFbNTLHcqVamKaJFa5HLC+WFq9jlVFa5OefWB3SCKN3nLVdK8G5qWBUu9XYI/BpHKiP/K8iJA2nX/helKjOP1nL0OT7PxToHzZcr3HldTkVhzyazVWTyXyeGujhZc4YpO2p7++JiNV6IiORGtXj1AfQwHGNBYekC4z09DR/4QLLairqnsiigi3/ADPkkkcqI1jWpV8q5VVERE81VTac7xas2D1gUWtrrsLP7bj9DrptybSWLLrhaUkqkrvC8aT0WVniOVi8KruQOpQcq3egumh+obVeH4Bs/Ncipc4qq6kv2N5Hkk96WCiipnStuMbqp0k8PZI1jF4ejHeJxxydVASrpO/RY039n+Pfw6AqpKuk79FjTf2f49/DoCqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADjnXGoItzaO2JYaK4OtWRWzaOQ3fG7tGqpJbrpBWK6CVFTz7efivT1OY5yL6zsY1qtqcD1baHVzqK32C33K80tPJ6HQ9jZ7lcayKmic9sLeVfLUTxNdIqet3c9URFcgcw9HGz7ntbf23r3klhmsuR2y1Y/Zb/b5GKiQXKmbUMnSNV/OjV3xmO+drkOwzF0GK4var1cskteN2uju148P8o19PRxx1NZ4acR+NI1EdJ2oqoncq8J6jKAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKsj/Sn159n+ZfxHHDAdc36IG3P+K1Z//SZ/I/0p9efZ/mX8RxwqoGk4hrjXlPY7LX0+B47FUx0lNKyZlrgbI16MaqORyN5RefPn1kjv1yb07dRGVbQy631yYDsa2W9lVfKakkqI7NcqNr40bVpGjnRwyxParZe3sa5io5U5Q6SAHKW3s3xnq49zGodL1kmT2J2Q22+ZLk1DE9bXQUVDUMqEibVK3w5Z5ZI2MSONznIncruEQzNzu8HTf1A5nn+aUFbFgGyqa31EmQQU0lRBaLnSxrC6Kr8NHOhikj7HNlVOxHI5rlbynPSgA5U2nmePdWt0wzV+nJ5MkxuiyW35Jk2UUkT/AMl0dNQypPHTxVKt8OeeWVsbeyNXK1qOVyp5c7J1x/JZiv2kYh/F6c6HAEA67qiho+l/K6u5yRso4J7ZJUOk/MbElfArld/dwi8kV3vt3o02nqS+YXptMZy7YNdS+Hi9Hitn8S5Q3Ty9Hnikii5p+x/DllVWtaiLyvzL3SAOOMvxbZO9t74fr+2bNq8Wr9L4zTXm8XujtlJXuXIK6LwWsaypa+LuSBs7l5aqp4qKnHJ/aTFc+6beqXE85z3bdwzm17bp3YfdLhXWijoFpa6BqzW7ltHHHGqO/t4+5yd3Lmpzxwh2MAOHulPqy6cNVa3vGFbE3Bj1gvtHmuUST0NZO5ssbZLvVPYqoiL62uRU/uU2rc29NRYxvzRe3cgz61UGG3LHsgkpLzNIqU8zZo6ZYlavHK9yeryOtwBONXdRmj913CttWqNl2bJ6u2wtqKuKgkc9YY3O7Uc7lE4RV8ijmv5tSZ/W2hsOuMgx+z3Txmq6ovdnnuVOsXC9zUihqaZ3cq8cO8ThOF8l58tD9z3Vn+13Un4dXP22BpuA4pi2SdVu7XZFjdquqwUmNpEtbRxzrGi00vPb3ovHPCeoy/V5YrJj3R9t+hsFmobbTLiN1kWGjp2QsVy07uXdrEROfJPP+4uNG2rZSQMuE0MtU2NqTyQxrHG+Tj4ytarnK1qrzwiuVUTy5X1nmA4d2zmOrsF2L0xZDuK52agxqLELjHNNd42vpkkdRUqMRUcipzz6vIsGveo/omv2Y22wazzvX82S3OX0WghtdLHHUzPci/EYrY0XzTnnz9R0EAOMtIdUvT1qG57TxHZm2rBjt4TY18qfQ62ZWyeE+Vva7hEXyXhTy9Te6tVMzjpj3O/OLY3CPdTdan8uOeqU3hLbJ40f3cc8K9Ub6vWp2QAORN272wHqjwv3iOni9Oza45dW0lLdK+20s7qCz21s7JKmoqKnsSNq9jFayPu7nOcicceZ1tTQMpaaKlj57IWNjbz+pE4Q8oAjOp8cx647T3pdLhYrdU1jM8oom1E1Kx8rWJi1iVGo5U5REVzl4545Vf1lkZGyJiRxsaxrU4RrU4RCWab+UXe32gUf8q2EqoAAADnPqe6DdCdUzpL3l9oqbPliQthhyK0yJHU9rU+I2Zi8xztThE+M3vRqcNe06MAHO+nOiXR+D6ysGH7F09qnL7/Zqd1FUX33D0MT7hGx7mwyytex7vFWFI/Ecr3K56PdyvJufwTulj6tOqv3Nt39EqoAlXwTulj6tOqv3Nt39EfBO6WPq06q/c23f0SqgCVfBO6WPq06q/c23f0R8E7pY+rTqr9zbd/RKqAJV8E7pY+rTqr9zbd/RNIxnHrBb+sXIsUoLJQUtkptVWu3wW6CnZHSxUra2aNsDImojWxoxEajEThEThE4OjABwNR47lWmerPT3T5U2+oqcIt14vN9wq5r5tpqCahlbJbHL+uCRfif+De1PmOpPgndLH1adVfubbv6JVQBKvgndLH1adVfubbv6I+Cd0sfVp1V+5tu/olVAEq+Cd0sfVp1V+5tu/oj4J3Sx9WnVX7m27+iVUASr4J3Sx9WnVX7m27+iaZuPol0fnGsr/h+utPapxC/3mnbRU989w9DK+3xve1s0sTWMY7xUhWTw3I9qterHcpwdEADh6n6DdCdLOvLJe8QtFTeMsXOsGhmyK7SJJU9rsptfe2FicRwNXlU+K3vVq8Oe47hJV1LfJ1aPtAwT+arWVUDg/fN/wALxbYl1yHYlZb6TG6HqBtMtymuDUdTsh9xdqRVkRUVFTlU+Y9rbGe9Pe5q7CLT0mLYr1siiyy11VLdMYtKt/JVBHUNdWvqamONrY4XQJI1WPcnermoiL83SOm/lF3t9oFH/KthKqBzXc7vB039QOZ5/mlBWxYBsqmt9RJkEFNJUQWi50sawuiq/DRzoYpI+xzZVTsRyOa5W8pziNp5nj3VrdMM1fpyeTJMboslt+SZNlFJE/8AJdHTUMqTx08VSrfDnnllbG3sjVytajlcqeXPVYA5itN8tPSxuTZNw2Oyqt2D7Lu0OTUGTLTvloaOu9GjgqKSrkYi+j8+Cx7HycMcjnJ3IqcHiyvLLb1UbN1zZdUePeMJwu/R5ZfspZTPbbpZII3pTUdLO5EbUSOkej3LF3NaxvmvLkQ6iAHFmuemfV258x6jq3M7XLU3W5ZpVWqjuDpFdLaEbT00jJqPnyhl8VGPV7fjOWNiKvCcHtVm2smvvTVujSe3ZYo9m68xevpbm5vxW3ehdTvSmukKL62StRO7jntkRyL8x2SAOTav/wCmukD/AMlP/A1Jj1qYtkWj6+rr8TtMlVr7bmTWV13p4l4bZb/HXQOSqa31JHUxsVr+OP7RjV81cfQAAc35JXT9PnUTke1sjtdxmwDYlpoIK+6W+3S1f5FudF3sa+qbCjntglieiJL29rXM+MqIqKR/ZN9xDY2f2G5dL28dt5plNwzC1VtxpLBldzqMcoLY2rjdWtnRrko4Y/BR7UiV3K88I1eTvAASrTfyi72+0Cj/AJVsJ4OqOio7lq632640kNVSVWd4PBPBPGj45Y3ZRa0cxzV8nNVFVFRfJUU8+m/lF3t9oFH/ACrYR1LfJ1aPtAwT+arWBJr1/g4tDU23cf3Rq+3RYVd7TcGVNda6ejjqrNc6ZfizwOo5Piwq+NXMasStaxV7uxVTk6D96fVn7NMV+5qb/QNrAGqe9Pqz9mmK/c1N/oD3p9Wfs0xX7mpv9A2sAap70+rP2aYr9zU3+gPen1Z+zTFfuam/0DawBqnvT6s/Zpiv3NTf6B+Z9e4DY6SrulkwfH7fWwUs/hVNLbIYpWcxuava9rUVOUVUXhfUqobaAOPNX6gqts9EGs34zWR2zNcWpUvmJ3VW8rSXGKaXtaq+vw5G90UifO16/qPY6HrjT7mxzauQ7D1/T0lZW7Dqp6yzXWmjn9DrGUsEcicPRU5RyPRF9fa7+867AGqe9Pqz9mmK/c1N/oD3p9Wfs0xX7mpv9A2sAap70+rP2aYr9zU3+gPen1Z+zTFfuam/0DawBqnvT6s/Zpiv3NTf6A96fVn7NMV+5qb/AEDawBzDunoB09vvZFhyjOWpTYtjtEsUGL2Sjit0VXVPkVZZqmoi4ke1WJE1GM7Fb2KqP+MqLfcE15gur8dgxLXeJWrHLPTqrmUdupWQRq9URFe5Gp8d68Jy93Ll481U2EACVdS3ydWj7QME/mq1lVJV1LfJ1aPtAwT+arWBvGd4vBm+E3/DaqTw4b7bKm3Pf/uUmiczn/N3cnO+mepfXuodaWTVXUBe0wXM8Moo7JVUd0pZYm3P0dqRx1NA5GubVRysa1zUiV7k5VqoiodSgDlrYE22Opbph2XK3XslsS4Tunwm11cMtJcbhRUz45YpKmOReYpJnxv7GKjVRqs7m8qfzKOtjTF91rcsZxiuvFfsG5WeWhpcKjstWl5bXyRKxIZKdY+Y0a9eHSO4jREVe7g6mAHMEVfk/TFpfUOGZfhSZDr+22GKwZxPT2yW5VNsc2lYkU7oYue+m72vZKqRv4RWr5JySuntfTDlu58ByjoktNPT5jTX+F+Q12JW6oo7RFZeHelx3BGsZTcuRURkfHiq/jy4RTvMAc8dcfyWYr9pGIfxenNi6p8ByjM8BtV6wi2flTIMIyK3ZXQW1Ho1a9aWTmSnarlRqPfE6RGqq8d3byWUAQefrT0atpkS2Xa6V+VpF8TC4bTU/l9anjygdRdniMXu+Kr3Ikaevu48yNxayyLV2sdLUGYwMpsiyHckeT3alY9Htpaqvkqp3QI5PJexHtZynkqtU7cAHHmO2uui6hKnpidRTJYbRlUm0Gu8F3gOt0rfEhg7vzeUub3v7U+aJCc57UUNH0Xbdq7nJGyjg23XSVDpPzGxJe4Vcrv7uEXk+hIA5apuqf8Awd8KRSM2Hqxkkfa5HNookVrk+dF8L1mKzLXWqd49a9tizzDrHl9ldq1lxoWXKjbURIr7h8WVrXp5KrXev18KddADjvH8Iwroj6gqGHHsQstp1jtmVLbDXQ0MbJ7HfeeY6Z9T2+ItLUJyjGverWSJw3hF4OxAAJV0nfosab+z/Hv4dAVUlXSd+ixpv7P8e/h0BVQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKupb5OrR9oGCfzVayqnFPXv1d2nRN2sWu9ga+vP5HuV1xnKLRf7bNHO2r/Jl+o6uvpXwyeH4cjIadFaqPejlmiRezlVQO1gTvQG1Lru3VFk2nc8JmxWLI2yVlut9RVpUTOoFe5KeeRUY1GrLGjZUYnciNe34ylEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACVZH+lPrz7P8y/iOOFVIptTIosG37r/Nbvj+V1tlhw/KrXNU2LGLlevAqp62xSQxysoYJnx97KWoVquRGr4Tk558jLfCW119HNq/hPlXs4CqglXwltdfRzav4T5V7OHwltdfRzav4T5V7OAqoJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4CqglXwltdfRzav4T5V7OHwltdfRzav4T5V7OAqoJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCQs6p9VS3Ca0x2rZr66nijnmpm6ryhZY4pFejHuZ+T+Ua5Y5ERVThVY7j1Kez8JbXX0c2r+E+VezgKqCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4CqglXwltdfRzav4T5V7OHwltdfRzav4T5V7OAqoJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4CqglXwltdfRzav4T5V7OHwltdfRzav4T5V7OAab+UXe32gUf8AKthKqR/p/r5L/f8Ab2Xw2PILdbcgziCrtq3ux1tpnqYI8es1M6VtPWRRTIzxqeZiOViIqxu45LAAAAAAAAAAAAAAAAAAAAAAAAAAAAEq6lvk6tH2gYJ/NVrKqSrqZZWe9dT1tFaLrc/yZmGIXSop7Xbp6+q9Fpcit1RUSMp6dj5ZeyGKR6oxjndrF8vIfCW119HNq/hPlXs4Bpv5Rd7faBR/yrYSqnNWtN24vj+abYu13w3atPSZNmFNdLXJ71eTv9IpWWC00jpOG0CqziekqGcORHfE547XNVaB8JbXX0c2r+E+VezgKqCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4CqglXwltdfRzav4T5V7OHwltdfRzav4T5V7OAqoJRJ1Na2hjdNNj+02RsarnOdqjKURqJ61Vfyd5IYfFOsrRGeWpt9wapzzIra9ytbWWnWuS1cCuT1okkVA5vP8AnAt4JV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4Bpv5Rd7faBR/yrYR1LfJ1aPtAwT+arWT/Wm7cXx/NNsXa74btWnpMmzCmulrk96vJ3+kUrLBaaR0nDaBVZxPSVDOHIjvic8drmqvt7a21YNlWCw4hiGJbKnuU+cYfVolXrbIaGCOCmyG31NRLJUVNFHDExkMMr1c97U4YoHRQAAAAAAAAAAAAAAAAAAAAAAABKupb5OrR9oGCfzVayqkq6mWVnvXU9bRWi63P8mZhiF0qKe126evqvRaXIrdUVEjKenY+WXshikeqMY53axfLyAqoJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4CqglXwltdfRzav4T5V7OHwltdfRzav4T5V7OAqoJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCSVnVHq63UstdcLPs+lpoGq+WabVWUMYxqetXOW38In96mHxDrU0BsKiqblgNxzfJaSjqHUdTPZ9cZJWRwztRFdE90VA5GvRHNVWr5oip5eYFzBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cBVQSr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nAVUEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZwDpO/RY039n+Pfw6AqpNOmS03WwdNuqLFfbZV265W7B7FSVlHVwuhnpp46CFskUkbkRzHtcitVqoioqKilLAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAj79obov+b5tjWudWYVcbbhd4p7JLXXvNqu3T1M8lsoq9zmwQ2upa1iNrmMRVlVVVjl4TyPb90fVP+xvVX4l3H2ENN/KLvb7QKP8AlWwlVAlXuj6p/wBjeqvxLuPsIe6Pqn/Y3qr8S7j7CKqAJV7o+qf9jeqvxLuPsIe6Pqn/AGN6q/Eu4+wiqgCVe6Pqn/Y3qr8S7j7CI51P6A3N1V4basNz7TusqeOz3mmu1PVUuyrgkyNY7iaFHfkLlGyxK9i+fkvY/hVYiHXAAklFd+pu20cFut+kdS01LSxNhghi2RcGMijaiI1rWpYeERERERE9SIeb3R9U/wCxvVX4l3H2EVUASr3R9U/7G9VfiXcfYQ90fVP+xvVX4l3H2EVUASr3R9U/7G9VfiXcfYQ90fVP+xvVX4l3H2EVUASr3R9U/wCxvVX4l3H2EZXUmw8qzmXMbRmuJWrH71hmQMsVTDa71JdKWfvttFXMlZNJTUz/AMyvaxWrF5OYvCqioUAlWm/lF3t9oFH/ACrYQKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeGrqWUVLNWSsleyCN0rmwxOleqNTlUaxqK5y+Xk1EVVXyRDzAD5VabybrEt3XfduoDLtP5VDjmXRW+nvdjbEk1basduE89Na5ZKNjnSsdC+3yPk/s+5qRTK5G+Miu+qpKsc/Sn2H9n+G/xHIyqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+TeI9C2a6n6g9n7Ira3YWLa2x3IljpqjC7hLb7g61VLVqEqYXNjd6TT0zXxRzMi+Mv8Aa9vnE6N31kAHq2u6W2922lvNnr6euoK6FlTS1NPIkkU8T2o5j2Ob5OaqKioqeSop7RGLjRVfTrcKrJbDSTVOrq6Z9VerXTxq9+MTPcrpK+lY3zWic5VdPA1P7JVdNGnasjSw0VbR3GjguFvq4aqlqomzQTwyI+OWNyIrXtcnk5qoqKip5KigeYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHjqKino6eWrq544IIGOkllkcjWMYicq5yr5IiInKqpFIrzd+pnvpscqK6z6m7lZUXeF76esyxqeSxUbk4fDQL5o6oTh86eUStjXxXhzb1xaUt3Wfbb9etR2u8V9bru21iSX+nrah9DdaymZK9tpoKNq+HVVHiOcx9Q1ERjuIu6RzVZF0d0TaSj0B00YXgU9EtPd5KJt1vSPj7JFuFSiSStenCL3RorYfNEXiJOfMs1ms1ox200dhsFspbdbbfCynpKSlibFDBE1OGsYxqIjWoicIiHugAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKtN/KLvb7QKP+VbCVUlWm/lF3t9oFH/ACrYSQ6m2d1obvst5y/ELzpW0WmjyS72Slprlj12mqeyjq5IEc98dc1qq5GIq8Inr9SAdZg523Bs3qN0n06XzOL6mvL7ntNcKSltjLfbq2C1yMqKiKFjZI5KlZe7mR3mkqJ6vL1oUrT20Y9i6esmy7xFT2+eot7pbtBGq+HR1UPcyqj81VURkjJE81XyT1gb+Di7DetHbOR6C31tu5YljdBcdbzPmxykWnqPDnopKOKqpXVaLN3Oe6OZiu7Fj9fHCcG8rknXPa8K98OoqdIX6khtiXZ9opbXdrfUTxeGkjo2VD6qZjH9vKIro1TnjnhAOmAQbFupKoz3MNMxYvbaRmN7Rxm43+Zalj1q6d0MUL442ORyNROZXI7li88Jx2lqv18teM2S4ZHfKxlLbrXTS1lXO/8ANjijarnuX/IiKB74Of8AGs76ptrWWDYWA2HXuKY1cY/SbPbcnhrqq53ClcnMcsz6eSOOi704cjOydWoqc+fkeNd/bOy/UWYXnX2CW+h2dryu9EyDErq59Ux7okbLJHTTRPj70mgXvglVOFVU7mc8ogdCAkF+6lMNo+n2n31j7JLrTXaihdZrcxOKituE6pHDRI31pKsy+G5PWio7n1Gh5ztXqhtGRak1hZPe0oczze13Guvs1ytVfPQUs1NHG9YoGRVbX8J4itVznO5VvKcIvAHTYI7hVD1fw5RQSbFynTtXjiPd6fDZbBdKetezsXt8KSaskjavd2qvcxfJFTyVeUneO7R6tdqbF2hY9aXPUdoseA5S/HIEvtjudTVzo2nhm8R74axjP/23Hk1PUB1MSrTfyi72+0Cj/lWwmb1bT7xp6Wvbuu74NX1CyMWgdi1urKNjWcL3pK2pnlVy88cK1UTjnlDCab+UXe32gUf8q2ECqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACVY5+lPsP7P8ADf4jkZVSVY5+lPsP7P8ADf4jkZVQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAP4qIqcKQ2v8ASOmK4y3akhkm1BXzOlrqaNqudh073cuqImp5/k1zlVZGJ/3Oqq9v9krkiuZ+JYop4nwTxtkjkarHsenLXNXyVFRfWgH8p6iCrgjqqWeOaGZiSRyRuRzXtVOUcip5Kip5oqHkIHCyr6Vrn4Kuln0vcJ+I1XlzsJne781V9a2t7l8v+9XLx/tCp4F6Y9krGyRva9j0RzXNXlFRfUqKB+gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMdkWR2HEbFX5PlF4pLVabXA+prK2rlSKGCJqcue9y+SIh6Gd57imtMZqcuzO7MoLdTKyPuVrnyTTPcjY4YY2or5ZXuVGsjYiuc5UREVVJ/Y8IyHbt2oc/3JZ32+1UEzKzHMKme17KSRq8x1tx7VVk1X6lZEirHT/N3yJ4jQ9OktF56kfCu+a2itsusEcktvx2sjdDV5JwvLKi4xrw6Kk9Sso3cOk8nToif2KWmKKOCNkMMbY442o1jGpwjUTyRERPUh+wAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1vYmxsI1Ph9xz7YmR0djsNqj8WprKl3DU+ZGtROXPe5eEaxqK5yqiIiqoGnab+UXe32gUf8q2E5q6SenSy7G19kmU1u09sWOWbO8niWjx7ObhbKJqMucyIrYIZEY1y+tVRPNfNSg9CfUBj/UbWbr2Ji9rqqC13LO4aikiq1Tx1hZZrdSNe9G+TVd6Er+1FXt71Tl3HK7bL0K9Mr62ur4sOyClkuNZPX1LaPNr7TRPqJpFklekcVY1jVc9yqqNRE8wNc6oMIpdd9LD8Vo8iyO9xU2RWV7azILtNcq1/fdoHKj6iZVe5E54RFXyRERPJDWMnq6vELvs7phtsi08+wchoqzHmRr2Ky33lXflJzFT/enU9dIvHq8RvPr5W6Wfpl0xY8IrtdUmN3KewXG4QXWppq7IblWvdUwujfE5Jp6h8rUa6Ji9jXo1eF5ReV52e7aswC+bCse1rrjcFRleN0lTQWu5OkkR9PBPx4rEYjkY7njyVzVVOV4VOV5DijYdBS2vUPXNbKGFsVNSVMEEMbU4RjGWGia1E/yIiFkx7px3DmGv7XZMu6wc6qcbulop4qu2UFhstBI+mfC3mFtVFS+KxO1e1XNVHcfPz5lfuuh9UXu155ZrnivjUezZElymP06pb+UHJAyBF5bIixf2UTG/2Ss9XPrVVXd7fQUlroKa2UEXhU1JCyCFncru2NjUa1OV5VeERPNV5A52v+MWPCup7QuIY1QsorTZsVyKhoqdnqihjhpWsb5+vhETzN+6psPv2wOnHZGF4u1z7td8brqajY3nmSRYl4YnH+647f8AOe7tfp71Nu2stNx2Pj9dXVdibMy3z0V8r7bJC2Xt8RO6kmiVyO7G+TlX1H81d096r01cK266/tV5pam4Qtp6h1fklzuaKxHdyI1tZUStYvPztRFX51A9vRWZY7nen8RyXGK2OooZrRSxqjfJ0MkcbWSRPb62PY5rmuaqIqKioqEv6d6ynzPfu8dm45MlRjFZX2uwUlXEqLBW1dDTuZVSRuTyejHvSNXJ87FTnyN0yXpW0Nld+rckumCuhrbo/wAW5JbbrW26nuL1ThXVUFNNHFUqqetZWO5+co+PY7YMSstHjeLWWhtFpt8SQ0lFQ07YYII09TWMaiNan+RAOTNcaws1D1sZhg0dXO7EcQo6bYFlsKtYlLSXq6OliqJ2oic8J4L3sb6mvnkd6+OMv1N4LSbG6otI4vW5Hktjimt2RyLWY9eJ7ZWtVsUK8Nnhcj0avqVOeFT1nRFBrnDbZn912hQ2bw8nvdvprXX13pEq+NS07nuhj8NXLG3tWR68tajl581XhDXdsdPOpd31louOyMerq+rsKTNt1RR3uvtssCS9viIjqSaJXI7tb+cq+oDH676d7NrfJY8nodpbWvkscUkPoeRZvX3Sjcj047lgne5iuT1o7jlPmOedM6KtO1Nw9Q14uGxtlY6+k2PLTNgxfMK20U8iegUru+SOne1r3/G47lTnhET1Ihd8S6QdD4Pklvy3HLFkkVztcyVFK+pzS91cTXp6ldDPVvjenn6nNVP7j1si6LunXKcqvWaXXEr3Hd8hq1r7nNQ5feaFlTUK1GrIsVPVsjRe1rU8mp6kAoGsta0Wr7JPYqDLcvyGOeoWo9Iya/VF2qWKrUTsbLO5zkZ5c9vPHKr+s1nTfyi72+0Cj/lWwmW1ZorWmmFuC6+tl2pVunh+lLX5Bcbmruznt7fTJ5ez85fzeOfn5MTpv5Rd7faBR/yrYQKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJVjn6U+w/s/wAN/iORlVJVjn6U+w/s/wAN/iORlVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADxVVLTVtNLRVtPFUU9Qx0UsUrEeyRjk4c1zV8lRUVUVF9ZGLbJUdNdwhsVyqJJtTV0zYbZXTPVzsSne7hlJO5fP8nucqNilX/aHKkb18NWOZbDwV1DRXSiqLbcqOCro6uJ8FRTzxpJHNG5Fa5j2u5RzVRVRUXyVFA84ItbblWdO11o8TyOsnqdZXGdlJYbxUyLI/HJ3qjY7dVyO81pXKqNp53LyxVbDIv8Atb3WkAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGo7J2fjOr7RT3C+rU1VbcqhKG0Wihj8avutYqKraemi5TveqIqqqqjWNRz3ua1rnJ6eytr2zAZrfj1utk+Q5hfu9tkx2jkRs9X28d80j15SCmj7m+JO/4reURO57mMd6evtVT2i+S7K2HcoMhz6vgWnkrmMVtJaqZyo5aK3xu84oEVE7nr/aTOajpF8msYHp4frS9ZBkdJtbcjKapyWm7nWSyQy+Nb8ZjenCpEqoiT1bmqqSVSoi+asjRjOe+pAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAhXWDguAZvq+OlyzCLVkt/krorXiENwjWRkN4rVSmhlVqKncyPvWWRF8uyFyrxxyl1JFU/8AbE6iqeiVviWbVFvStkX1sff7hE5kaf8AjwUKyqvl6rixUXyXgJn0T9PuNdP2ab0xnCLjULjtNlFptlHQ1CK+SGSOx0NXNMsqu+P4j7iqI3tTtSJPjO7vi9Ukq038ou9vtAo/5VsJVQAAAAAAAAAAAAAAAABKtN/KLvb7QKP+VbCVUlWm/lF3t9oFH/KthAqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzI9kTHSyvaxjEVznOXhERPWqqaRqjc2C7qor7ddf177hbrDeZ7HLWojfBqJ4WsV7oXNcvfGiv7UcvHKtXhOOFUMHjn6U+w/s/w3+I5GVU1XOr9i2s8dybbV2sve61WdZ7lUUVNGtbU0dIksrIe5yt70Ys06sa5yNR0r1Tjucq+vqDbWF7y11Ztoa/r31VlvcHjQ+I1GyxORVR8UrUVUbIxyK1ycrwqetU8wNyBqGq9nWHb2Hx5rjVJcKahlq6uiSOujYyXvp53wvVUY9ycK6Nyp588KnKIvkbeAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHp3iz2nIbTWWG+22muFuuED6arpKmNJIp4ntVr2Pavk5qoqoqKRiwX+79POQ2/XWd3Gpr9fXeoZRYnktXIsklrnevEVpuErvNUVeG01S5fj+UMi+J2OmuZ6N7sdkya0VdgySz0N1tdfE6Croq6nZPT1Ea+tkkb0Vr2r86KioB7wNAxfdGusm2lkOlcWr0q75h1vpay6tpmsWmpEmc5scCuRfKVEZyrOPiorfPleDfwANBzTd+vsE2FherL1dHPybPKqantVBT9r5EZFC+V88qK5FZEiRq3u4XlzkREXzVN+AAAAAAAAAAAAAAAAAAAADQq3duv6Pcds0Q26OqcvuVqqbytLAjXtpKWFWJ3Tr3csV6v+InCqva5fJE5XfQBONg7WntN9i1pru2wZDn1dTpUMonvVtJaqZyq1K24SN84oeUXtYn9pM5qtjTyc9ns7b3fr7SlJYp84ujop8mvNHYbTRQdrqirqqiVsbexiuTlre/ue7n4rUX1rwi7Za8bx2x1lyuFksFut9VeahKu5T0tLHFJWzoxGJLM5qIsj+1rW9zuV4aic8IBrGttU2zAZbhkFwuU+Q5hfux17yKsYjaisVvPZFG1PKCmj7nJHAz4rUVVXue573byAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABictyiy4Ri14zPI6pKa1WKhnuNbMv8AiQQsV71/vXtavkafoPFr1juvIbpltMsGUZZVz5Nf43fnQ1tW7v8AR1Xy5Sni8Gmb/wAGnb8/mYndP/ZtleFaSh+PTXutXIcgann22i2yRy+G79STVj6OJUXjujWf19rkK4BP8p6etBZzfarKc10fr/IL1W9npNxumM0VXVT9jGsZ3yyRue7tYxrU5Xya1ETyRDFfBO6WPq06q/c23f0SqgCVfBO6WPq06q/c23f0R8E7pY+rTqr9zbd/RKqAJV8E7pY+rTqr9zbd/RHwTulj6tOqv3Nt39EqoAlXwTulj6tOqv3Nt39E5b/wlGr+nvS/Steb9hmidb2TI7rdLdarVXUWI29k8Uzp0mejFSHn40MEzV/ucp3yYLJ8Fw/NKmyVeWY9RXaTHLk272v0uPxG0ta2N8bJ2tX4qva2V/aqovaq9ycKiKgcZdDcnS11R6378p6S9ZWPOrBT0q3yjfgdDFBURztcsFbTq6DhYpkY5UbyqtVHJ5t7XO6V+Cd0sfVp1V+5tu/on46cv9g8ayLWEnxX6/ya4WWBi+StoJHNraBqJ+ptHWU0fPqVY19XqSsASr4J3Sx9WnVX7m27+iPgndLH1adVfubbv6JVQBKvgndLH1adVfubbv6I+Cd0sfVp1V+5tu/olVAEq+Cd0sfVp1V+5tu/om64Vr3Ada2qWxa5wfH8Vts9Q6rlo7JbIaGCSdzWtdK6OFrWq9WsY1XKnPDGp8yGwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADWNj66xrauKz4VmDa2Wz1ksMlXT0tZJTeksjej/BkdGqOWJytRHs5RHN5avkqoRXpblxnX9j3TUeBT2iwY/n94kWOngVIqWlhp4FVGxxpzw1rfJrU58vJDpE0LVWrfeyqMyn/Lv5S912T1eR8ei+D6L47Y2+D+e7v48P8AP+Lzz+anAENzfqy6f+pDp73HbNL5/wC6KpsmH109ez8lVtJ4MckMjWLzUwxo7lWr5NVV8vMxeuWp0uZVhd7iRKfV23rfbILg3uVIbHkzqWNsUyJ+ayGrREY71IkrWr/jKdNbUwf3zNbZPr38qfk33R2qptnpngeN4HjRqzv7O5vdxzzx3Jz+tDG37UON5dpx2mMt5uFrlssVnmma3w3qscTWNnZ5qrHo5qPaqKqtVE8/ICfdD/yAUf8A+PX7+J1BfCYdNulF6etP2bVDsrlyRbQ+petzmpfR3z+LM+XlzO9/mnfwq9y8qnPlzwU8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB6V7tcd8s9dZZquqpY6+mkpnT0kqxTRo9qtV0b082uTnlF+ZeD3QByppDXeGar6yc8wvArFBabTR64x5zIY1VzpJHV9wV8sj3KrpJHLyrnuVXOXzVVKBaes3prvm4l0Da9kePnqV09tW0/kevb/rmFjnyM8d0CQ+TWOXnv4XjyVfI2e0aj/JW+cj3d7oPF90GN27HvyZ6J2+B6JPUS+N43evd3ekcdvYnHZzyvPCUQDkjb+p8JwPqN0ZlVjtsj75lOw7lV3W6Vczp6qf/AGHrlZF4jlVWwxovDI28Nanzcqqr1uTvZWo/fDzjWuZ+6D8n+95fKi8+jeieL6d4tFNTeH397fC48bv7uHc9vHCc8pRAAAAAAAAAAAAAAAAAB/HJ3IqcqnKccp6z+gDkik1PhGp+tTV1vw61viluuJZbX3OuqZnT1lxqnT2/umqJnqrpHfMnK8NThGoiIiFMzTrN6a9ebVp9JZhsj8n5pVVNJRxWz8j18vdNUq1IG+NHA6JO5Xt81fwnPmqeZs9/1H+XN54huj3QeB7lbHdbN+TfRO70n019O7xPF707Oz0fjt7Hd3f60486IByR1o6nwm20Vo2wltkq8pumwcMo/T6uZ0zqSmbdaZPApmuXtgjcqdzkYiK5yqrlXy463J3vHUfvz4tasZ90H5H/ACZklnyHx/RPSPE9Bq46jwe3vZx3+H293K9vPPDuOCiAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACb7+yW8WTXz7FilU6nybMqyDF7HK386Cqq1VrqlP1+jwJPUr/wad3r9QGL0lzmuSZpu6fiSDIa9LHj7l8+2y258kTHt/umqnVs6KnHdHJDzz2opXDFYrjNlwrGLRh2OUbaS1WOhgttDA31RU8MaRxtT/I1qIZUAAAAAAAAAAAJND/2JdTlREq9lFsXFGTsT/F/KFpn7JF/8eSnuEKf3to/L1LzWST9Qv+wFvw/aUfxXYPlVDWVLk+a31aut9Yrv1sZDWunVF/3hF9aIVgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJpYLtdZupLOrFNc6t9to8HxOrp6N0zlghnmr7+2WVkfPa172wQtc5E5ckUaLz2pxSyVY5+lPsP7P8N/iORlVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADH5BZKfJLHX2CrrLhSQ3CnfTvnt9bLR1MSOTjuinic2SN6c8o5qoqKS/XWcZVhWS0+ldyXJa27SteuL5Q+NsceS00acrHKjURsdwjYnMsaIjZGossaIneyKwGu59gWN7JxqoxbKKWSSmlcyaGaCRYqijqI17oqmCVvxopo3IjmPb5oqf5UA2IEw17nGR2S/s1DtmqjkyVkT5bLemxpFT5NRxp8aVjU+LHVxt48eBP/KxosblSOngAAAAAAAAAAAAMLmOZ4xgGPVWVZheILZa6NE8SeXlVVzlRrI2Naiukkc5Ua1jUVznKjWoqqiAe7er1Z8btFZf8gulLbbbb4X1NXV1UrYoYImpy573uVEa1ETlVUlVofmO87tQZStde8S13QTsq7ZSQSy0FzyR7V5ZUVDmq2WmoueFZBy2SZPOXtYvhP8AHb8EyDdd4oM42/a5rbjNvnZW49hFQqf7Y1eYq66oiq2SdFRHR03Kxwrw53fKiLHZgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAASOh/7YfUPW3P/AG2y6st/5NgX/Fdfq+Nks7v/ABoKL0dqL/8Ax8qKnlyb7n+aWrXWEX3O754jqGw2+evmZGnMkqRsVyRsRPNz3KiNa1OVVzkROVUwOj8MuuE65t9Jk3Y7JbtJPfMhkavKOulZI6epa1fnYx8ixM/VHGxE4REQDfQAAAAAAAAAANQy/beusCyjF8MzDJ4LXeM0qZaOxU80UnFZNG1HOYkiNVjHcKnCPc3uVUROV8jbzk7q/wBUWLdO59Q4BfZZaZKujyOairYV4moK2KnhfT1Ma/M+ORGuT/IBe9xXrWdrwWrtO3J2sxvKZYcYnidFO9Kl9e9KaODmBFezvdIje9O3t557m8cpukcbYo2xNVyoxqNRXOVy8J+tV81X+9fM4Z2dtW/Z5oWy4fsSJtJsPA9pYhZMnp0TtbNK2606xVsSfPDUR9sjVTy5VzfW06zl3dpeDMve6n29hUeWeO2l/IT7/SJcfGVEVI/Rlk8XvVFRUb288KBlstzvEcFZa35ZfILd+WrlBaLe16Oc6prJndscTGtRVVVX1rxwiIqqqIiqZ85H6n9Q0FJsLAdtX3JLxfbtUbJsFLaaarmRKOyUiu4kipoWoid0jm9z5X9z3conKNREOuAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJVjn6U+w/s/w3+I5GVUlWOfpT7D+z/Df4jkZVQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADXM9wLH9jY8/HsgZOxrZWVVHW0kvhVdvq415iqqaVPOOZi+bXJ5etrkc1zmrquvNg36kyF2o9rvgjzClgdUW64xReDS5LQs4RaqBvqZMzlqT0/KrG5Uc3mN7XFNNT2Vrex7Ox5LLdpqqhq6SdtdarrRPSOstVaznw6mneqL2vbyqKiorXNc5j0c1zmqG2Almrdn32e/VGodtQU1Bn1qp1qYpoGLHR5FQNVG/lCiRVXjhVak0HKuhe5EXuY+OR9TAAAAAAABpmxtnWvAYqK209BPfMovbnQ2PH6JzfSrhK3judyvxYoGcosk7+GRt9aq5WtcHubA2JjOtrKy75FPM+SqmbSW630kSzVtyq3IvZTU0KeckruF8vJERFc5Wta5yaZiescgyvKqLbO6mwS3qgVZMexuGXxqDG0cnCv5/NqK5WqrX1CpwxFcyFGtVz5Pd15qa4W/I5dp7QusGQZ5WQOp45YUd6BY6Vy8rR2+N3mxi8J4kzk8WZURXcNRkbKaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABI9r853srB9Pwqj6GKo92WRt45RaKhkb6FA75v7WuWCREXlHMo5k48+UrhI9Ap7r3ZRvOf43u9r2ts7l/xbDRd8NBwv+5lVaisTz/8A335vUlcAAAAAAAAAAAATPN9Z37Jd1642RQ1dBHbMPgu8ddFNI9J5FqoY2R+E1GK1eFYvd3ObwnHHJTABzF1S9I943Ln2DbM13f6Cx3iy3y1S5JFVPkjhvNqo6xlSyNyxscqzRPYqxqqInx3IrmovJaJdI6XnzL3xZ9Q4VJlnjtqvy6+wUi3HxkREST0lY/F70RERHd3PCG6mi7yvWV4xqbJsrwmZ7LvYKP8ALEUbImSOqYqV7Z5qZGvRU5mijki58lTxOWq1yI5Axu8tZ37ZlLhkNhq6CB2O5ha8gqvS5HtR9PTPc57WdrHcyKi+SLwn61Qph61uuFFd7fS3W21LKikrYWVFPMz82SN7Uc1yf3Kiop7IAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEqxz9KfYf2f4b/EcjKqSrHP0p9h/Z/hv8RyMqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGm7Q1hZtn2Wno6usqbVeLVUJX2O+UXDay01rUVGzwuVOF8lVr43cskY5zHorXKhitX7IvN2uFXrfZVFTWvPbJCk1TFBylLdqTu7W3GiV3msLl4R7FVXQvXsdyise+jmn7J1vQ7Bt9JJFcZ7LkNlmWtsN9pGItRbKrt47kRfKSJ6fElhd8SRiq13zKgbgDQdbbHrshrK3Bs5tsFlzqxRtkuNBE5Vp6yncqtZX0TneclLIqKnn8aN/McnDm8u34AATDO9j5Bcr7PqzTjKOty1jGuulzqWLJb8ahenLZalGqni1Dk84qVqo5/k56xx/HUPf2Js+ew3KDAsDtcOQ55dIfGpLY6VWQUVPz2rW18rUVYKZq8onkr5XJ2RtcvPa1fqWmwSe4ZTkF5mybN7+jVvOQVUaMfK1qqrKanj5VKakjVV7IWrx5q5yvkc57ve1jq6wavtFRSW6prLndbpN6Zer5cZElr7tVqnCzTyIiJ5J8VrGo2ONqIxjWtRENyAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB+ZJGRMdLK9rGMRXOc5eERE9aqp+jQ9vati23ZKPGrrld6tViZUrPdqG1zJAt3gRjk9EmlRO9sKuVFejFarkb2qvCqihn8KzjFdi47BluFXmK62iqkmigq4muRkqxSOjf29yIqoj2ORHJ5KicoqoqKYjcWba51/re95Dtq9OtWKLT+hXKqalRyyOdfB4RadFlZyr+O9nCt555TjlJL0b3jE8A6SrBdL/eLXj1gtEtzbJV11THS0tLC24Ttb3SSKjWNTyTzVPmML1dZ3q3cXTHfW4Tm2MZnaFv1koK91nukFfC3vuFP3RSOhe5GqrHepVReFA6Lt9diWNYPTXG0zU1PjFqtTJqZ9MivhjoIoUVisRvKuakbU445VUROOT2MVyixZtjVsy/GK7020XmkirqGo8J8fiwSNRzHdr0RzeUVF4ciL+tDlrGK+v0dQbB6UcoqZpLTHjV1vOuq+dUX0i0+C/xbd3fPJSOciInrWJzF8+FLP0sfo26x/wCKtt/5uwCpgAAAAAAAAAAAAB+JoYqiJ8E8TJIpGqx7HtRWuaqcKiovrRUP2AJT0zyy0OrocCq5Xvq9fXGtw+TvcrnLBRTLHRvVV81V9H6LJ5+f9p/nKsSbGkTEupDMMe47KXO7HRZXTJ6u+to1bQVzv7+IfySnP9/n8xWQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHOukMQ21srS+A7GvvVTsqC5ZVi9qvdZFSWvF2wRz1NJHNI2NrrQ5yMRz1REVzl445VfWB0UCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqeGrhlqKWangq5KWSWNzGTxo1XxOVOEe1HIrVVPWncip5eaKhMPeb2L9bHav3bivsYe83sX62O1fu3FfYwHBWn929bOT9cFz6fb7cLLRX63xWy1Zfk9NZY0mmsNoqayqZVMjf3QRrVtufYjkiRE8WnVqMVHKv1KIZR9L90t+aXLYlF1HbIhyW70VPbq65stOKpPPTQue6KNzvyN6kV7v714ai8o1vGe95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYxqmyMd2jq+02TLaLqT2Be/8Aswxa11Fuultx30Wqpa6+UVFURvWntcUqcw1MnCska5HcLz5AdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAhVptOydlbJ2nDDv3NcVtuK5RSWS222yW+xOgjgdYrXWOc51ZbqiZz3TVsyqqyccdqIicGwe83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYe83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYe83sX62O1fu3FfYwHi6lY8Gsevptp5dmPuKqsIclbbcqjpX1D7ZLK9kXa+KNFdPTyucyOWHjh7VRfiua17eaej/APwhVX1E9SGX6/vktvoMehxuCssyM4bD6XSLxXSRvkYyZY5fFWRqSpyyOnbyjHK9F6aXTWxHIrXdWG1FRfJUW24r7GI5kH+DY1bkmUvzWs2rn9FfJaStopq60UWOWuSaGrgfT1CSeiWmNJFfFLI1XO5cndyiovCgSDRv+EJuXUTmuU6Xp9iWvDay/wCXVceOZBcWQQTU9iesUVLR0UTm9s9xkf39izco1ZPVKrWxu72wLAMW1pjUGK4jb1pqOFzpZHySOlnqp3rzJUTyvVXzTPdy58j1VzlXzU501l/g7NaadSB2utl5da6mmVFhrX2HFKqtYvPPlUz2Z83r8/zyse83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYe83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYe83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYaLuGX/lbZ+JZbnd1y33JZhDa7dcbpTUUNV6LJY7VWrG9KKngidxNWT8L4aO7VRFVeAKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAfmRqvjc1PWqKh+gBI9L6RixHRdJp/aFrx/I4PFrVrqR8CVlBURzVcszGuZPGiP4R7eUczjlPn8lMVtXpnxe5aiuGt9J4XhmFuuF4tl0njordHbqWVaarhle56U0XxnrHErUVWr58Iqonmm2X7Lb/cN145rjGbh6NSWy2z5LlDmxMer6Z/fTUNIquRVZ403jzdze13FAre7hyotFAjnVPoKTqA1jUY/YbwyxZfbVfWY3e15RaGrViscjlRFd4UjHOjeiIvLXepVRDb9L4XdNc6jw7Ar3UUs9wx6y0ltqpKV7nQvliiaxysVzWuVvKeSq1F/uQ3QAAAAAI/tB+b3/AHRhGuca2jkGF2244vkl7rpbJSWyaepno6uzwwNc6vpKlrWI2uqFVGNaqqreV8uALACVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgOMP8I31K9TfTrsuxX+xYVj0Flb6XBieVwxSyujbU0fh1VHVseqx+MkzYqiPyRipBHy2TiRE721BQZJa9UYZbsyudTccgprBb4rtWVL1dLUViU7Enkeq+aq6TuVf8pMti9KNXtvE6rBtj9Rmyr7Y6x8ck1HU23F+1z43o9jkVtnRzVRzUXlFRfWnqVUNm95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVaLuGX/lbZ+JZbnd1y33JZhDa7dcbpTUUNV6LJY7VWrG9KKngidxNWT8L4aO7VRFVeCqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlXSd+ixpv7P8e/h0BVSVdJ36LGm/s/x7+HQAVUAAAAAAAAAAAAAAAAAAAAAJV1LfJ1aPtAwT+arWVUlXUt8nVo+0DBP5qtYFVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKtN/KLvb7QKP+VbCVUlWm/lF3t9oFH/KthKqAAAAAAAAAAAAAAAAAJVpv5Rd7faBR/wAq2EqpKtN/KLvb7QKP+VbCBVQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8TTQ00MlRUSsiiiar5JHuRrWNROVVVXyRET5z9ko6iKmpvWNWvT9qqJIrjsu4JYJHxPVr4LX2OluUyKnm1UpI5o2u5TiWaHz5VEUPz08Qz5DZL3ua5QuZWbIuTrtSNeio6KzRtSG2R8Lx291Mxs6t48pKqX1+srJ4qWlpqGmhoqOnjgp6eNsUUUbUayNjU4a1qJ5IiIiIiHlAAAAAABKsj/Sn159n+ZfxHHCqkqyP9KfXn2f5l/EccAqoAAAAAAAAAAAAAAAAAAAAAAAJVpv5Rd7faBR/yrYSqkq038ou9vtAo/5VsJVQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAASrpO/RY039n+Pfw6AqpKuk79FjTf2f49/DoAKqAAAAA4vxvPtgY712ZbJeM4vtZg90u1Lh0dmqKyWSgt9bLbGVdPNFE5ysiV7opmKrUTlXp86+fm67thZ/Q5HhOO67zW74/Dj16sd3yJ9rrZKZ9VDWXWCip6SVY1RVjejql6tXyXwk5RUPFkOJXLLLz1QrYI1dfbBfrBkVm4VUX06hoIaiJqKnn8ZY1Yv9z1Q1bY16Zs3pyuHUEsE0bNi7HxCe2MnjVkkVqpbtSQU7OF80RXNml4/8KB0F1UXjJbvR4lpHBckuthyDY12WlddLVVOp6u326mjWeqqGSNVHMXhrI0c3z5lPW1NLU9R3T3brFmeV5XZMhsdZJY8iqrBeKi1V/wCUqCR0Mv8AbRKkiMkVqScc8OR6etCfvw/YHUP1NZpsXAtwXHBLfrSFmD2utobLQXBaqoejai4q30uORiIj1p41VqIvMaoq/MezpWyZZ079Ud91pnGf1WW0m3rcuUUF3q7fBRPkvFJxFVxeHTMZC1XQeC/hrUVexyryvmBhNcdPqZNufa2EXTfe9XWvEZ7THbWs2XdmvalRSeLJ3u8X43xvV+oo13rMw2tum46Gx3PcgxrENeWSgnyG5W2qRt2u9ZUtd4NN6W5FfC1scfiSPZ2yPc9qI5E5Mjpj9Jbfn/3vH/4eYHIb5T9OXUlk+yc1pK2HANl2q3smv0FHJPT2i6USPj7KtY0c6KKWJ7VbIrUYjmORzk5QDa8Z1ttLVGz7NDiGYZJl2urzTzw3qiye9LcKqy1LG90NTT1NQ5aiRj15Y+JzpOPiub28LzpGkOpbVuN1WyLDt3f+K2u7UGf3mCloskyumgqaejbI1ImMjqJUcyJE57UREannwbjZOpOn2rsvHsU0FDS5ZjLFmqcryhsEy22igaxfCgpqlO2OapfIqfFYr0a1HK7jyNe6X8IwvII9pV9+xCy3Kq98u/M8art8U0nakreE7nNVeP7gPd0hti07O6ktrrhuyqTLMUoLRj/oH5MvLa+3087mT+N4XhvdGx6qje/t4VeE5OhznbUNls9h6t9y2+xWmjt1K2xYy5IKSBsMaOVlTyva1ETlTokAAABKupb5OrR9oGCfzVayqkq6lvk6tH2gYJ/NVrAqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJVpv5Rd7faBR/wAq2EqpKtN/KLvb7QKP+VbCVUCb9SV1uli6f9iXmyXKqt9wocauE9LV0szopoJWwOVr2PaqOa5FTlFRUVDmbduY78paXpwuuo8ouVReksFVfrpapayVY8jjp6Gnklpp07uJJHtdJ2Ofzw9UX1+Z0d1T/o27O/4q3L/m7yR2j5RulL/ijc/4bTAZHfO6GZl09YBtHVuT3K3UuRZrikSy0lTJTTpDNdIY6ill7FRU9b45I18l4cioqG04HfcjxDqhzvWGSZBcbhasrttNmGMNrqx8yUyM4pq6lhR6r2Rtf4MiMb5J4y+ScnNfVniORaNzSwWHGbTJUa32nsrGrukcKcMsN+iucElR5epsNUxvciIicStd/ujpHqpVmD02IdQ0aPb72l3Se7Ojby51lqk9HrUX9bWI6Ob/AP0gfm6Zhd7/ANTVwZBkNyosO1Ni0ldfIKeofHT1tyrEV0bJmtciSeDTQuf2uRURZmqnma7qfD8q6mcKt+7dhbVzqz0eVR/lHHrBi98ms1LbLe5yrTrI6mVslTM5na96yuczl3ajERPPZ+njBp75pu+ZLlMLoLvt2orsguaqztkjhrGeHTRL5+uOkSBn+Vq+o0zRu6cG6c9aWLRG/Ly3Cb9hFK2y0s90ifHR3qlhVWU9TR1Hb4cyvjRnMTV8RruUVvq5DYdfZpnuIZ3nnT7nmU1WRTWXHm5JjGQ1LGR1tTbpPEjdDULGjWvmhlYieK1re5r2qqd3Kkz1puzY7OkfQFis+VVNTsLbDoLLBfrs91fNTIjZpqqtf4qqs0jIYndqPVUVyt55TyXeMEprztPa+f8AUXJYblaMWbiXuUxdLlRvpKm5RNdJPUVvgyIkjIXPVjY+9rVcjVdxwqEj1Zid/k6OumTceL2Cuvtbq2SK9VFroI/Eqau3zRz01UkLP8eRscviNYnm7s4TzXhQuOXaF2ZhNhfmemNwbBvmc23sqUt+S5I6rtl+7VTxKaWnl4p6Xvb3I18DYuxeF80TgmvUlktmqOqHXuKbX3lkGq8Sr8DuNxq20OdyY9A+5MqoGxsfMyVjJHo18qInKqqNVU8kKPlnWjrS443UW/RdybnmwqyPwbTjNLRVLqiOqf5NWuj7Wuo4mr8Z7pVZw1q8efBMd551rXAOsbWV/wCoq6YzbKCTWV0gqZLhEklEle6spV7Y0ejv9zJ2qvnwigUnRNh6fpM5bX6t6ssk2JdaKmkfJaJ9ry5DB4TvirJJSrPInCKqcOVPJVTzOjiD6t6hejjLMxpcZ1Fm2C1WSXFr46entFMyOola1ve9EVrEXjhvK8rx5F4AEq038ou9vtAo/wCVbCVUlWm/lF3t9oFH/KthAqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABI8G/7YG7su2JL/aWvDY1wmwuXzatRyye6zt/yypS0y+rh1DInmim17ezx+tdc3rLqWkbWXGniZTWqjVePTblUSNgo6ZP75KiWKP8A/wAjy6owRms9dWHCPTXV1RbaVEra1ycOra2RyyVVS7yT40s75ZF8k83qBtgAAAAAAABKsj/Sn159n+ZfxHHCqkqyP9KfXn2f5l/EccAnfWG2+XjNNF4Jbs4yzGrflWZz2+6yY5e6i11M8DbfUSIxZYHNdx3savC8p5GI2zg2V9KmIS7xwDc2wr5bcangqMisGYZHNeaSvtrpWsnWN9T3S08zGu72uY5GqreFReeTy9bGZYtr3YPTzmea3yls9ktWd1E1ZXVLu2KBi2ypaiuX9XLkT/OY3em+dc9UOuq7QfT7fFzm75u+G111Va6ad1Dabe6Vq1NTU1PYkcaJGjkazu7nOc1ETzAxm+clwm7dVVpx3Z3UVkOtsOnwBt0pEo8+mxqnqa11YrUVVbNG2R/hqvl5rwn9xStA2HQy5hPdNU9U+R7IuFHRvSotlRtOXI6eKJ6onivplnka1UVERHqiccqiL5k02xm2jdVdZtql3fe8et1lTWLKKjkvkTZInzNr14RqOa743a1f83JYNS7+6RM0y5mL6YzTCKzIa2GRW01mpmRzyRMTufyrWJ8VOOfNePUBFel3TdVuzWFXsbNt87riuk2TX+mX0DYdypqaKKnuU8UTWQpIrGo1jGpxxx5eo2fWW+slxDQW3MiyHJ6vNYNc3+5WLGb9O6J898axsbaZjnRo1ksiTypCr+EVytVVNI6Oek/px2lqOpzjYensdv8AfarLcjZPXVtOr5JGx3WoYxHefCojWonq9SG79QuCUuaZjrDpI1LU0uDWygc/M7g+02mmkhttJQPT0Nrad7Vh5fVvY5Ec1UXwnLwoGwdKN2z3C8kyfQW2cuvGRZBb6OgyqguN1qJJ5pqStjRKiJJHqqubDVxzNRqLw1j404ROOdW1lr+bdG698+7HZ20IKfGsygttqo7Pnl2tlLS07rfTyKxkNPOxiJ3vcvknzqYjamCbS6fNka/6mM23rd8/oLRcmYtfW11ht9B6LaLg9GOl5ooY+5GVCQPXxOUanKpxyp+dTdPmj92bt6kK7aOsseyiohzaCkp6qupGyTQwOtdMqtjk/OYnKqqK1U4VeUA23BrXdoN559022/bWbZBhsmJ01ylq58gmnu+OV8s7o1p47jytQ1ZI297Ue9Xt4VUXhTV5un1GdTtNqtu+96/kGXCpb45nvl3bxfSm1rYkXv8AF57exV8v1mz9MsFB047NvfSTc7RbaChnZJkODXOnoYaZ12tyrxNTzuja3xqqnd5K93L3sVrlVVRVNwqP046L7Mp/4kwCM9Vrti6hyrUds1vsvOX0WIW28ZJcqepvlTVzX2loXU8ssNY5zuan+yfKid/cqcJwXHqaze7y6UioNcZDPbr7sF9ParHcqOZWTUzZ2LLLVROavKOjpmTSIqL5K1PMxW2aCluvVpqK2V8LZaasxvKoJo3Jyj2Pip2uRf8AKiqTPRDLzkF8uGur/FUui6ebRdsdSSZju2pqqhXto5kc785W25jOV/XUKBP75sC7XDpy6RqvYO8Mpxa2ZZWxRZVkUeXVFqqKiL8nTv5qK7xWuVFkaxeXuXlePnLHraw9L9ZnVliwfrbynK742qbNR2X365bola5iK9Y3UnpLvGb2tcrm9q+SKQVciwfE+nXoiyLZNbbqPGaG4xSXGe4sR1MyNbVUoiyIqKip3K35vXwdLYv1P9B1TkdsosQ2DrdL3V1UdLb0oqSNk755HIxjGK2NFRzlcjU4X5wJqzdOzNX9XexcgynI6646hW82jF66lnnfJHjtXUUcb6etY1zu2KB8jljk7U45ka5fVyWXJ7re6/q2suEx5Ld6ax3LXFznlpaSukii8f0yJjahrWr2pK1rlRsnHcnPkpr+ucOx3YO0+pvCMttsVws17udqoq2mlby2SJ9qjRU/y/Oi/MqIpMNASbDxzrMpNObHiqayq19gFbbrXfpfVebVJWwupJl/8IxieFJ+t0ar84GUz3p9TH97awwC3b73q20ZVBepLi1+y7s6Ry00Eb4u13i/F83Lz+s6p1zgNJrbG24zRZNlF+iZNJMlXkd5nulYqv45as8yq9Wpx5Iq8Jz5Et2x+lXo3/7pkv8AzWEvQEq038ou9vtAo/5VsJVSVab+UXe32gUf8q2EqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJV0nfosab+z/AB7+HQFVJV0nfosab+z/AB7+HQAVUAAAAAAAAAAAAAAAAAAAAAJV1LfJ1aPtAwT+arWVUlXUt8nVo+0DBP5qtYFVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKtN/KLvb7QKP+VbCVUlWm/lF3t9oFH/KthKqAAAAAAAAAAAAAAAAAJVpv5Rd7faBR/yrYSqkq038ou9vtAo/5VsIFVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD1rjcaG0W+qu1zqo6ajooX1FRNIvDIomNVznOX5kREVV/wAgEsy3nYO+MZwdn9paMCpfdheETza6vm8SntkLv18IlbUKnPKOhp3ceaKVwlnTxbq6sxCu2ffKWSC77JuMmTzRTJxJTUcjGR2+mdz5tWOiipmub5J4iyrwiuUqYAAAAAAAAAlWR/pT68+z/Mv4jjhVSVZH+lPrz7P8y/iOOAVUAAAAAAAAAAAAAAAAAAAAAAAEq038ou9vtAo/5VsJVSVab+UXe32gUf8AKthKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADmrp63bi+DaC1phWU4btWivWP4fZrXcab3q8nk8Cqgooo5Y+9lA5ju17HJy1VavHKKqeZ0qAJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VeziqgCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4qoAlXwltdfRzav4T5V7OHwltdfRzav4T5V7OKqAJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VeziqnoX6mu9bYrjR4/dIrbdJ6SaKirZaf0hlNUOYqRyui5b4iNcqOVncndxxynPIHNeDf4Q7SOc7azTVFuteZvqsT8HwH0eIXmtqq1UTtq0fQwUbqmk9HmVkL/GY3lzk4Kd8JbXX0c2r+E+Vezjkjp9/wftt1V1H12WYbuHIlyfA6i1Vdwrq+Bk0N9hr4ZVropYkVHM70R3Y5Xv7FVFXuVEcn0MAlXwltdfRzav4T5V7OHwltdfRzav4T5V7OKqAJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VeziqgCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4qoAlXwltdfRzav4T5V7ONK21tqwbKsFhxDEMS2VPcp84w+rRKvW2Q0MEcFNkNvqaiWSoqaKOGJjIYZXq572pwxTooAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAc/wCO7ItOr9o7iostxbYH+zeYUd0t1Ra8Bvl1paql9ztnp1kZUUVJLEvE1NOxU7+5HRryiG1/CW119HNq/hPlXs4qoAlXwltdfRzav4T5V7OHwltdfRzav4T5V7OKqAJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VeziqgCVfCW119HNq/hPlXs49ev6pdWWqhqbpdLTs6jo6OJ9RUVFRqvKI4oYmIrnPe51vRGtREVVVV4REVSunGH+FGvO4a7RFXrXUmHXeup7vQ1t4yu8ws8OkttkoGJNPG+dytYkkq8KkaOVz2RStRq9yAXiPqa1tNG2WLH9pvY9Ec1zdUZSqORfUqL+TvND9fCW119HNq/hPlXs40noRu23otF0Wud6YZebDl2v5Ex+WWugXwbjSRsatNPBOnMc7UiVsTnMe740SqvHch0WBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cVUASr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nFVAEq+Etrr6ObV/CfKvZx6nT/XyX+/7ey+Gx5BbrbkGcQVdtW92OttM9TBHj1mpnStp6yKKZGeNTzMRysRFWN3HJYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACSdQb3ZTSY5o+l7nP2LcVpLqjV847DTt8a5Od/wZI0jpPn4dWs8uOeK2SPWP8A2ebWzbbci+Jbra9cIx13+KsNJKq3Gdn/AJSt7oHea8pb418vMCtMYyNjY42o1rURGtROERP1IfoAAAAAAAAAARTamRRYNv3X+a3fH8rrbLDh+VWuapsWMXK9eBVT1tikhjlZQwTPj72UtQrVciNXwnJzz5FrAEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZxVQBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cVUASr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nFVAEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZxVQBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cVUASr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nFVAEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZxVQBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cVUASr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nFVAEf6f6+S/3/b2Xw2PILdbcgziCrtq3ux1tpnqYI8es1M6VtPWRRTIzxqeZiOViIqxu45LAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEqwLy6gNrp+uixx3/8AJqU/6CqkqwXy6hdqp+u2Y07/ANitT/oKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlXVh+i5t9if/tMEv0f/AK1BMn/SVUlXVb59NG0Wf75idzj/APWp3t/6QKp6vJD+gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAE82/stMS15f7lh1ZQ3DJY6iGwWukZK2Ti91bo4qSGVqcq3h9RDI9FTlIuXqnb5mwa6wi263wWxYJaZZJqax0MVGk8v+2VD2t+PNIvny+R/c9y8+bnKp829qal6qM7/wAJPnFN0/5NPi9pglsV9ut6qaaOot1vf+SG0rJ1gla6Oao7H1LY2ondy5yorEar2/TTGbTW2HHLXZLjfqy91Vvo4aae5VqMSorJGMRrppEja1ne9UVy9qInKrwgGTAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJh1JbqXp71BedrtxWXJFtD6ZiW2Gp9Hkn8WZkXDX9j/NO/lE7fNU48ueSnkD64PkArP/x6w/xOnAoVh29jeXacTc+Jc3C1y2WW8Qwud4T1WOJz3QP8lWN6OarHIqKrVRfLyMjqvOPfM1tjGwvyX+TfdHaqa5+h+P43geNGj+zv7W93HPHPanP6kOZdiInS5lOa2N/bTau27b7pU0C9vbDY8mdTSOlhVfzWRVaIr2+pEla5P8YuHSx+jbrH/irbf+bsAqYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEq6qvPpz2Ez/fLFUR/+snb/ANJVSVdU3n0/5oz/AHyhZH/600bf+kCqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAahtTWNh29h8mFZLV3CmoZaukrVkoZGMl76edkzE5exycK6NqL5c8KvCovmbeANM3BqXC95a5vWrs/oX1NlvkHgzeEqNlhciorJYnKio2RjkRzV4XhU9Sp5GUwDC7XrnCLFgVkqKqe349b4LbSyVT2umfFExGNV6ta1qu4TzVGon9yGk4l5dTGyk/XiWJu/wDeb0n/AEFVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAASrqj89FZKz/fFoY//WrYG/8ASVUlXVB56WuzP98uNmj/APWulK3/AKQKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB4a1tY6jnbbpYY6pYnJA+ZivjbJwvarmorVc1F45RFRVT509YEwxby6ndkJ+vDMRd/75fU/6CqnzM1B1rdQecdYNbqJNN2C059c2WjF8pqpp6ia32+ns9VcZq6rhhTteqSRVqpEjpuO6Nnm/xURPpmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlXU756hqGf75kGNx/+te6Jv/Sbtec7xHH8lsWHXi+QU96yZ87LVRKjnSVPgxrJKqI1F7WtanKudwnKonPKoi+zk+LWLMrT+Q8kofTKJKqkrfC8V8f9tTVEdRA7liovxZYo3cc8L28KioqooZYGoWDbeusnz/ItW2PKIKnKsUjglu9sWKSOWnjmb3RvRXtRsjVRU82K5EVUReF8jIT55ilNnNLraa69uR1ttlvEFF4Ei99JHI2N8niI3w04e5qdqu7vPlE48wM+AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABCsKvfUlsqhvGS2LYetbJbYMoyKyUdDV4JX108cFuu9XQRuknbeIWyPe2lR6qkTE5eqInkXUlXTT8nV3+0DO/5qugD3OdU/wC2TVX4aXH26apbbv1T3DaeQ6z99DVUf5Bx+zX3033u7ivjen1Nyh8Lw/y58Xs/Jvd3dy93jccN7OXdAEqxz9KfYf2f4b/EcjAe5zqn/bJqr8NLj7dHuc6p/wBsmqvw0uPt0qoAlXuc6p/2yaq/DS4+3R7nOqf9smqvw0uPt0qoAlXuc6p/2yaq/DS4+3R7nOqf9smqvw0uPt0qoAlXuc6p/wBsmqvw0uPt0e5zqn/bJqr8NLj7dKqAObLL007cx/cmQ76tWxdTw5lk9rprRca1NbXHh8EKpwqN/Lvk5yMha5fnSCL1cLzv3uc6p/2yaq/DS4+3SqgCVe5zqn/bJqr8NLj7dHuc6p/2yaq/DS4+3SqgCVe5zqn/AGyaq/DS4+3R7nOqf9smqvw0uPt0qoAlXuc6p/2yaq/DS4+3R7nOqf8AbJqr8NLj7dKqAJV7nOqf9smqvw0uPt01S23fqnuG08h1n76Gqo/yDj9mvvpvvd3FfG9PqblD4Xh/lz4vZ+Te7u7l7vG44b2cu6AJVjn6U+w/s/w3+I5GA9znVP8Atk1V+Glx9umJqb/v3Btga6tGa5vr/ILLmeQVNiqYbXh1ba6qDss9xrmSsmkulSz8+gaxWrF5tevCoqIWslW5PlF0T9oFZ/Kt+AqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADkfJNQ0GDdW+o80uOSXjJclyO45EtTcrnMi+j0iUbnQ0VPE1EZDBGjuERE5cvLnK5V5Og7/u7S+KZPHhOU7ewqz5FM6JkdouF/pKete6VUSNEgfIkiq9VTtRE8+fLkxGwNZ37K9vaxz+3VdBHb8LnuklfFNI9JpUqaXwo/CRGK13DvNe5zfL1c+oy9/0jpfK8njzbKdQ4VeMihdE+O73CwUlRWsdEqLGqTvjWRFYqJ2qi+XHlwByBkWCZLTdQO6+oTV1FLU5xrq/WqVaGJURb3Zn2yNay3Lz5cuaniR+riSNv6yr4zneObN6sNfZ9iNclXaL5qqvrKaRPWjXV8HLXJ8zmry1yfMqKhT9Z6xv2GbP2nmt0q7fLQ5xc7fW2+OCR7pYmQUbIXpMjmIjVVzVVO1XJx61RfIm2tek+8at6qr5t7HMgokwG6Waqho7A570ltlwqaiOap8FiM7EgkexZPz+Uc5URvHmB0uAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKumn5Orv8AaBnf81XQqpKumn5Orv8AaBnf81XQCqkqxz9KfYf2f4b/ABHIyqkqxz9KfYf2f4b/ABHIwKqDkvok3ntnYd9zPGNx5Iy8zyVM94xmoShgpe22MrZ6OSnVIWMR6xSQNVXKiuVJW8qvze/kG7doVXWzi+uMdv0NPrqJlXZ7tSJSwvfW3ZlCtWq+K5iyMSKOSnThj0RVcvKLwB1KDmfqt3DtbFMgtmL6VrUjuOP2erzjJIkooqn0m1Ur2NSi/tEXw3Tqsva5qo5PCXhUKLlNpzXcuNY1lmod83TBbbX0Ta5JbdZbdcPTopmNdGrvTIpOztTn83jnnz9QFTByL0t0PUntPG4dhZX1XX6op7flF2tlRaExSyMhq6ehuE1OjXSMpWyM8RkSKqtciorl4N1tOWbb6hcoypmuNht1/g+KXafH4rnQ2umr7nd6+DhKl7FqmyQQwRvXw0RYnvcrXLy1OAOhQRfBMk3Xj92zPX2zo33ptjtbbrYc1prYlJT3GJ7XosE8bVWNtVE5nLkZw1zXNVGt80Mj0pZvlGyunDXWe5rc/wAo32+2CmrbhV+BHD40z28ud2RtaxvP6mtRP7gKuCSdO2dZVnVJn0uVXX051lzq72ahXwI4vBo4HtSKP4jW93air8Z3Ll+dVKy9HOY5rXdqqioi8c8L+sD9A453HZuqDX2bazsFs6w8ilp9g5W+xT9+H2BPQ4vQ6moR0f8ArRVcqLA1vxlXyVfnMzv2s37pDTVsio+om7XrI8izyxWWLIKrHLTHNQ0dZUMgljZAynSB/rVyOexXcrxzxwB1aCEUekOo2nq4J6jrVyqqijka+SB+GY+1srUXlWKraVHIip5coqL5+Smd6lc+ybCNfU1rwK4pSZll92o8bx+o8BkywVVRIiPqPDeisekUSSyqjkVPieaKBWgSfp12Vfdh6nSryypa/LscqqzH8iVIWxc3Gke6OSTw2/FakiI2REROOJE48iU9CO8NqbNteQ2LdGSRXq9sWK+2erZQQ0vfaJ5JYWxq2FjGOdHLTytV3HPxm8+tAOriVY5+lPsP7P8ADf4jkZLabdu0r11yUevLbfootZx265Wx9AlHCr6u7UkEM003jKxZEaz0mOPta9E7mP5RSpY5+lPsP7P8N/iORgVUlW5PlF0T9oFZ/Kt+KqSrcnyi6J+0Cs/lW/AVUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJ/ujKb9ilkxyqx6u9EnuGYY/a53eEyTvpai4QxTx8PRUTuic9vKcOTnlFRURSgEq6hfjWnB4v93sDHP/ZrWO/+UCqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKumn5Orv9oGd/zVdCqkq6afk6u/2gZ3/NV0AqpKsc/Sn2H9n+G/xHIyqkqxz9KfYf2f4b/EcjA5a1xerfqbUutuom4zR01rxjK8msmQ1DvJGWuuuFQncq/qZUxUzv8AOpuWN2Ovs+wenS+X+JYrzldxyjJ7qj/Wyetolm8NV/8ABscyNP7o0OqHa+wJ+MzYU/CLA7Hql75JrStthWikc6TxHOdB29iqr1V6qqebvP1+Z7lfi2M3Wqoa66Y5a6yptbZGUM1RRxyPpWyM7JEic5FViOZ8V3bxynkvkBx9rO3dR21s82Pv/VV41lTWDMLg7Hbc3KrLcKuoktVudJAxY3U9TE1IpJXTv4VF57ufnN66HqzI8Lx7KemvO6ijfkOrLn6PC6kasdPPaqpFnpHwMc5z2xNRz4mo5VVEjRFVV8zouw4/YcVs9Lj2MWSgs9qoY/CpaGgpmU9PAz19rI2IjWp5r5IiHjhxbGafIqnMKfHLXFfqymjoqi6Mo421c1OxyuZC+ZE73MarlVGqvCKqqieYEM6E/kOr/wDjxln8aqzE9Ll/xrUF1zrp9zS90lnyGgyy7X+2xXCZsC3S2V87qmOop1cqJK1qyPjf2+bXM80TlOejLDjmPYtQuteMWG3WijfPNVOp6ClZTxLNK9ZJZFaxETve9znOdxy5zlVeVUx2Z6517sajjt2wsDx3KKSF3dHBebXBWxsX9aNla5EUCfW/e9i2XlWcYJgtEy9WTGLI51wyakq2y0SXCRH/AOsWK1FbJI1iI96tevb3IioikH6Q+jLpazjpj1pl2W6Qxm6Xm7Y7S1VbW1FO5ZJ5XN+M9y93mqnZNoxvHcfs0eO2CwW622mFixR0FHSxw07GL62pGxEaiL+rg/disNjxez0mPYzZqG0Wq3xNgpKGhpmU9PTxp6mRxsRGsanzIiIgEC6I8asOHYhsLFcXtcFttNq2LfaWipIG8RwRNkYjWNT9SIdGGjZLR5hhtL/2ltYYZXy3KtmrLpHXXp9jY6Z/Cun7oKGp8aV6/nK5Gr5IvKmBpsp6o31MTKzSetIoHPakskeyK2R7Gc/GVrVsrUcqJzwiuTn9aesDT+qL5U+nH7SHfwivMJ/hELfZbtpfF7VkkNPNaKzYuMU9fHUqiRPpn1zWyteq+SNViuRf7uTpC545j98qrbX3yw26vqrPU+m26aqpWTPoqjsczxYXORVjf2Pe3ubwvDnJ6lU9bL8IwvYNmdjme4hZcltL5GyuoLxb4qync9q8tcscrXNVU+ZeOUAguP8ATx0CYvfKDI8cxDWNBdLZUR1VHVQXCFskMzHI5r2r4vrRUQ17anvube6qrdbtL3PEKeHTlpSuqp8moamson3S5McxjWNp5oneLHTMVUXu4RJvn58rHH0pdLkMjZYumzVjHsVHNc3DrcitVPUqL4Pkpv8AZsVxfHaq41uP43a7ZUXidKq4zUdHHC+smRiMSSZzERZHoxrWo53K8NRPUgHKWqF2rprqfyLFdx1+K1Ddz2uS+0E2NUVRSULbrQRtinZ2VEsr/FkgWN6/G4Xw/UaLrjKKHSGm9KdQ9wd4VppKO84vfn88IsFTPNNSqqfOqVUDGJ/fP/edzXfFcXyCttlyv+N2u5VdlndVW2orKOOaSimc1WLJC56Ksb1aqtVzeF4VU9R6j9fYDLjMeFS4RYH49C9skdpdbIVomObJ4jXJB29iKj/jovHk7z9YHL+EYnX4huzp+pb2xEvVzx7K71eFT56+s8Con/8AQ+RWp/c1C145+lPsP7P8N/iORlFqMesFXeKLIaux2+e622OWGirpKZjqimjkREkbHIqdzEcjW9yNVEXhOfUTrHP0p9h/Z/hv8RyMCqkq3J8ouiftArP5VvxVSVbk+UXRP2gVn8q34CqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKt//Gi15F/u9gWX/wBl73f/AClVJVvn41XrGL/d7Atv/swVLv8A5QKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEq6afk6u/2gZ3/NV0Kqc1aS6hdBYNi+Q4tmu8Nf4/eqLYGcek266ZNRUlVB35Pcns74pJGvb3Me1ycp5tcip5KgHSpKsc/Sn2H9n+G/xHIx8LHpY+stqr98rd/WJpYOpvpth6ks6vs3UHrVltrMHxOkp6x2WUCQTTw19/dLEyTxe1z2Nnhc5qLy1JY1XjuTkOoASr4WPSx9ZbVX75W7+sPhY9LH1ltVfvlbv6wFVBKvhY9LH1ltVfvlbv6w+Fj0sfWW1V++Vu/rAVUEq+Fj0sfWW1V++Vu/rD4WPSx9ZbVX75W7+sBVQSr4WPSx9ZbVX75W7+sPhY9LH1ltVfvlbv6wFVBKvhY9LH1ltVfvlbv6w+Fj0sfWW1V++Vu/rAVUEq+Fj0sfWW1V++Vu/rD4WPSx9ZbVX75W7+sBVQSr4WPSx9ZbVX75W7+sPhY9LH1ltVfvlbv6wFVBKvhY9LH1ltVfvlbv6w+Fj0sfWW1V++Vu/rAVUlWOfpT7D+z/AA3+I5GPhY9LH1ltVfvlbv6xNLB1N9NsPUlnV9m6g9asttZg+J0lPWOyygSCaeGvv7pYmSeL2uexs8LnNReWpLGq8dych1ASrcnyi6J+0Cs/lW/D4WPSx9ZbVX75W7+saVl+79L7K21o6xa529hWVXKDOK2rlo7Jf6Sunjgbi98a6V0cMjnIxHPY1XKnHL2p86AdFAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKt5/GvmpYv93sCl/9m3V7v/lKqSrdvxss01F/u9gJ/wCzZLq7/wCUCqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAejfb3asZslwyS/V0dFbLVSy11bUyc9kMETFfI93HzNa1VX/ACHvH8c1HIrXIioqcKi/OB8s+krqy2xW9aOU5hszEchtGBbmqqagt0ldQysgtsjWuSzIr1Tsb4sKOi5bwkj5Ek9TVPqaSjA2MfvzbDJGNcno2OP4VOfNIJ+F/wAytRf8xVwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEq3P8AGzzR8X+72BP/AOzjd7d/8pVT5udavWFvPQvUli+EV+sbRlFLQ3tuT4LUUvj07qplTaq21+iTsTxPEkZPWSOVWK1XIxvxWpK3sD6RgwGA+7VcJsTtkOti5U6ggdeEtkTo6RtWrEWVsSOe93Y1yqiKrl5458ueEz4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAASrBPLqC2sn67fjbv8A+VVp/wBBVTVLFgv5F2HlWe/lTxvdNSWym9E8Dt9H9ESdO7v7l7+/x/V2px2/Pz5bWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAml86h9bWDJrxiE1PmtxuWP1EVJcksmB327QU08lPFUtidUUdHLCr/BqIXq1HqqJI3ngpZKtN/KLvb7QKP8AlWwgPhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cVUASr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nFVAEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZxVQBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cVUASr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nFVAEq+Etrr6ObV/CfKvZxo+dZb057Jy/C86zLXW0Lhedf10txsU79UZUno80jEa5VT8nfGRFbG9EX1PiY75jo0ASr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nFVAEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZxVQBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cVUASr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nFVAEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZxVQBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cVUAapr3Z2IbQo7pW4lNdf9hLh+S7jT3SyVtqqqWq8CGoSN9PWwxSpzDUwPReztVsicKptZKtN/KLvb7QKP+VbCVUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAc5f4QK0JkHTBf7CtXLSpcrlZ6NZ4V4ki8S4QM72/3pzyn96HRpEusTH79k+kKq041ZLhdq517ssqU1DTPnlVjLjA97uxiKvDWtc5V44REVV8kA1DXexckq9S7K0btKsbJsHXFirKOsnc7zu9tdTSeh3NqcJykrE4fwnlI16fqKT0sfo26x/4q23/AJuwn/WXqvNrljT9y6Xtj63P8Ztdbbn22Jqqt9tFTGraiic1qKr3pyksSJ597OE/OKX022q6WLp/13Zr3baq33Chxq3wVVJVQuimglbA1HMexyI5rkVOFRURUApAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEq038ou9vtAo/5VsJVSS6lqGUmd78q5EcrIc8pZHI31qiYpYVXj/0AVoHN2Mda0OZ2OnynFumDeVzsdWj3QXKlsttlilY1ytV7Wtr1kcnLV8karl48k5KXZ9/6zv8Ap2s3parvNLi9vo6qrqnPp3Q1EDqfuSaB8Una5kzXscxWO4+MnH94FGBMMW3/AI5mulKnd2L4rk1fR0lPVyz2JlNAl3jlpnuZNTLE6VI/Ga5jk7fF4XjyVeUNqwfYmJbDwG1bLxm6RzWC70DbjBUvVG9kSt7l7/Phqt4VHJz5K1U+YDZQc75b1xarw3U1n3VdcXzN+MZBfXWS2TQUFO6WqaivRK5rFnT/AFq5I3uR68PVqc9nCl1uOR2e143U5bWVjG2ulon3GSfnySBrFerv/VTkDJg53oOuHWF16fafqNtmIZtU2KsvjMep7WyhpkuktW+qSmaiROqEjRFkVPXIi8L5oi+R78HVNkc08cL+kTfMLZHo1ZJLPau1iKvHcvFwVeE9a8Iq/wBwF5BLbn1H63sm+bT06XmauocqvtnW8W580bG0lQ1HORYGv7+7xuGOd2q3hUavDlXyNjy7Z1hwzMMNwq6Ulwlrs3q6mit8lPGx0UT4IHTPWZXPRWorWqidqOXn1oieYG3g5yy/rObg9xpbffumHd0aXG6JZ7dO202vw62pcruxsXNejl70Yqp3Ii8etE9RVtW7LuGyqGurbhqrN8HfRStibT5TSU0EtSjk574vR55mq1PUvKovPzfOBu4BItDdTmvuoevzG14Zbr7QVWE3aS0V8V2p4olmcx72eND4cj++JXxSNRy9q8tVFagFdBK8p6jsCxPeuK9PVbSXipybLaOauppaaCJ1JSxxo9USd7pEe1z0jf2o1jue1eeDUqzrBoX5nlmF4l0/bczCXDLq6y3OusVtt0lIlUkbJFax0tbG9fiyMXzYnrA6BBIKDqCvVdh91yt/Tdt+kntlRBAyy1Fst6XCtSTnmSBra1Y1Yzj4yukaqfMimlW7rXW7ZBdsUt3SrvWou9jbA+40jLRafEpkmarold/sj/jI1VT/ACAdKA0ezbbsd42DBrN1kvVBe5cbhyd7KyGNjIaeSVYvBerZFVJmuRe5qIrU+Zyns5ds6w4ZmGG4VdKS4S12b1dTRW+SnjY6KJ8EDpnrMrnorUVrVRO1HLz60RPMDbwTHPuoDFcKylMAtOO5NmuXJTNrZbFjFA2pqKancqo2WoklfHBTtcqL2+LKxXcL2ovB7Wt954hsi9XDEWW6+Y1lVpibUVuO5DReiV8cDl4bOxEc6OaJVTjxInvZz5KqL5AUQHPNP1kUl3u19t+JdOm5Mmpceu9VZau52m026WldU07+2XsV1c2RyIv/AAEVU+b5in6o3DhO5bHVXnD6isjlttU6gultuNI+kr7bVNRFdBUwSIjo3oiovn5Ki8oqp5gYHTfyi72+0Cj/AJVsJVSVab+UXe32gUf8q2EqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAapaM6/Kuy8l11+S/C9ztptN09M8fu8f02SsZ2eH2p29noXPPcvd4nqTt89rJVinl1N7JT9eH4k7/AN6vaf8AQVUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABHdbf/AFs6hf8AjtB/KdiLESPVFN6ZnG/qPv7PHzumj7uOeO7FLEnPH+cDnzpEz3qit/Trh9pwXp3xW8WeOnnjobxX5/6GsrVqJP7SSmShe5iIqry1HqqonkvmYbalLRaD1xhGldqZGtRcNnZ1U5bmktht1ZWRQ0TKhKupihggifO+FZEp4OezlUcqu45U660Rqv3lNUY/rD8u/ln8hQyRenei+j+N3Svfz4fe/t47+Pzl9R4LfqJ0O9rtu67ZItfJUWGnx+0W30RGNtkDZXSzvSTvVZHSvVnPxWoiRtTz9YEF6Z926/uPUzsfXeEXG4y49mcMWY2dtws9dbFbXNa2G4wxxVkMTlTygl5aipy93qMFlGBZVi2467o/xKvZRa+266fL1kjnWOazUEcjfyvQwNRvk2okfF2Lz8RJ5v1IdI7W00uxcu1/ndpyX8g3vAby64Q1CUfpCVdJLE6Kpo3p3sVGyNVPjcr2uai9q+o/V905+Wt+4pvL3R+D7mMfuVi/Jfofd6R6XJC/xfG707O3weO3sXnu9aceYTLqqw/Hp00dgbLZBDZJM5pbUlJGxGxsploKqPsanzIjfJDV7Pfrpk3TzjfTzcaqSTIp8nXW12WTzkfRUEjn1MzuPUklBCi8/rmb+vg6A2hqv3ybxgl2/L35O9xWSw5D4fovjel+HFLH4PPe3w+fF57uHerjjz8sBY+nqhsnUPe97x5NNJBd6BsUdh9FRsNNcHMjinrkl7uXPkhghjVvanCMVeV7uAONskp66HorutLjq0dPWR7+njofSI3Op45UylUj72tVrlYi9vKIqLxzwqes61s9u63mXehfkGYaOltbamJa2Ojxu7x1D6fuTxEic+uc1r1bz2q5qoi8KqKnka1kHR1cLno65aitO0Y7fXVeeTZ1TXiSxeOynlddFr2QOp/SG+IjXKjFd4jeeOe1OeDM+9b1j/W3xL8LG+0gJxuLT9LufqjzDHoK51rv9Bru03THbvFykttucNxnfBM1U8+O5Ea5PU5iuReeT1aDb1TtvYvT5NkdAy15ljmUXyyZXaUdytFc4bZIknHqVY3pxIx3Hmx6HRlp1RNb91V+5KjJEqZbhi9JjklClH2IjoZ3zLP4nev5yv47O3y4/OX1Gm5X0p47f+prE+pm1ZDNabnYqeaC521lN4kF2V0LoopXL3tSOVjXuTv7XK5vDfLjkDw9Vf8A3fpr7TbT/wDCnL0aFtXVvvm1GGz/AJd/JvuRyekyPj0XxvSvAbI3wfz29nPifn/G44/NXkyGc7e1PrCWjg2Vs/EsSkuDXvpGXy901A6oaxUR6xpM9veje5vPHPHcnPrA204H6UO3X+T4jnrVSK35zlObYXc3I1eFqo7zWVdA9y+pPzKqNOfnkaif39V27qg6aLxcKW02nqI1lW11bMympqamy23ySzyvcjWRsY2VVc5zlREREVVVURDRZekh/wAH266Uotkz0VzqcjrsnteSQWxEltlZPcZK2NzYVlXv8PxFjX46d6cqqIi9oErp2Lk3UPrDcFQiuXMc8v0Vuc5PNLXQ2ySlpu3/AIL1jmlT/wAtyfnTNJ1I1G4eoZ2l8g1rQWtNjypVMyiz19XUOqPQKXzjdTVMTUZ29vkrVXlF8+FRE6FqNAW1lw1HPaL76FRan8ZIKZaTvWuY+iWmRFf3p4apz3qvDuV8vL1mh0nTXvbEM8z7LNVdSFkx63Z7f3ZDUW6uwJLi+nmdDHF2pMtdH3J2xN/xE+cCy6yg25BZJ2bkueIV149IVYZMZoaqkpvA7U4RzKiaV3fz3eaO4448iaan/Sr3l/8AdMa/5rMb3qzFdx42twXbG3LTm3j+H6ElBizbMlNxz393FTN4ndyn+544+fk/WJ6t9y+1s52d+XfSfdpFbIvQfRez0T0SJ7OfE718Tv7+fzW8cfOBDtkU+56jrQVulrvhdBcU1zCtW/KLdV1cLofyjJwkbaaeJzXd3HmqqnHzGLyik6iafqP0Q7dd+1zX0S3m7pRNxa0V1HK2X8mydyyuqamVHN7fUjURefnOhY9W+HvKfc/5d58bGGY5+TfRfV21Lp/G8Xv/AOF29nZ83Pd8x/M91X7t9ga9zr8vehe4Ovra70X0XxPTfSKV0Hb396eH293dz2u5444T1gTjpGa6qr9yXq6xt/L9Vsm6QXBzv9s8KFsTKVi/qakKM7U9XC8/Oev1Cd9v6kene7WKFv5Zq75drZVvY3+0daXW+R87XL6+xJGQr5+Xdx86m3Zbom+JnNw2dpvZM2CZFe44o73FNa2XO1XVYm9sUs9I58bkma34qSRSxqreEd3cJx7GAaLnsecybY2RnNZnGbLROttJWy0cdFRWukc5HPio6Viu8LvVEV73vkkd2oiu4TgDTui3/wCrmzftOyL/AOOh4sFRtJ127RpLS5W0lVguP1lzjY1Ej9O9IqmRvVUX89YWoi8onk1vrPVxzpr6g8BuWTN1v1OWSzWTJMhrsgWiqdfMrJ6eSqk73sSd1c1HceSIqx8eXPb8xUNN6WoNSwXq41eTXTKspymrbX37ILmkbZ62ZrEYxrY42tZDCxqcMjYnDUVfWqqoHo6b+UXe32gUf8q2EqpKtN/KLvb7QKP+VbCVUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeKqqqWhpZq6uqYqemp43SzTSvRjI2NTlznOXyRERFVVXyRDyn8c1r2qx7Uc1ycKipyioBCMd2Rrum33m+Yz57jsdgu2GYVHQXV10gSjq3zV9+ZE2Kbu7JFe5OGo1V5XyTkvB829J/4OGrwHr5vWc11nX3rsWVuS4r38LE+sncq09I1PWnokiSvTz5TwqdV/wBsPpIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlWm/lF3t9oFH/ACrYSqkq038ou9vtAo/5VsIFVAAAAAAAAAAAAADxyQQTKizQsfx6u5qLweQAeFKOkaqObSwoqeaKjEPMAAAAAAAAAAAAAAASrTfyi72+0Cj/AJVsJVSVab+UXe32gUf8q2EqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAE/6hcpvuDaC2XmuLV3oV6x/D7zdLdU+EyTwKqCilkik7Ho5ju17Grw5FavHCoqeRiveb2L9bHav3bivsYdWP6LG5Ps/yH+HTlVAlXvN7F+tjtX7txX2MPeb2L9bHav3bivsYqoAlXvN7F+tjtX7txX2MPeb2L9bHav3bivsYqoAlXvN7F+tjtX7txX2MPeb2L9bHav3bivsYqoAlXvN7F+tjtX7txX2MPeb2L9bHav3bivsYqoAlXvN7F+tjtX7txX2MPeb2L9bHav3bivsYqoAlXvN7F+tjtX7txX2MPeb2L9bHav3bivsYqoAlXvN7F+tjtX7txX2MaVu/ENta10vn2xrF1U7KnuWK4vdb3RxVdrxd0Ek9NSSTRtka20NcrFcxEVEc1eOeFT1nRRKurH9Fjcn2f5D/DpwKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKrhou7e6/J8txLe2wMS91twhulxt1rp7HNS+lR0VNRJIxa23Tyt5ho4OU8RW9yKqInJVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBpWsdYx61jyOabNMgyq5ZVeEvdyuV7bRNnknbRUtG1rW0dPTwtY2GihRESPnnuVVXk3UAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACVdWP6LG5Ps/yH+HTlVJV1Y/osbk+z/If4dOVUAAAAPxLGk0T4le9ne1W9zF4cnKetF+ZTirdWiZcO2lpzG7JvreUdDnOUVlsu7HbIuqq6BltqahqR/2v9mviRM9XzJwB2wDjrqexWk0hq7Ccfi3nsa02S9bDtkF5v90zusbWU9DIyRJWenvkR8UPDUXhXdqL5nt4djnSpc8qtNFinXVlt+vD6yJaK2RbzmrnVkrXI5sXo6VLvGReOFZwvcnKKgHXQIT1UXjJbvR4lpHBckuthyDY12WlddLVVOp6u326mjWeqqGSNVHMXhrI0c3z5lPJpjZd7zrpsq7pfKuePLcaoblYb5Jy5krLpQtfDLJz+ciuViSIv6noqL84FyByB/g4M7zm76tXDdnZneMmvjLba8qo7jd66Srq57dc6dJGo6SRVe5I546iNOVXhGoh+NT55nuYdb16u1Rml4lwm749dIbJY1q5UoWNt1bFSuqmw93hq+SVJ/jo3lW9vnwB2EAABKurH9Fjcn2f5D/Dpyqkq6sf0WNyfZ/kP8OnAqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJV1Y/osbk+z/If4dOVUlXVj+ixuT7P8h/h05VQAAAHPHUn8uPTZ/x4uH8FrTocAcv9et5xbHsV1hfM3qqKmsFDsizz3GatajoGU7UlV6yIqKit49fkeez9U3QAl1o/yFsPWbLi6djaRaajjbL4qqiM7FbHyjuVTjg6ZAHH7sQz/qJ6mcz2NgG4bjglv1rCzB7XW0NloLgtVUPRtRcFb6XHI1ERy08aq1EXmNUVfmMVilkyzp33PsHWmcZ/VZbSbexetyigu9Xb4KJ8l4pIViq4vDpmMharoPBfw1qKvY5V5XzO1QB8+MeyK86Z6d+nrdeNUVRU1N519BgU0MEau76urpmSWx7+PPhtUzs5+ZJ1/wAqWXDsMpdd9Umt8HpHq9ll1LWUjpFXlZZG11P3yKvzq5/c5V/WqnUQAAAASrqx/RY3J9n+Q/w6cqpKurH9Fjcn2f5D/DpwKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACVdWP6LG5Ps/wAh/h05VSVdWP6LG5Ps/wAh/h05Kv8AVR+hP9uf/Jm8f9UA6qByr/qo/Qn+3P8A5M3j/qg/1UfoT/bn/wAmbx/1QDqoHKv+qj9Cf7c/+TN4/wCqD/VR+hP9uf8AyZvH/VAOqgcq/wCqj9Cf7c/+TN4/6oP9VH6E/wBuf/Jm8f8AVAOqgcq/6qP0J/tz/wCTN4/6oP8AVR+hP9uf/Jm8f9UA6qByr/qo/Qn+3P8A5M3j/qg/1UfoT/bn/wAmbx/1QDqoHKv+qj9Cf7c/+TN4/wCqD/VR+hP9uf8AyZvH/VAOqiVdWP6LG5Ps/wAh/h05Kv8AVR+hP9uf/Jm8f9UJ/wBQv+Ee6Mc50FsvCsW3J6besgw+82u3U3udusfj1U9FLHFH3vpmsb3Pe1OXKjU55VUTzA7qAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf/Z"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8961120" y="4114800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3090" name="AutoShape 18" descr="data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/4gHYSUNDX1BST0ZJTEUAAQEAAAHIAAAAAAQwAABtbnRyUkdCIFhZWiAH4AABAAEAAAAAAABhY3NwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAQAA9tYAAQAAAADTLQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlkZXNjAAAA8AAAACRyWFlaAAABFAAAABRnWFlaAAABKAAAABRiWFlaAAABPAAAABR3dHB0AAABUAAAABRyVFJDAAABZAAAAChnVFJDAAABZAAAAChiVFJDAAABZAAAAChjcHJ0AAABjAAAADxtbHVjAAAAAAAAAAEAAAAMZW5VUwAAAAgAAAAcAHMAUgBHAEJYWVogAAAAAAAAb6IAADj1AAADkFhZWiAAAAAAAABimQAAt4UAABjaWFlaIAAAAAAAACSgAAAPhAAAts9YWVogAAAAAAAA9tYAAQAAAADTLXBhcmEAAAAAAAQAAAACZmYAAPKnAAANWQAAE9AAAApbAAAAAAAAAABtbHVjAAAAAAAAAAEAAAAMZW5VUwAAACAAAAAcAEcAbwBvAGcAbABlACAASQBuAGMALgAgADIAMAAxADb/2wBDAAMCAgICAgMCAgIDAwMDBAYEBAQEBAgGBgUGCQgKCgkICQkKDA8MCgsOCwkJDRENDg8QEBEQCgwSExIQEw8QEBD/2wBDAQMDAwQDBAgEBAgQCwkLEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBD/wAARCAOPBnMDASIAAhEBAxEB/8QAHQABAQADAAMBAQAAAAAAAAAAAAcFBggDBAkCAf/EAGkQAAEDBAECAgMLCQIFDA4GCwABAgMEBQYHEQgSEyEUMdUWFxgiN0FWWHeVlxUyOFFXlrW20yNhCUJxgdIZJCUzUlNidqa0wdQmJzRUY3JzhZGSoqSzwjU2VXR1obHEQ0Rko7LDgoPx/8QAFAEBAAAAAAAAAAAAAAAAAAAAAP/EABQRAQAAAAAAAAAAAAAAAAAAAAD/2gAMAwEAAhEDEQA/APqmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAOdcQ0hpfZW2t433Y2ocKyq5QZxRUkVZe7BSV08cDcXsbmxNkmjc5GI573I1F45e5fnU3X4J3Sx9WnVX7m27+iNN/KLvb7QKP8AlWwlVAlXwTulj6tOqv3Nt39EfBO6WPq06q/c23f0SqgCVfBO6WPq06q/c23f0R8E7pY+rTqr9zbd/RKqAJV8E7pY+rTqr9zbd/RHwTulj6tOqv3Nt39EqoAlXwTulj6tOqv3Nt39EfBO6WPq06q/c23f0SqgCVfBO6WPq06q/c23f0R8E7pY+rTqr9zbd/RKqAJV8E7pY+rTqr9zbd/RHwTulj6tOqv3Nt39EqoAlXwTulj6tOqv3Nt39EfBO6WPq06q/c23f0SqgCVfBO6WPq06q/c23f0R8E7pY+rTqr9zbd/RKqAJV8E7pY+rTqr9zbd/RHSd+ixpv7P8e/h0BVSVdJ36LGm/s/x7+HQAVUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAASrTfyi72+0Cj/lWwlVJVpv5Rd7faBR/yrYSqgTW69TPTfYrpU2O+dQWtbdcqKZ1PU0dXldBDPBK1eHMfG6VHNci+SoqcobbPneD02JyZ5U5lYosZih9JkvT7jC2gZDzx4i1Cu8NG8+Xd3cHEui9ydNOD1WzbFtazSVV898W/S9zcDuN35idP8VPHp6SVnzL8Xv5T50QwuaY3PbukXqpyuw4VccPwPKZXV+LWWut77e9saQwsqKltI9Gup2TSorkYrW88K7hO4DsOg6oeme61sNttfURrKsq6h6RwwU+XW+SSRy+prWtlVVX+5CmLJGkfjLI1I0b3d3Plx+vn9RyVf+ovpWu+CU2v6/Br9kN3yC1ehUOPv1pdmTXWbwURY4lqKNka+fmr1ejWp8ZXIicmv+5HNabAOm3pT2hVVDIsibUvy2lSqdI6po6CmdMy2yTNdy5iudCyReVR7Y1avKOA6px3cGpcvvlRjGJbRxG93mkVUnt1uvdNU1MSp6++KN6vbx/ehkcmzvB8LmtlPmOZWOxS3qqbQ21lzuMNK6tqV44hhSRyLJIvKcNbyvn6ifbe6fdYZVrCusFvxG02Kqs1FJU4/cbVRx0lTZquJiuhmppI2o6JWuROUb5KnKKiovBylth1z6sdOdMdyvCJFf8AKqO518UyInMV1htb3xTt/UqTxNcn/wCj5gPoLWVlJb6SevuFVDTUtNG6aaeZ6MjijanLnOcvk1ERFVVXyREPRxvKcZzGyU2TYhkVrvlnrGq+muFtrI6mmmaiqiqyWNVa5EVFTyX1opAM52HLuLpswy00DpILntx1FYKmNrlbJTte1XXNPJeWuZDBVN/uXgh+CTJL099PvT9RST0OP7CzG7Wi7JTTOje+10clbUPpUc1e5Gy+EyN3C89quTnzA7Usu4dR5Jkc2H47tPELpfqdVbNaqK+Us9ZGqetHQser09S+tPmGcbg1JrGekpdk7SxHE5q9jpKWO+XumoHTtaqI50aTParkRVRFVOeOUNbz7pz1Blet58DiwSy2mmo6Z35IntlFHSz2qdjeYp6WSNEdDIxyIqOaqL5efPKmvdOFxo94dPWF5rsyw2m+378nSUdXV1tBHKss0Ej4ZJG96KrUe6Pv4/WoG22LqT6dcovFJj2M781zd7rXyJDSUNDlVDUVFRIvqZHGyVXPcv6kRVN2suR49kkdVNjt+t11joqqShqX0VUydIKmNeJIXqxV7ZGr5Oavmnzoc/8ARHhGFu0FjV6diFlW4x19zeyrW3xeM1zbhOjVR/b3IqIiceflwSey55f9ddLu9L/ita+ivE+zL1a6KsYiK6llqq6KnSZOfnYkiuT+9EA66um4dSWPJo8Lve0sQt+QzKiR2mqvdNFWvVfUiQOej155T5vnM5kWT41iFplv+WZDbLLbIVY2WtuNXHTQMVzka1HSSKjUVXKiJyvmqohomJ9OOlsa14zXTNc2GutVRToy4enUMdRLcZXJ/aTVEkiK+WVzlVyvcqu5X1nIGwEfcOmPc3T3fLhX3Oz4FsO2YxQVFVUOkn/JVRU0c0UCyL8ZViZOsaOXleGt814A+g1RXUVJRS3KrrIIaSGJ08lRJIjY2RonKvc5fJGoicqq+XB47VdbXfbbS3myXKluFvromz0tXSzNlhnicnLXse1Va5qovKKiqinLmAZRfcHwnZPSxsW4y1V8wrGa6pxu5To7uvWOugkbTy9y8980PlDL588ta7/GK30sfo26x/4q23/m7AKmSrpO/RY039n+Pfw6AqpKuk79FjTf2f49/DoAKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJVpv5Rd7faBR/wAq2EqpKtN/KLvb7QKP+VbCVUCM9MOvsv15Zc5pMxtH5PlvOd3q80TfSIpfFo55UdFJzG5yN7k/xXcOT50Q8/V5gWWbQ6adha/wW1flO/3yzvpaCk8eKHxpVc1Ub3yuaxvki+bnIhXwBMNraWtm49Mu1xfpH0Fe2jgkt1whVPHtdyhaiw1MTk9T45EReU9acp6lJ47XW9tl6uwPLMst9vxjc2t7i+ppn1VRHPbrs5rHQTd7qd71ZBVQrz5p3xuVFVnxeF6SAHPeWX/qg2ljNbry1aXi13U3eF1DcMmumR0VdTUcD07ZZKKGmc6aeTtVyMSZkCIqoq+rg8150XX41k3T7Zte2RZMX1nPWQVkqzxMWmpltzoInq1zkc9XPVOUYiqiryqInmX4Ac26p0ln2Lb2yOqvdrp4tf4/Lcbjhcjatj3SVV2eyWsasSL3R+C5kjWqqJyk7uPJDFYj03Z7L094TZZvRMb2NgGQ1eR2OSrcypp2TuqqhUimWFzk8KaCZWOVqq5qP545Tg6nAEAv+YdVeb47V4RZdF0eE3m4QrRz5NcslpK22UbXp2vnpooFWpqHInKsZLFAnPby5E5Kjq7W9m1JrSw6zxx8stDj9vZRRSzLzJM5E+NI9f8AdOcrnL/eptwAk3Szg2U640nZsRzO1/k67UlVcJJqfx45u1stbNIxe6Nzmryx7V8l8ueF4XyND17063m96d2xq3ZVDLZmZpmF7uVBPDPFNJHBNM2SlqmdjnIjkc1r0a7hydvCoh0qAILac46rMas0WH3jQtBlF+pIUposmocmpKSz1itTtbUTxSr6XAqpw50bIZkReURypwppuU9NGe2/p3vmMUklPlOwcvy2gyrIamndHSwzVPp1PJKkXiuaiRRQxIxiOXuVsaeXK8HVgAgnV9o7KNrYH7otUzQ0eysYhqXWCoe5rGVUc8Sx1NDKrlRqxzRqqfGXtR6Md5cG+6Cxe+4TpHBcQyeh9Cu9mx+hoa6n8VknhTxwta9vcxVa7hUVOWqqfqU34ACVdJ36LGm/s/x7+HQFVJV0nfosab+z/Hv4dABVQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKtN/KLvb7QKP+VbCVUilNYN+4NsDYt3wrCNf5BZczyCmvtNNdMxrbXVQdlnt1C+J8MdrqWfn0Dno5JfNr05RFRTLe6Pqn/Y3qr8S7j7CAqoJV7o+qf9jeqvxLuPsIe6Pqn/Y3qr8S7j7CAqoJV7o+qf8AY3qr8S7j7CHuj6p/2N6q/Eu4+wgKqCVe6Pqn/Y3qr8S7j7CHuj6p/wBjeqvxLuPsICqglXuj6p/2N6q/Eu4+wjUtsb23ppXXd82hn+rNV0VisFN6RUvbsm4ukeqqjWRRt/ISd0j3uaxqcpy5yeaJ5gdBAjGNbF6j8vx21ZZj2qNT1lqvVFBcaGoZsu49s1PNGkkb0/2B9Stci/5zJe6Pqn/Y3qr8S7j7CAqoJV7o+qf9jeqvxLuPsIe6Pqn/AGN6q/Eu4+wgKqCVe6Pqn/Y3qr8S7j7CHuj6p/2N6q/Eu4+wgKqCVe6Pqn/Y3qr8S7j7CHuj6p/2N6q/Eu4+wgKqSrpO/RY039n+Pfw6Ae6Pqn/Y3qr8S7j7CNg0hhV11rpfAdc32opJ7liuL2qyVktI9zoJJ6akjhkdG5zWuViuYqoqtavHHKJ6gN1AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADjP/AAlGidh7w1vE2lzyhsODYrTS3euoWQSS1l1ufckdNGqctY2FqPd59yr3PX4q8NVOzCU9T/x9N19H/wDaF4sNv4/X6Rd6OHj/AD+JwBhuj7UWy9C6fi0/sbIrbf48Zr56awXSkWRH1Nrd2yR+NG9OY3te+VnajnIjWtRF4RC3gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACU9R/9thuN27/vzP8AD28frSK+0U6p/wCiFSrEp31/bVesbd/35sC2+X6/Bgqaj/8Asc/5gKsAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKdxf642NpCgT1Lm9XVPT9bI8du/H/tujKsSnY3+uN56ho/X4El+uHH/iUKQ8/+8/8A5gVYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYDP80teucIvue3unqp7fj1vnuVVHSsa6Z8UTFe5GI5zWq7hPJFcif3oYHU2xNbb7wvG90YRHT19JW0sq2+rqKdnpdEkitSeBV81id3Rta9qO4VWJ60RFMT1T/o27O/4q3L/m7yH65anS5lWF3uJEp9Xbet9sguDe5UhseTOpY2xTIn5rIatERjvUiStav+MoHSmq9nWHb2Hx5rjVJcKahlq6uiSOujYyXvp53wvVUY9ycK6Nyp588KnKIvkbeQPof+QCj/APx6/fxOoL4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABq21MH98zW2T69/Kn5N90dqqbZ6Z4HjeB40as7+zub3cc88dyc/rQxt+1DjeXacdpjLebha5bLFZ5pmt8N6rHE1jZ2eaqx6Oaj2qiqrVRPPyN7JpiF2utfvrY9vmudXJbbZZschpqR0zlggmctfJK9jFXta97Xwo5yJy5I2IvPanAePpt0ovT1p+zaodlcuSLaH1L1uc1L6O+fxZny8uZ3v8ANO/hV7l5VOfLngp4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlOr/8AXG49zVnr8G82e38/+JZ6Wbj/AN5//MqxKdKf22Y7ouPr9Lz9qIv90NitMHH/AKYV/wDzAqwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEq6ff7ajz+4/wDfmwL95/r8GdKf/wDscf5iqkq6af7XXNzr19ddm+ZVSL+tjsiuHZ/7HYBVQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGqbO2FR6vxCTLa2w3W9/7IW2109utfgelVVVXVsFFTxsWoliiTmapj5V8jWo3lefI1X35Ni/VO2r95Yr7ZAqoJV78mxfqnbV+8sV9sj35Ni/VO2r95Yr7ZAqoIpifUblGc4rZs1xbpc2rW2XILfT3S3VPpuMR+PSzxtkik7H3hr29zHtXhyI5OeFRF8jLe/JsX6p21fvLFfbIFVBKvfk2L9U7av3livtke/JsX6p21fvLFfbIFVBKvfk2L9U7av3livtke/JsX6p21fvLFfbIFVBKvfk2L9U7av3livtke/JsX6p21fvLFfbIFVBKvfk2L9U7av3livtke/JsX6p21fvLFfbIFVBKvfk2L9U7av3livtke/JsX6p21fvLFfbIHu773vifTphMGxc7tt3nx5LnTW64Vdup2zfk1k3c1tTMxXI5YkkRjF7Ec7mRvDVJD0N9R+tNr4w7XWBT3S612Pw1V3vVeygfHQ0stZXzyx06yv4V0zke56IjVThj/AI3LVQ2XbF8ybcGtcl1hk/SXtVbbkttmt8zvT8Uc6JXt+JK1FvPHcx/a9v8AwmoTjo3wbLulHS9Drqn6V9m196qJn3C+3KGvxdG1dY/y+L3Xnu8NjEaxqLx+aruEVygdkAlXvybF+qdtX7yxX2yPfk2L9U7av3livtkCqglXvybF+qdtX7yxX2yPfk2L9U7av3livtkCqglXvybF+qdtX7yxX2yPfk2L9U7av3livtkCqglXvybF+qdtX7yxX2yPfk2L9U7av3livtkCqglXvybF+qdtX7yxX2yPfk2L9U7av3livtkCqglXvybF+qdtX7yxX2yPfk2L9U7av3livtkCqgimJ9RuUZzitmzXFulzatbZcgt9PdLdU+m4xH49LPG2SKTsfeGvb3Me1eHIjk54VEXyMt78mxfqnbV+8sV9sgVUEq9+TYv1Ttq/eWK+2TYNY7Oj2VHkcM2F5BityxW8JZLlbb26idPHO6ipaxrmuo6iohcx0NbCqKknPPcionAG6gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABNNj7Hz6wZ/jGudc4Lj+QXLILPd73LLe8jmtMFNBQTW+FzWuhoqp0j3uuLFRFa1ESN3mvKIUslWR/pT68+z/Mv4jjgD3R9U/7G9VfiXcfYQ90fVP8Asb1V+Jdx9hFVAEq90fVP+xvVX4l3H2EPdH1T/sb1V+Jdx9hFVAEq90fVP+xvVX4l3H2EPdH1T/sb1V+Jdx9hFVAEq90fVP8Asb1V+Jdx9hD3R9U/7G9VfiXcfYRVQBKvdH1T/sb1V+Jdx9hD3R9U/wCxvVX4l3H2EVUASr3R9U/7G9VfiXcfYQ90fVP+xvVX4l3H2EVUASr3R9U/7G9VfiXcfYQ90fVP+xvVX4l3H2EVUASrF9l7T99O16z2ZrnFLJ+W8ful9oq2xZZU3X/uGpoIZIpY5rdS9nd+UWOa5rnf7W5FROUUqpKsj/Sn159n+ZfxHHCqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAI+/aG6L/AJvm2Na51ZhVxtuF3insktde82q7dPUzyWyir3ObBDa6lrWI2uYxFWVVVWOXhPIsBKtN/KLvb7QKP+VbCA90fVP+xvVX4l3H2EPdH1T/ALG9VfiXcfYRVQBKvdH1T/sb1V+Jdx9hD3R9U/7G9VfiXcfYRVQBKvdH1T/sb1V+Jdx9hD3R9U/7G9VfiXcfYRVQBKvdH1T/ALG9VfiXcfYQ90fVP+xvVX4l3H2EVUASr3R9U/7G9VfiXcfYQ90fVP8Asb1V+Jdx9hFVAEq90fVP+xvVX4l3H2EPdH1T/sb1V+Jdx9hFVAEq90fVP+xvVX4l3H2EPdH1T/sb1V+Jdx9hFVAHzq33/hY8q6dtsX3Tma9Nlqrb1j/ovpM9rzuSSlf49NFUM7HSWyN68Mmai8sT4yLxynCqOFv8KP8Ap2bN/wDMv8HogB9/gAAAAAAAAAAAAAAAAAAAAAAASrqW+Tq0faBgn81WsqpKupb5OrR9oGCfzVayqgAABKuk79FjTf2f49/DoCqkq6Tv0WNN/Z/j38OgKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKuk79FjTf2f49/DoCqkq6Tv0WNN/Z/j38OgKqAJVpv5Rd7faBR/yrYSqkq038ou9vtAo/5VsIFVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACVZH+lPrz7P8AMv4jjhVSVZH+lPrz7P8AMv4jjgFVAAAHOUmx+o7ON6bE1trS962stnwZtr7JL7jtfX1NQ6qp1lVVfDXQNRGqionxPUpmMG21tax7tp9E7tpMTrK+92Oov9ivWMw1NNBUR08rI6iGamqJJXRPb4sbkckrkcir5IqAXUHJmptndaG77LecvxC86VtFpo8ku9kpaa5Y9dpqnso6uSBHPfHXNaquRiKvCJ6/UhuedbL39pbX1lzXZjsDvDYspo6PI5bDbK2CKns1Q9sPjxNmqHuZLHK9rnOcrm9nPDUXzA6ABpO59kQan1TkuxlgZVSWe3yT0lOvmlTUqnbBEnCoq98jmN4ReV7ifU+5NnWrcen9S5ZbceSfNMSul4yGSlppmOgr6RlMqR03dM5GR90z0VH96rwnDk8+Qu4OVsD2T1i7frcwuWCXjTVpsuP5VcsepYbvYLpPVPZSy9qPe+KtaxVVFT1NT/IbPl+x+oXTeDWrKtpVGvrw6bMLXbLjJYLVXU8NPaauVkDpEbNUyOSVksjV71VWIxfNvkqgdBA596quoXM9Jz4xT4LZbNc3zLUXrI0uLZXei2CldE2rmi8N7eJUWdnaruW+S8opuG1dqXzFsk1li2GUlBW1We5AlJM+qY97YbbFTyVFRM1GPbw5Gsa1qryiK9OWqBUgABKsj/Sn159n+ZfxHHCqkqyP9KfXn2f5l/EccKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlWm/lF3t9oFH/ACrYSqkq038ou9vtAo/5VsIFVAAAAmu14eop9XSz6WvmuaCgip3urm5Raa6smfKi8p4S01TC1re31o5FXn9QFKBzN04551dbbx7F9k5Vd9QQYvdpJH1tDb7Fc4q9IWSPjckcr6x8aO5ZyiuYqcfMZfBtn742/hWWVeAS4Fab/j+c3PH4ZLxbqyejfQUr+1qujiqGvWZeW8uR6N9fxUA6CByPr7Y3XJsDMdg4dR3/AEXSTa/vMFnqZpMbvDm1T5aOGpR7ES4ctREmRvC/O1SzYTs7Jr9vLO9W3eltbaHFLTZa2nnpopGzSTVbJVmR6ueqK1FjTtRGoqIq8qoFSBGurDbWb6Z1XBlOvKaxzXyuyC0WSn/LVPNPSMSsq2QK97IZI3r2o/lOHp6vnMXBbeu1J41qsz0M+FHp4jY8ZvLXK3nzRFWvVEXj5+F/yAXkH5Z39jfE47uE549XP9x+gAAA+AP+FH/Ts2b/AOZf4PRAf4Uf9OzZv/mX+D0QA+/wAAAAAAAAAAAAAAAAAAAAAAAJV1LfJ1aPtAwT+arWVUlXUt8nVo+0DBP5qtZVQAAAlXSd+ixpv7P8e/h0Bp996h90Vm38x1Zqfp/s+VR4W2gWsuNfmyWpXuqofFajYlo5fVwqc96+r5jcOk79FjTf2f49/DoCF2el6gKjq33kuk75r63xNbj3p6ZTaq2sc93oTuzwlpqiFGpx3c93PzccAVfEepG9VlbmGH7I1XVYdm2IWB2SOtS3aKuo7jQ9r+JKasjY3uTvjVjkdG1zVVFVq8mA13v7qb2dr2wbNxrpmw99oyO2wXWjifsp7KpYZWI9rVY61oxH8L6leic/4yes/TNMZ1ZaHZW5tx5xacjzC64ZVWSnhstqfQW22UMcUsixQskllle58ju5z3v+ZERE4I7qK89ZGEdF2AZlr2760utkt+I2+pbbkxWvmu8NvSBqudGq3FkNTUMZ59qtia9UX1eoDpnC+pDBcm09c9x32Ksxigx6WrpL9RXFqLUW2spZFjmp3IzlJHd6IjVZz39zePXwa+zem9ai1rmlJ0r3N2K+GtS2OXJaaPIH0/HPiJbfDWPlW+aRrVJJ83bz5EQ2HjGJ2fotxbJsAy2pynHrxnNhzLJb5UNax1fBPdYpq2aWNvxY2NVURY08mNZ2qq8Lz3IyaF8KVDJWLE5vej0cnareOeef1cAQLcPVxZ8F6fLZv7WmIy5/S3mupKGhtjKxbfNI+Z7mOa5XRSKyRjmuasas57kVPIreN7Ax/JddW7Z1JVMZZbhaI702VXIqMp3RJKqqvq8m88/5Dh63shrdLJcrfEnucu3UbHU2VOziOSkddOHPYnzsdKkqoqeS8qqes36lqaq162yPpLhlkjuD859yNAn5rksFcq1yvbx/isolqY0X9caIBS9F9Wtj2tp7KNz5njD8Ds+LXGrpallZWLUP9GhYx7Z3f2TFa57ZGqkfaqoqonKqp5YN7bzuVq92tm6WLnNirovSYWVOS01Pf56fjlJGW5Y1jRVb5pG+pZJ6kVqKvBzlnlvnpNBbmS3MSK0WfdlLVXVrfJjLVBWUDp+7/gNjby75u1FPoBBPTz00dTTSsfBIxHxvYqK1zFTlFRfVxwBKajdOU5rrmw7F6dMAt+f095kck1Pc78tifRtby17ZO+nmd4rZGqx0StarVRfPy855r7qS6mtiXC80tr6VMcjhxy+S2G6Su2U3uini7FlVjVt6eIiNeip5pz6uU9ZlujN7ay0bQvNqVFx257IvdRZXMTiOSHva2V8f62umbKvKeSryp73Sp/3fuX7Tbt/8KADc8X3FHkW3s81XUWFtCzB6K21j7k6s7kqUq43vVFj7E8NGdnr7nc88+XBp1r6hdk7EimyDR+iHZPiUUskVPfLvkcVmbdUYqtdJQQrDK6WNVRUbJKsLXetFVPMmWSUN9ue2erG3Ywki3apwa1RUaR/nrKtDUo1G/wB6+pC+dNlfY7l0/wCu6vG5IH25cat7IfB4Rre2BrXN4T1Kjkcip8yooGDpupnH7lqDONlW/G7hBedfU9X+XcXub201bRVkESyLTyub4jURzeFbKzvY5rkcnPqM108b0xzqJ1Zatl49RTW59Wiw19rqHcz26rb/ALZBJyjVVU5RUdwnc1Wu4Tk5r2i+S4Z71dXKyStkstNrm326udGqLH+VmUtU97V4/wAdsD4Ud/laZ+mhf02XjB992yPwsCzuy2e0Z/BGxeyirfR446O7+XqTzSGZePzVY5V+KB0Fo/anvza/hzr8g/kfxa+vofRfSvSOPRqqSDu7+xn53h93Hb5c8crxyb8QDoalin6e6CeCRskcl9vr2PavLXNW51CoqKnrQv4HMeIdSvUZsll7uuuOl7H7nZLTkF0sEVZWbFSjlqH0VVJTvkWFbe7sRyx8oncvHPrU3W970zjCbRrx2xNV0dovmcZVHjU9upMiStit7ZElcyoSdKdnjctjRVZ2M4V3Hd5crB+l/Vu58qxPMLxhfU9kGFWuTYeVsZaKPGrPWxRubdZ0c9JaqnfKquXzVFcqJ83CFD6j7bd7OvTzar/kc9/uVJsW1w1V0np4qeSskSnnR0ro4WtjYrl81RjUanzIgGYy3qK283eGTaW1Poa05dLitqtt0rq+vzNLSitrPE7GtjWjl54WJ3K936vI2zD9i70mpb7ctq6Ms2JUNqtstdTS0GZtuzqqWNFcsTmpSReGioi/H+N/kIVPhGxc066NuRa+3TdteyUmJ4u6qkoLNb7gtY13pfa1yVkUiM7eHKis457l554QuFrwXZeF4Jmnvg7wu2wkqrRUei+n2S3W9aTthk7u30OKPv7uU/O547fL1gbRpXY/vwakxDaf5G/JPurs1LdvQPSPSPRvGjR/h+J2s7+OeO7tbz+pCZZr1Ebapd5XvSWp9E2rL6jH7HQXusrq/MUtKIyqfKxrGxrSTcqiwr593z+ozPRX+iRqD/ida/8Am7TVsF/T72r9n+N/85rANv1vv28X3PF1NtnWdXr7NJqF9yt1K65xXKhutKxUSV9LVRo3vdGrm97HxsciOReOCxnOu+3Orepvp3tlomb+U6a6Xy4VbGO+OltbbnxyKqcKvasr4U55ROfLzOigJV0nfosab+z/AB7+HQFVJV0nfosab+z/AB7+HQFVAEq038ou9vtAo/5VsJVSVab+UXe32gUf8q2ECqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKsj/AEp9efZ/mX8RxwqpKsj/AEp9efZ/mX8RxwCqgADj7H8Fz7MerLe7sJ3ZkGArTsx5srbZarZWNqXLRO7XPStppVTt49TFbzyvPzcZDplo6u3b5zPHt65Hecj3NYbfHDR3m5OgjpK/HpX9zJrdTU8MUUDVkaiTM4e9HtTl6oqcdH2TX2IY7lmQ5zZrR6Pe8q9G/K9V6RK/0n0dish+I5ysZ2tVU+I1vPz8qetftW4JkucY9sm8WLxMmxZk8VquMVTNBJDFM3iWJyRva2WN3CL2SI5vKIqJz5gcgdJPTpZdja+yTKa3ae2LHLNneTxLR49nNwtlE1GXOZEVsEMiMa5fWqonmvmp1HPpDHp9M3jStxvmQ3+13ehq6KWryK6zXOtck/d5unmVXu7Vd8XlfioiInkiGlS9CvTK+trq+LDsgpZLjWT19S2jza+00T6iaRZJXpHFWNY1XPcqqjURPMpOr9QYHpy0VdjwCguVLR1tT6XM2uvVbcnrJ2o3lJKuaV7U4anxWqjfWvHKqoHNGK5JeN50emNJ5KqT3LGK+ouedsdGvDpLFL6PE1yc+Xi1fgSpzzy1i+v1m77M/Tv0l/xQyz/9NEWTGtS67w/Nsl2LjeMw0WRZesK3qubNK51UsSKjPiucrGetVXsRvK+a8r5ntXPXOGXjPLJs25Wbxslxyjq6C2VvpErfAgqezx2eGjkjd3eGzzc1VTjyVOV5Dkjp06e7Nsv3zckrtn7UsMq7Hv8AB6JjebV9rpOGzp8bwIHtZ3Lz5u45XhC6Z1oqBnThmOprTlOU3uWuttZLR1+Q3ia6VzKrt8SHiedXOVGyMYrUVeE/yHo3Poi6brrerpkFRiN/grbzWzXGtWizO90kctRK7ukk8KGsbG1VVefitRDftXaX17pqgr7ZgFuudLT3KVs1SlffK65uc5re1OH1k0rmJwq+TVRPn45Ag+lay39UN5zTObh21Fqkwe14XEip5MnqqX0qvRP1L3TwNX9Sx/5TG9Lt3uOz9jYnPf3ulrdQYK/H7gvn2peJqt1NKvHzOSK38/rRJv1KdLa21VgGoLHVY3rnHIrNbq24VN1ngZNLL31U7++V/dI5zk5X/FRe1E4RERE4P7hOrMB11dMmvOF47FbKzMbmt5vcrJpX+l1isRiycPcqM8mp8ViNbzyvHKqqhtYAAlWR/pT68+z/ADL+I44VUlWR/pT68+z/ADL+I44VUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAYvKMnsGF49X5VlN1gttptkLqiqqplXtjYn9yeaqq8IjURVcqoiIqqiAcw9YnX3b+lJ0tqbpjM8huC+G2C4y0jqKxue9iPRra1yO8V6Iq8sYxfNrkVzVPN/g8tlZzuLBdjbQ2PZ7far7kubQ3CWkt7Xtgjp347ZvRu1Huc7zp/Bcqqq8qqr5epNjumhW9Tlnv9+3/bK2jt+QWuotWM44/sbNjlHM3j056ORzUucnxXqrkckLWtiRF/tlkzfTRitswW67ZwmyNc23Y9ltqtVIjuOUhgxDH4mc8eXPaxPUBbgAAPBW/9xz/+Sf8A/oU85+XsbIx0b05a5FaqfrRQId0RfowYT/5Gr/53MYrot/8Aq5s37Tsi/wDjoWvCMIxfXGL0OGYZbPydZ7cj201N40k3ho56vd8eRznry5yr5qvrPFhWvsQ15TXOkw60fk+K83SpvNa30iWXxayd3dLJzI5yt7l/xW8NT5kQCNdNny49Sf8Ax4t/8Foj29b/AKYe5v8A8Axj/wCHUlaxrX2IYhfMlyTHbR6Jccvro7lepvSJZPSqlkLIGv7XuVrOI4mN4YjU8ueOVVV0PYHSdorZ+ZVWf5hjN3lv1bTw0tTV0GUXW3eLFEipG1zKWpjYvajl8+3nzA0H/CG29l20JbbXJU1VOyszjGKd01LO6GaNH3OFqujkbw5j055RyeaKiKhtdn6Tcest3obxFuveNU+hqYqlsFZsi6T08qscjkZLE+RWyMXjhzXIqKiqi+SmTm6T9E1Wt6vUlbit0q8XrbjDdZqWpyW6TTLVROa6ORtS+pWoZ2qxqojZEb5eowHwF+mz6OZb+IORf9eAvoPHT08VLTxUsDVbHCxsbEVyuVGonCea+a/5VPIAAAHwB/wo/wCnZs3/AMy/weiA/wAKP+nZs3/zL/B6IAff4AAAAAAAAAAAAAAAAAAAAAAAEq6lvk6tH2gYJ/NVrKqSrqW+Tq0faBgn81WsqoAAASrpO/RY039n+Pfw6A2LF9VY9iWw8x2Vbqy4yXPNvQfyhFPIxYIvRYljj8JqMRzeWqvd3Odyvq49RrvSd+ixpv7P8e/h0BVQMfkNlpcksFyx2ukljprrRzUUzolRHtZKxWOVqqioi8OXjlFTn5lMPrHXlk1RrnHNY49U1tVasYtkFqpJa57HzyQxMRjVkVjWtVyonmqNRP7kNoAE0150/YFray5ZiVo9Or8Yy641NxnsFyWGegolqE/t4aeNI0VsL3KrlY9z0RXLxwi8GrfBJxplA/F6fbW06fC3sWFcUiyTigSBfXA2fw/TWxcfF8NtSjUavCJx5F0AE+yfRuBZHh+M4HT0ctjseI3S3XW10lp8OFkT6J/fDFw5jk8PlPjIiI5f90i+Z+KjReEVO76bf0j7kmSUtndZmwpUIlE5iuVUmdF28rMjXOYj+7yY5ycefJRABpGJagxDEqTL7dEyoulHm93q7zdaa5eHNE6SoY1kkTWoxE8JWsRO13cvmvKqaGzpKxqmon4za9s7St2Gvasa4pS5H20DYV9cLJljWsii45Tw2VDWoi8IiJ5FzAGKxXFccwfHLdiOI2WktNmtNOyloqKljRkUETU4RrUT/wD6q+a+Zhtf6zsOuJsmmsdXXzuyq+1GQVnpcjHJHUTNY1zY+1jeI0RicIvcvr81NuAGmY9qnHca2Xle06GsuMl2zGnoaauhmkYtPG2kY5saxNRiORVR693c53PlxwaVVdLeNUdzr6zXuyNga+obtUSVdwtGMXWKGgnmkXmSRkM8MvoznqvLlp1iVV8/WqqWgATam6fdbWzUt80zYqCrtlkyOmq4LjUw1Ky11RJUtVJqmSom73Szu5VVfJ3efHzJwbJVa9xi468XV15ovynYJLS2yzwVfDlnpkiSLh/CIiqrU9aInn5pwbKAIhhVFqjo315j+oLa3Pa+1UjaiShkpsWud+lRrpVe5JZLdRvYzhX8NR6NVUT5+FUz9n6jtcXy60lnobVsRlRWzNgidVa1yOlhRzl4TvmmoWxxt/W57kanrVUKgANM1VqrHtQWC4Y5jVZcammuV7uV+lfXSMe9tRW1L6iVrVYxiIxHyKjUVFVE45VV8xsXVWPbNrcTr79WXGCTDr7DkNClJIxqSVMTHta2XuY7mPh68o3tX1eaG5gCG5v0p23LNpXjbti3Rs3Cb3fqCjt1wjxqvoYaeeKl7/C5bPSSu5TxH/43Hn6jMYXoGvxSa5ret97SzKlulumtz6PIrjQywRNkThZWJBSRKkiJyiKqqnmvkpWgBzdi/RdNhWOW3EcV6rd7W2z2eljo6Gjhu9pSOCBje1jG827nhEREM7mnSjbcr2XWbXs269n4dfbjaKOy1rseuFDFHUwUyvWNXpPSSuV3Mj1VUciefqQugAmOrun3D9YX2uzL8uZNlmV3KnbR1GQ5Pc1rq70Zq9yQR8NbHDH3easiYxFX188JxTgAJV0nfosab+z/AB7+HQFVJV0nfosab+z/AB7+HQFVAEq038ou9vtAo/5VsJVSVab+UXe32gUf8q2ECqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKsj/AEp9efZ/mX8RxwqpKsj/AEp9efZ/mX8RxwCqgAAAAAAAAAAAAAAAAACVZH+lPrz7P8y/iOOFVJVkf6U+vPs/zL+I44VUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADw1lZSW+knr6+qhpqWmjdNNPM9GRxRtTlznOXya1ERVVV8kRCM45bK/fmW27Z+Qxzwa9sUyVWH2iZisW71KfmXmpY5OexPXSxO9SL47k7nRJH4rlDL1K5F+TIJ3e9JYKtW18jPzcvr4X8LTtX/Gt8Mjf7RU8p5WdnnEx/i3BERqI1qIiJ5IifMB/SVab+UXe32gUf8q2EqpKtN/KLvb7QKP+VbCBVQAAAAAAAAAAAAAAAAAB8Af8KP8Ap2bN/wDMv8HogP8ACj/p2bN/8y/weiAH3+AAAAAAAAAAAAAAAAAAAAAAABKupb5OrR9oGCfzVayqmv55geM7KxmfEMvpaue2z1FJVqlJcKihnjnpqiOpp5Y6imfHNE9k0MT0cx7V5YhpXwaddfSPav4sZV7RAqoJV8GnXX0j2r+LGVe0R8GnXX0j2r+LGVe0QHSd+ixpv7P8e/h0BVSP2npT1LYLVRWKxXDZVuttup46Sjo6TaWUQwU0EbUbHFHG24I1jGtRGo1ERERERD2/g066+ke1fxYyr2iBVQSr4NOuvpHtX8WMq9oj4NOuvpHtX8WMq9ogVUEq+DTrr6R7V/FjKvaI+DTrr6R7V/FjKvaIFVBKvg066+ke1fxYyr2iPg066+ke1fxYyr2iBVQSr4NOuvpHtX8WMq9oj4NOuvpHtX8WMq9ogVUEq+DTrr6R7V/FjKvaI+DTrr6R7V/FjKvaIFVBxB1xZBqrpG1RBllNeNkXPJ7zXR0VktlVtvLEZP2ua6okf23JHdjIlXzT/HfGi+SlwwvTGndgYhZc5xjLtq1Nov8AQQXKilXbGUoroZmI9nKflHyXhycp8y8oBbwSr4NOuvpHtX8WMq9oj4NOuvpHtX8WMq9ogVUEq+DTrr6R7V/FjKvaI+DTrr6R7V/FjKvaIFVBKvg066+ke1fxYyr2iPg066+ke1fxYyr2iBVQSr4NOuvpHtX8WMq9oj4NOuvpHtX8WMq9ogVUEq+DTrr6R7V/FjKvaI+DTrr6R7V/FjKvaIFVBKvg066+ke1fxYyr2iPg066+ke1fxYyr2iA6Tv0WNN/Z/j38OgKqR+09KepbBaqKxWK4bKt1tt1PHSUdHSbSyiGCmgjajY4o423BGsY1qI1GoiIiIiIe38GnXX0j2r+LGVe0QKqSrTfyi72+0Cj/AJVsI+DTrr6R7V/FjKvaJtWvdY4hq+julFiUN1/2buH5UuNRdL3W3WqqqrwIadJH1FbNLKvENNAxE7+1GxpwiAbWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlXUtsfamq9W3DMtSa4t2YXWibJLUR3G9QW2lt9MyJ8j6uZ8zmJJGzsRFY17XL3IqKiIqpxt0D1OWdY+ZbUzPrDxC05fUYxPQWqy2fIbFDNSWR8njvqY6elmYrYXqjKVHu48R6MZ3ud2odbZKrt5bJdr6BHuwTBquCryWZO10N5uzeJILV/woof7OeoT1K5YIl5TxmpULNiGMY9d73frJZKWiuGR1EdXdZ4WdrqyaOJsTJH/ADK5I2Mbz+pqAaF8E7pY+rTqr9zbd/RHwTulj6tOqv3Nt39EqoAlXwTulj6tOqv3Nt39EfBO6WPq06q/c23f0SqgCVfBO6WPq06q/c23f0R8E7pY+rTqr9zbd/RKqAJV8E7pY+rTqr9zbd/RHwTulj6tOqv3Nt39EqoAlXwTulj6tOqv3Nt39EfBO6WPq06q/c23f0SqgCVfBO6WPq06q/c23f0R8E7pY+rTqr9zbd/RKqAJV8E7pY+rTqr9zbd/RHwTulj6tOqv3Nt39EqoA+fX+EFslN0nYzr7bPSlgWPYNlsmUNssq4zj9NTOu0E8Ej/Qp44Y09Ijc+BqpG5F+M1rm8Oa1U6V6St57E3xrSlyrZWpqrDbjJS0tVFUxVEc9su0M7XOZPRva9z0ThvLmPT4qPZw5/K8VfIcPxfLJ7NU5LYqS5SY/cmXi1uqI+/0StZHJGydn6ntbLIiL83dynnwpNsEcupNp3DUdQnh41lrqrIsPd59lPUd3fcranzNRr3pUxN+dk07URGwAWIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABzRjvVldm9WuU9Pub2ChoMeilpqHGb7E17PSLi6lbUSUU7nPVqyOYrnx9rW8oxyea+ZvGaZhcL9u6Lp5uFLT+5nKMEuVwrqiF80Nc1/jsplbFMx6eGnZK5eUb3I5EVHJwSOn1JbN1Zz1K4VWVklvrVyCx1loukPHjW24w22N9PUxr8zmPRF/vTlPnMLovbV02b1aWK0ZrSNt+e4bgFzseWUCJwkdayvg4mZ+uKZnbKxf9y/j5gOyrTabZYbVR2OyW+nobfb4I6WkpaeNGRQQsajWMY1PJrUaiIiJ6kQ9sAAT/ACnp60FnN9qspzXR+v8AIL1W9npNxumM0VXVT9jGsZ3yyRue7tYxrU5Xya1ETyRCgACVfBO6WPq06q/c23f0R8E7pY+rTqr9zbd/RKqAJV8E7pY+rTqr9zbd/RHwTulj6tOqv3Nt39EqoAlXwTulj6tOqv3Nt39EfBO6WPq06q/c23f0SqgCVfBO6WPq06q/c23f0R8E7pY+rTqr9zbd/RKqAJV8E7pY+rTqr9zbd/RHwTulj6tOqv3Nt39EqoAlXwTulj6tOqv3Nt39EfBO6WPq06q/c23f0SqgCVfBO6WPq06q/c23f0R8E7pY+rTqr9zbd/RKqAJV8E7pY+rTqr9zbd/RBVQABH7T1Walv9qor7Yrfsq422408dXR1lJq3KJoKmCRqOjljkbb1a9jmqjkciqioqKh7fwltdfRzav4T5V7OAqoJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4CqglXwltdfRzav4T5V7OHwltdfRzav4T5V7OAqoJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4CqglXwltdfRzav4T5V7OHwltdfRzav4T5V7OAqoJV8JbXX0c2r+E+Vezjf8TymxZzitmzXFq702y5Bb6e6W6p8J8fj0s8bZIpOx6Ne3uY9q8ORHJzwqIvkBlgAAAAAAAAAAAAAAAAAAAAAAAcodaXS/qba1VY9i7AoLnermt6xXFaKiluMsVFSUlTf6dlY+OKJWr4stPUTMc9zl+K2PtRqtRxb9FaYsOgNd0mr8Uvd4uNkttVVTW9t0mjlko4ZpnSpTMcxjVWNivVG9/c7z/O44RMVv8A/t4td2z1+m7Asvl+vwXvqf8A9X5/zFVAAAAAAAAAAAAAAAAAAAAAAABr+eZ5jOtcZny/L6qrgtsFRSUirSW+orp5J6mojpqeKOnpmSTSvfNNExGsY5eXoBsAJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4CqglXwltdfRzav4T5V7OHwltdfRzav4T5V7OAqoJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4CqglXwltdfRzav4T5V7OHwltdfRzav4T5V7OAqoJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCVM6mdXemUFFW0ewLZ+U7hR2unqLprjIqCl9Kqp2U9PG+oqKFkUXfNLGxFe9re56efmVUAAAAAAAAAAAAAAAAAAABOdxZ3fLHBbMB19LTuzzMXSU1mSdniRUMMaNWquUzfnip2ORe1fz5XwxeSycpt2X5ZYsExe55hk1alJa7RTPqqmVU5Xtan5rWp5ve5eGtanKucqNRFVUQ0fTeJZBLUXPb2xKOWmy3MGRK23TK1y2C1s5WmtjVTy7m9zpJnIvDp5H8KrGRogbdr/BLBrXEbfhmNxSpR0DXK6Wd/fPVTvcr5qiZ/rfLLI58j3L+c57l+c2IAAAAAAAAAAAAAAAAAAAABpG4MArNhYc+hsVfFbcktNTFeMcuMrFcyiukHKwyPanm6N3Lo5G/40Usjf8Y3cAanq7P6bZeFUGUx0EttrHrJS3O2zORZrbcIXrHU0snH+NHK17efUqIjk8lRTbCOXlF09uWnyiN6xYhs6pgtl2Z5JFQZCjUjo6vhPUlXG1tK9fV4kNJx5vcpYwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABO9qbBvNmlo9f65gpq/Pshie63Qzorqe20zVRstyrEaqKkESqiI3lHSyKyNvHLnMyOztjRYBaqWG22x16ye+TLQ49Y4pO2W4VfarvN3n4cMbUWSWVU7Y2NVfNe1rvT1JrKpwOiuF7yi8pf81yWVtXkN58PsbNI1FSOngYv+1UsLXKyKP5k7nOVz3vc4NgsOB4pjGQZDlNjtXo10yqohqrvP48j/SZYokijd2ucrWcMRE4YjUX1ryvmY6HUeuqfaE+56fGIIszqrYlnnurJZGvlpEcjkjexHeG5UVE4cre5ETjnjyNwAAAAAAAAAAAAAAAAAAAAAAAAAAAASrpO/RY039n+Pfw6AqpKuk79FjTf2f49/DoCqgAAAAAAAAAAAAAAAACVdJ36LGm/s/x7+HQFVJV0nfosab+z/Hv4dABVQAAAAAAAAAAAAAAAAAAAAAAASrc/9vnmk7d60nzueZ6f8GHH7vIi/wDrtj/9JVSU7J/1zu7T1F6/Aqr5ceP/ABLc6Hn/AN64/wA5VgAAAAAAAAAAAAAAAAAAAAAASrqW+Tq0faBgn81WsqpKupb5OrR9oGCfzVawKqAAAAAAAAAAAAAAAAAAJV1LfJ1aPtAwT+arWVUlXUt8nVo+0DBP5qtZVQAAAAAAAAAAAAAAAAABLdx5Tf6+tt2mNe3KahyrLIZJKi6U6IrrBaWKjaivXlFRJV58GBF/OmejuFbFJwGIgczfWzPS0VlRrzXVyVKdzXcsvWSwPVHOX5nwUTkVqfM6q5X10yc2kxWK4vYcJxu24ljFujobVaaZlJSU7PUyNqcJyq+blX1q5eVVVVVVVVVMqAAAAAAAAAAAAAAAAAAAAAAAABgs5wyxbExC74RksMkltvNK+ln8KRY5WI5PKSN6ebJGO4ex6ebXNa5PNENW0lmV7v1ir8QziZj8zwqq/I19c1nY2rcjEdT10bf97qYXMlTjya9ZI/XGpRiP7kik1tktr6hrZA5aW0wJaMziiTznsLnq5Kpf1rRSvdP+vwX1aJyrkAsAPxFLFPEyeCRkkcjUex7FRWuaqcoqKnrRT9gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAANcz/PLFrjG5skvyzyNSRlNR0dLH4tVcKuRe2Glp4/XJNI7hrW/5VVUaiqkb6+N43vp96Ycnz3Erw22ZK+Wkt9kqFjjk7amWdvcqNka5rlSFszuFaqL2+aE86OOoXCesHNKjaF6uU65Rj1E6O04u2hqfQcfgcjY56pKhzEimq51fwq93dHCrWNThZXyBe9U67yGlu9ftfaUsNTnN/hSBKaKTxKbH7dyjmW2ld/jIioj5pfXNL5+TGRMZTwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACVdJ36LGm/s/wAe/h0BVSVdJ36LGm/s/wAe/h0BVQJPuPqItOnslxnDl1zm2Y3vK46uWgosYpKWeRGUyNWVz/SKiFEREenqVfnMdiHVLjd+zO0YDmGtNha7vOQrKyysyy0RQQ3KWNqvfFDPTzTReIjEV3Y5zXKiKqIpO+pu8Z3YuqLSNx1zhNDld7ZbsjbHbay8pa4nsWKHucs6xS8KiefHYvP60M1PhfUJvHYGCXrbOA4tr/GsDvPugSmoMlfea65VjIXxwsRyU0LIYk8RXO83OXhE9XIGd+FdFccvy3D8L0HtLLZMKu7rJdK60QWlKVKpI2SK1i1FfFI5OyRi8qxPWbTrbf8AimyK6/4/+QMjxjJsXhjqbrj2QUTKevggkRyxzN7JHxSxu7HIj45HN5aqcoc6abyzeWNbS6jn6r07j+aUbdizzTLXZg60VHjpb6X+xjj9DmY/lqNVHOkZ5qqKiccrt/TnU3XcWRZt1MZXU2m3XmptLsN9y1uknlfYUpXySSxVcs0UTpKlZH+fbG1iNRvarkXuULLiO+Ne5VpqDfFRXTWDE5aOWulnvCMhfTwxvcxyyIxz2ovLV4RrlVeURPNeDT39XGJ0FLT5Fkmr9mY9h9U6NseV3WwJBbmtkVEZJKzxVqqeNVVv9pNAxqIqKqohzljLFq+kDpstFxa11guGfWuG8Nf/ALW+NKyofEx/62rM2LyXyVeDuzKbPj1/xm62PLaamnsldRTU9xiqXdsTqZzFSRHu5Ttb2qvK8px6+UA16+bbxixbGxHWU9PXVFxzWlray3VNOyN9K2OlYx71ker0cncj07e1rkX51QweuOo/W+z9n55p+wzV1Nk+vKtlNc6WtjjYk7XIipPTq17lfGir2qrka5F9beFRVmOUU+M0fU9060eFz001hp8dyGG2vpqn0iJaZtNA2Psk7nd7e1E4Xlef1kug13kUmWbe3zqygSXYGutl19VBAxOHXm1upKVay2PX50kYnczn1SMYoHYVLs6w1e1q/T8dJcEvNuscF/lndGz0VaeWZ8TWtd39/f3MVVRWInHHmvqNLufU5jr71cbJr3XOe7FdZal9Hc6vGLZC+jpahi8Pi9JqpoIpXtXycyF0jkXyVOfIjFDsyj2Jt3PNn6xqnVKXPR8FfbFTykZP6TVKjHJwqtkY9O1U45RzVQqPTtd7NgXR9geQYhjd3yemgxmirG0Njjjnrq+eVrXSuZ4r2NfIsj3ucrnp59yqoFC1buDDNvW+4VWLyXCmrbLVLQXe1XShkoq+21PajvCngkRHNVWqio5OWuReWuVPM3ci+l954ls7YmX4tT6dy3BMstNDb7hd0yO2UVNUVkE6ysp3d9NUTLJx4L0TvVOE44LQAJV0nfosab+z/Hv4dAVU5W/wf/U3p3beisE1zi+URxZZh+LWyz3KyV3bDWd9LSxwvmiZyviwqrO5HsVeGub3oxy9oHVIAAAAAAAAAAAAAAAAAAAAAAYzIsmxvELTLfstyG22S2QOY2WtuNXHTQRq5yNajpJFRqKrlRE5XzVUQCe5V/rnqb1zSetKbD8rrl/uclVZYm/+lJn/APoUqprFfi+OszKm2xX3OSGe02KstaOfMxtIykmlgnllcqpyiotLH8buRqNReU+dM5arra77baW82S5Utwt9dE2elq6WZssM8Tk5a9j2qrXNVF5RUVUUD2wAAAAAAAAAAAAAAAAAAAAAlXUt8nVo+0DBP5qtZVSVdS3ydWj7QME/mq1gVUAAYrKcpx3CMduGW5beKW1We1QOqaysqX9kcMTU83Kv/R61XhE8yQP6t8ZpKBMovOptpWrDVRJPdVW44jKBkK+qeSFJVrIoeOFWSSna1EXlVRPMx3WKjqqg1XZrgxr7Bctk2WC8Nf8A7W+JHPfEx/8AwVmZF5L5KqIX+rp6WqpJqWtijkp5o3RyskRFY5ipw5FRfLhU5A0yv3FiNDmWFYdGlVWe76lq6qzXSk8KSgkSCJsqtWTv7u57HdzO1rkVGu5VPLnE5j1DYNhG48S0jd6O8S3zMYny0tVT07H0VLx3+G2okV6OjdKsciM4a7lWKiqnlzyprhlZbul7Xmx2wvdSaw2lVOtT08u2wuuk9B5L88aU9Rz+rtYnCeo2vYtsq81su799WyF0lbh+RW38gyRJ3PfBj7mzTo3/AMeWWtZwnr/zgdJ5juTF8Kzi06/uFFc6q63ez3K+s9EijdHBSUTWLK+VXPare5ZGNZwi8uXz4TzPU0Bv3X3Unrei2hrepqltlXJJBJTVsbI6qkmYvDopmMc5rXJ5L5OVFRUVFXkldrrqXZe1dubNo5mz2zH8IpMatj0TlEkqKZ9fUqi/rVs1Kn+YjXT5E/pq1fpjflqhWPA85xWyWfYFPG1eyirHQsZR3jhPJERVSGZ3H5rmOVfiqB09kHVHgePazzXadRYckqbbgt8nsFfS09PAtVUVMUzIVWBrpkY5iukbwrnsXjnlE9Rg29VmRvaj2dH+/Fa5OUX8j2nzT7xOfNhPlm6P+oOS3ywrI/Zte6B70V0auW5Uvaq8KnLfV6l9R0Jabd1ztWidWZjol9GnhrKyLGrw2RY/LlGuWvVEdxzwqoqc/MoGb2F1KW7A86x/WlHqnPcqyTIrJNf4aGx09B309LFIyOTxlqquFEe10jEVGq71+s/mO9TNkr81s+A5xrPPNeXXI3yRWVcnoaVtPcZmMV7oYp6SonjSXtRzkY9zXKjV4RSVbnuuwbP11a/q9cYbaMmu662vLH0Vyvb7VCkS19L3PSZtPOquRUaiN7PPlV7k44XxUGQbH6heoGwYBtzF8f1rPqy4R5cyyU95mutbfviPigqIZ1poIW0rXSL3dqvk7kRrmsRfMOvQABKupb5OrR9oGCfzVayqkq6lvk6tH2gYJ/NVrKqAAAAAAAAAAAAAAAcy7w6js9sux8WwTW2KXGntLM1tNiyfJa6kSOmX0hyOWjo0lavjvc1U8SRqdsaLwju/83poD1bpVVVDbKytobZNcamngklho4XxskqXtaqtia6RzWNc5URqK5yNRV81RPM0TTWB3vG7fccyz3wJM7zKWOvyB0Eqyw0itarYKCncqJ/YU7FVjV4TvessqojpXEN3P1K7J0/1XUNrrHMqtR0eN0VRk7Epo1ltUlXVyQRXBHtZ4ixte1jZEV3a1jldwnHJV9rbBybH9taZx3HLy2Kz5fdblBdI2wxSNq4Y6B8sSI9zVc1EeiO5YqKvzqqeQFgAAAAAAAAAAAAAAAAAAAAAAAAAAA8VTTU9ZTy0dZTxzwTsdHLFIxHMkY5OFa5F8lRUVUVFPKRjqV3dkuqsXqrdrrCbjkeYVlprrhRdsCpb7fDTs5kqqyoX4kbG8p2x+b5HfFanrVA2HS2NZbgNqumuL3SvlsOOVngYrc31LZX1Vpe1HxQSN572yUyq6n5cnD444XIquc9G0Y0zS+Q3fLdQ4VlGQVfpVzu9goK2sn8NrPFmkgY57u1iI1vLlVeERET5kJP1p7N3RrTG8FqNFup5sgvGW09C+31EMT2XKnSGaWSlVz2uVivSPhHM4ci8cKB0WDn7ZfUG++dH9831qO8PoKz8kNqqSSWnY+WhqUlYyWGWKVqtSSN3exzXN8lRfIu9rmlqbZSVEzu6SWCN71445crUVV8gPaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAj+0H5vf90YRrnGto5BhdtuOL5Je66WyUlsmnqZ6Ors8MDXOr6Spa1iNrqhVRjWqqq3lfLgsBKsj/Sn159n+ZfxHHAHvN7F+tjtX7txX2MPeb2L9bHav3bivsYqoA51z/ENtYrletbFb+qnZUlPmOUT2SudNa8XV8cDLLc65HRKloREf4tDE1Vcjk7HPTjlUc3dfeb2L9bHav3bivsYbk+UXRP2gVn8q34qoEq95vYv1sdq/duK+xh7zexfrY7V+7cV9jFVAEq95vYv1sdq/duK+xh7zexfrY7V+7cV9jFVAEq95vYv1sdq/duK+xh7zexfrY7V+7cV9jFVAEq95vYv1sdq/duK+xh7zexfrY7V+7cV9jFVAEq95vYv1sdq/duK+xh7zexfrY7V+7cV9jFVAHOe1ujCk3hbLXZNrdQmzsjt1muLLtSUdTSY22BKpjHsa98bLS1svDZHp2yI5vxl8jZ7D09ZNitpprBjHUrsWz2yjZ4dPRUFkxKnghb/uWRssqNan9yIWUASr3m9i/Wx2r924r7GHvN7F+tjtX7txX2MVUASr3m9i/Wx2r924r7GHvN7F+tjtX7txX2MVUASr3m9i/Wx2r924r7GHvN7F+tjtX7txX2MVUASr3m9i/Wx2r924r7GHvN7F+tjtX7txX2MVUASr3m9i/Wx2r924r7GHvN7F+tjtX7txX2MVUASr3m9i/Wx2r924r7GNKz/ENtYrletbFb+qnZUlPmOUT2SudNa8XV8cDLLc65HRKloREf4tDE1Vcjk7HPTjlUc3oolW5PlF0T9oFZ/Kt+Ae83sX62O1fu3FfYw95vYv1sdq/duK+xiqgDn/AGRju0dX2myZbRdSewL3/wBmGLWuot10tuO+i1VLXXyioqiN609rilTmGpk4VkjXI7hefI6AJV1LfJ1aPtAwT+arWVUAAAAAAAAAAAJV0nfosab+z/Hv4dAVUlXSd+ixpv7P8e/h0BVQJ3lmo/dRuTBdt+6D0b3F0lzpfyf6J3+l+lsY3u8XvTw+zs547Xc8/MUQACbak0571uS7IyH3R/lP3wsofkng+h+D6D3U0MPg93e7xf8Aae7v4b+dx2+XK4yj0H+Qd3ZDtvEcrS1W/M7SlFktg9A8SKvrY07YK9kiSN8KVrF7HfEd3tRPNqpyVwARnFumPF7d05UPTnmF1mvttpKd0S3GniWhnbKk6zRTw8PesUkb1a5rkcvCtRf7jB3Xp53VluPv17nHVFcbjhtRF6LWsosZp6G9V9L6nQzXBsjmIjm/Fc+KnjeqKvDkVeToIASyu0NaffJ1tm9guUVptut7XX2qks8VH3NmhqIo42IknenhoxI08u13dz60Mrq/VfvbXjO7t+Xvyj7tclmyHw/RfB9E8SKKPwee93iceFz3cN9fHHl578AIRqfpOxrT2+c+3Ji1+e2251RxxOx1aTiGgqPFWWeWKTv47ZXuVyx+GnDnOXleeE8lL0+7BwCatpNDbsXE8fr6mWr/ACBesejvVFQSSOV0noSpNBLA1XKrvDdJJG1VXtaieRcwBLdSaKi1vkeQ7ByHOb3meaZXFTU91vFxbFAz0enV6wwQU0LWxwxMWWThPjOXuXlylSAAHyB6W+g604HguCdS27ai4PtOQz0c3fZLrPST2OgrYIHW66JNTua9qtnkRkyKvEbJEk54jdz9fiPdM9nteQ9IOqbBfKGKtt1z1tYqOsppm90c8ElrhY+NyfOjmqqKn6lAsIJRpG8XfH57ro3MLhJV3nC2ROtldN+fdrDIrko6hVXzfLGjHU8zvWssPevCStKuAAAAAAAAAAAAAAAAAAAA516/LPRZD0zXywXJrnUlzutmo6hGu7XLHJcIGORF+ZeFXzOiiRdVGB5XsjT9Ti2F2r8o3SS72mqbB48cPMUNdDLK7ukc1vkxjl455XjhOV4QCXYBlF9wfCdk9LGxbjLVXzCsZrqnG7lOju69Y66CRtPL3Lz3zQ+UMvnzy1rv8YrfSx+jbrH/AIq23/m7DV+r7R2UbWwP3Rapmho9lYxDUusFQ9zWMqo54ljqaGVXKjVjmjVU+Mvaj0Y7y4N90Fi99wnSOC4hk9D6Fd7Nj9DQ11P4rJPCnjha17e5iq13CoqctVU/UoG/AAAAAAAAAAAAAAAAAAAAABKupb5OrR9oGCfzVayqkq6lvk6tH2gYJ/NVrAqoAA1rY+u8V2rhtxwXM6F9Ta7k1qP8KV0UsUjXI6OWKRvxo5GPa1zXJ5orUUllVojd94s8mD5D1SXSpxSaL0aZ1LjdNTX6emVOFikuKSLGiub5LJHTMk9ao5FXkvAA0K86Zw+s0tW6MsVGyy49NZH2SkZAzu9EjWNWse1FVFc5q8O815VU5VeV5PV1Dpqk1jpmg1Jcr27IXMpKmK6XOWmSF1yqKl731E7o+53ar3yPXjud6/WpRwBHdH9PEemdN3HVTsxnv1Vc31r6i8z0aRSSeM3w4u6NHu58KJsUafG80jRfLkzWvdJ2PEtA2LQGS1EWS2q2Y5FjlZNLS+C2uhbCkTnLF3P7O5PPjudx+v5ykADlnHuh33L9MOUdN1s2rUSpfrzJdaW+VlqWeWkatRFLHG+JZ08dWpEjVf3s7ueeE9Rs8equsWKNsTOrbEu1iI1P+1Y31J/5yL+AJWmlLhUbwxXd13zNlVXY9iFXi9TSMtqRNrZZ5oZXVSOSRfCTmFU8Ptd+d+d5ef8ANw6M98nKMK2HjWUJi2YYPcfSKK6pQ+lJUUUnlVUM0aSRq6KVvH+N8VyI5EXjhaqAAAAlXUt8nVo+0DBP5qtZVSVdS3ydWj7QME/mq1lVAAAAAAAAAAAAAAIL1bf9wat+02wf/FeZfdvwwfyzb/g4e87+SfRnflD3b/lT0j0ju8vC9D+L2dvHPd58/wBxvOwbpr200tlm2FSUVSye90dNaI6i3LWyLc3v4p1hjax7kkavc7van9m1r3uVrWucm1Ac102P0uV9XGX4zm1voq6G66nt1HdKZjVWnlSStnbK1qO8+xeXcc+fHHzkXsdfk+u+pvS/TBmjq6ufhd3u1di95m7npccekt8rIGySL654HIsLvNVVGsd853YzH7DFfZcojslvZeZ6ZtFLcW0zEqpKdrlc2J0vHerEcqqjVXhFVV4PHcMVxe7Xm25HdcbtdZdrN4n5Or6ijjkqKLxE7ZPBkciuj7k8l7VTlPJQMoAAAAAAAAAAAAAAAAAAAAAAAAAABpO7/kZzv/i3cv8AmzzdjwV1DRXOinttyo4Kukqo3QzwTxpJHLG5OHMc13KOaqKqKi+SooEKxX37vgpa694D3D+6n3P2fj3Yel/k/wBH9GZ4n/cv9p3+rj5vXyabsb34vC0D7+3uN913vnw+ke5L0r8m+F6NVeF2elf2vd28d3Plz6vI6lt1tt1nt9NabRQU9DQ0cTYKampomxRQxNThrGMaiI1qIiIiInCIh4Lpj9hvk1BUXqyW+4S2upStoZKqmZK6lqERWpLErkVWPRHORHN4XhV8/MDg/rVt1f05Y5sN9qoaiXXW5o2smgga57LLkyyMXxEb6mQ1TGL3epElZz/jHedk/wDoWg/+6xf/ANCGAhqtcbjx+6Wqqt1uyS00lyntVyoLpbe+NlZSy8PjkgqGJ5tc1rmqreHNVj2KrXNcu1MYyJjY42NYxiI1rWpwiInqREA/QAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEqyP9KfXn2f5l/EccKqSrI/0p9efZ/mX8RxwCqgACVbk+UXRP2gVn8q34qpKtyfKLon7QKz+Vb8R/q9v1kp94ajxjOt233W+HXWjvclyrLfmMuOxyzRRwrAkk7JI2qvcq8I5fnXgDrUHMem8f6cKrYNun1t1h5Pnd7okkqY7I/cMt8inYjFa9ZKP0h6SMajufNqoioi+SohpnTLnmwaHqa2FZ8yze/XvHMxv19pLDS3Guknp7VVWudvdT06Pcvhtkgn7uxqIn9ioHZ4OPN853n1f1bavtOKZreLViuN5HQWa90FDWSRU91ra6CefwqhrHIkjYoYYndrkVOZ+T2LJret3Z1H7poMk29tW00GMV9pp7ZQ49m1wtlLAyWia9/EUMiM5V3nyifOoHXYOMH5JmmuL1vnUNg2zk+WWLGderf6C5XS5LVXKw3KSOdq0y1qcSPVWxtlaj1V7OOefNDqDT1dW3PU2GXK5Vk9XV1Vgt80888iySSyOp2K57nO5VzlVVVVXzVVA28HOtZcMq6hdy5nr215/fMUwbXElLbrp7nqn0S4Xe6TwpO6N1UieJBDFG+PyhVr3OevLkROD1717r+mTYWEejbAyPKNdZrd48ar6HJrg+41dorpmOWlqYKyXmZ0bnM8N8crn+bmuaqeaKHSQOdrBlGQ6P6hbpr7PspuVxwrY/jXrEbjdq58/5Nr4md1Za/EkVVbH2N8aJvPCIkjU8kNXZkef7A1/t/qUZll+tWPVOM3ChwK2U1fLBCyigikX8rLGxUTx55E7o3ry5sbWcKncoHWIOB9Y/BYveuMXvGZf4QDLKS/V1opKi5wSb6mgfFVPiasrXRrVcsVHKqdq+aeo23qmrrHiDunjEKjfmVY3gl1vNZS3bJmZzPQzVlG23SSQvqLkkrVkRZEjVHvcvcqp61UDssHK+rsf6Za3PLQmA9aeU5hfIJ/SKay+/RLd21fYiuc19J6Q9JmcIqq1WqnCcnVAAHOfWU691seqcVtWZZNjlPkufUVquNRj94nttVJTPhmV0fjQOa5EVWovHPHkhrm3taZd0y4BdN5ax3Xsm7rh0X5Vu1hyzJJr3Q3W3xqi1ESJU9z4ZPD7lY+N7eHJ5ovIHV4OKeoXNcTv/AFK62tWe7+yDWuBXzX1devFoc4mxuCorPSafwO+VssbXv8OSThF5VURf1FC0tjHT7cctldq/q4yrPrpFQzpLbPfblvzGQvb2LMtP470RWq5FbJx8V3HCgdKA4u2P0+pjO59U4Ra9971ba8unu0dya/Zd2c9yU9J4sfY7xfi/G9f6yl7Zo6/QuipsIwTMsxvGR5hdoMfsVdfL7PcrjDV10jY1kZUTOV6NijSSVPP4vYqoB0MCHdKuS39thybUGbX+43nJdZXuay1FwuUr5aqvopESeiqZJHqrpHOgka1Xqq8ujd8/kRi/7Az2HRPVJd4c2v7K/H8yraW0VTblMk1vhalL2x07+7uhYnc7hrFRE7l/WB2wSrcnyi6J+0Cs/lW/FJs73y2mikke57300bnOcvKqqtTlVUm25PlF0T9oFZ/Kt+AqoAAlXUt8nVo+0DBP5qtZVSVdS3ydWj7QME/mq1lVAAAAAAAAAAACVdJ36LGm/s/x7+HQFVIpifTllGDYrZsKxbqj2rRWXH7fT2u3U3oWMSeBSwRtjij732dz3drGNTlyq5eOVVV8zLe83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYe83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYe83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYe83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYe83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYe83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYe83sX62O1fu3FfYwFVJV0nfosab+z/AB7+HQD3m9i/Wx2r924r7GN117hVq1rgGNa5sVRVz23FbPRWSjlq3tdPJBTQshjdI5rWtV6tYiqqNanPPCJ6gNP3di178C1bZwS1SV2YYI6WqpqOBESa722RG+nWxFXy5mYxjo+fJJ4IFXyRed7xXJ7HmuNWzLsZr4621XikiraOoZ6pIpGo5q8etF4XzRfNF5RfNDKkaxZW6a2zUa7qJvCxHYNRU3bF+9UbHQ3fh01fbGInqbKiSVsSfr9MTyRrEAsoAAAAAAAAAAAAAAAAAAAADScEza65TmOxrDWU9Iyjw/IKWzUb4mOSSRH2mhrXrIquVFcjq1UTtRqdqInCryq7sSrRn9vfdt3P/v3YFT5/r8G20FN/+r8f5iqgAAAAAAAAAAAAAAAAAAAAAAlXUt8nVo+0DBP5qtZVTVNna9o9oYhJiVbfrrZP9kLbdKe42vwPSqWqoa2Ctp5GJURSxLxNTR8o+NzVbynHmBtYJV7zexfrY7V+7cV9jD3m9i/Wx2r924r7GAqoJV7zexfrY7V+7cV9jD3m9i/Wx2r924r7GAqoJV7zexfrY7V+7cV9jD3m9i/Wx2r924r7GAqoPkt1YdSXW7pPaC4/qbqXmzzGbjcWWu3VNLjFpqZqetd5JQzzR25sEtTzzyyFVcicdzWKqIvdustPdRc2A2OfbfVdnUeYTUjZbvFZbRjMdFDO5Vd4USSWqRyoxFRiuV6o5zVciNRUagXwEq95vYv1sdq/duK+xh7zexfrY7V+7cV9jAVUEq95vYv1sdq/duK+xh7zexfrY7V+7cV9jAVUEq95vYv1sdq/duK+xh7zexfrY7V+7cV9jAOpb5OrR9oGCfzVayqkfr+n6/3+S2w5f1GbKyC2268Wy9rbaukx6GCpnoK2Gsp2yOprVFMjPGp4lVGSNVURU58ywAAAAAAAAAAAAPHUVFPSU8tXVzxwwQsdJLLI5GsYxE5VzlXyREROVVTyEZ2VJLuXNnaHtci+5q2Mhrdgzo1e2amkb3U9na5F/PqE4km/3NMnavHpDFQP3rKmqNt5j7/l7p5YrNTQzUGB0cqKiegSceLdnMX1S1SIiR8py2mRnqWaRCxn4iiigiZBBEyOONqMYxjURrWonCIiJ6kQ/YAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAR3MFdqHbdFsuJqsxXPJaWw5Tx5Mo7knEVuuLlX1Nf8AFopF+dX0irwkblLEYnLMWseb4zdMPyWhZWWq80ktFVwO/wAeKRqtdwvzL58oqeaKiKnmhpGj8ov1RbrprTOq59Xl+Bzx26vqpPz7nRvarqK5Lx5czxN5fx5NnjqGJ+YBTQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJVkf6U+vPs/zL+I44VUlWR/pT68+z/Mv4jjgFVAAEq3J8ouiftArP5VvxG+q/MdXYL1LaTyHcVzs1BjUVvyGOaa7xtfTJI6KFGIqORU559XkWTcnyi6J+0Cs/lW/FVA59171H9E1+zG22DWed6/myW5y+i0ENrpY46mZ7kX4jFbGi+ac8+fqI3FFLY9Y5/t+ihfJWaw3PdsmckbFe91EyVsVcxqN815ppZl4T1q1DuYAcWVlBUzWnRefXSF8dz2BtpmU1KSM7Xsjqaap9Gjci+pWUzYGcf8ABPPivTxpPdnVFvuv2vrazZPUWy42WGjkr4lesLHW9qua3hU8lVEU7MAER2PqvW+pOmfZGO6ywey4xbn4zdJZKe2UbIGyv9Fene9Wpy93HzuVVNK0z1sdKNHrfCcXqd6Ywy7Q2a3UL6Tx3LIlQkLGLHwjfzu7y4/WdRgDmOlvVt6YN4bFyPYEFXRYHs+ro79S5M2CSajt9xjpm089NVuY1fR2ubFG9kj+GLy5FVFREX183zG0dVeea9xLUfjX3DsYyGnyvIsqhgelsT0VHLT0dPO5EbUTSSOaq+ErkYxq9yoqoh1IAObf8INZbVeem24flOijnWmvVnfC53k6Jzq6KNytcnm3lj3tXhfNHKnqUom96GjtnTfndut1LFTUtLh9whghiajWRxtpHo1rUTyREREREKcAOJ9LdSnQNadQYVa8mzrWUV3pLBQQV8dTRROlZUNgYkiPVY15cjkXnz9Z++qPaGkanJOmTZdfkVgl1t7pbnItwmjRbf6OlsnjZ8VW8dvf2tTy4544O1QBznh3Uz0K3HKLZbMGz7XTr/W1LKW3st9JGyofNIva1rFbGioq88ev5zow/ju7tXtVEdx5KqcpySeawdVrppHU+2dTsiVyrG1+vLk5zW8+SKqXpEVePn4T/IgE764cqx3B/eay7LbvT2uz2rY9BU1tZUO4jgiSCflzl/UYPeXUlrbqE1dfdJdOeSuznKs4plsTH2Wmnlp7XBOqMmrKqo7UjhZHG5zvjORyr2oiLydI4HQ7OoaSqZs7KMXvdU6Rq0slhsNRa444+PNr2TVlSr3c+aKjmpx5cL6zaAOItzZBpvTfV1qqPc16sVDjNt1bcbVDUXqJskDp2VdK2NOHI5O5WseqeXzKWXVvUL0cZZmNLjOos2wWqyS4tfHT09opmR1ErWt73oitYi8cN5XlePIvAAgu5/0ltB//AHvIP4eaTt7Hsu6guqS1YVg+xazD6fTtqS+1N1pLXS17m3ivR0UESMqWPi7m0zZlXlqqnipxxydYADjmkxXPum3qlxPOc923cM5te26d2H3S4V1oo6BaWugas1u5bRxxxqjv7ePucndy5qc8cIaXlM0VP05dX08z0ZHHm9we9y+pGolIqqd9ACD4V1qdKuRT2TFLHvHGa271/o9FTUcM7nSSzuRGtY1O31qvkbHuT5RdE/aBWfyrfiqkq3J8ouiftArP5VvwFVAAEq6lvk6tH2gYJ/NVrKqSrqW+Tq0faBgn81WsqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA0/ZuNYhm9oo8Nye+/kqrr62Kps1RT1UUNfFXUzknjlpFkR3MrPDVyp2uRWI9HIrVci7gch5JgGbWbq91Fm+w8/lv9yu1fkdPQUFLD6PbrVb20bnRQxRcqr5VRWrJM9eXKnCI1qIgHXhi7flOMXa8XLHbVkdrrLrZljS40NPWRyVFEsje6Pxo2qro+5PNO5E5TzQyhwFfaDKNd9Tm5+p/Ckra5+F3e00OU2aHuelxx6S3xPndHGnrngciTNXhVVGvb84Hdr8gsMV9ixeS929l5npnVsVudUsSqkp2uRrpWxc96sRyoiuROEVUTkyBzlDkFnyvrHwfJseuEVdbLrqyurKOpidyyWGSup3Nci/3oqHRoAAAAAAAAAAAAAAAAEq6dP7fGsuuf/fuwMr8/1+Ddqim//V+P8xVSVdMX9pqKCt/+0cgyS48/r9IvdbNz/n8TkqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAYHNc7w/XVikyXOMiorNbWSMhSeqk7fElevDIo2/nSSPXybGxFc5fJEVSdrdNy7hd4eP0tdq/D5PzrlX0zFyO4RryipBSyIsdvavzSTpJN/wCBiXhwG05/uLEsBrYMee2uv2U10Sy0GNWWFKm5VTUXjv8AD5RsMXPrmmdHEnzvQ1Vdb7H243x913lLFj0ju5uF47XPa2ZqLy1LjcG9ktRynk6CHw4fW1yzt8zecA1jhWsqKqpcRs6QT3GVKm53CeV9RXXKoROPGqqmRXSzyceXc9yqieScIiIbUBqFZqPWldLiUk2F2xkeCVTq3HaaCLwaa3TLE6Lvjgj4j5Rj3dvLVRqqjm8ORFTbwAAAAAAAAAAAAAAAAAAAAAHo3u92nGrNX5Ff7hBQWy100tZWVU7u2OCCNqufI5fmRGoqqv8AcBqW3dhV+C2KlosXtsV2zDI6pLXjlse7hs9W5FV0svHm2nhjR80rk9TI1RPjOai+/rDXtDrPEoMcguE90rZJZa663WpaiVFzr5nd89VLx5dz3L5NTyY1GMbw1rUTUNR2K55pkFVv/Nbc+mr7xTLRYrb6mLsms1hc5r2o9q/mVNS5rJpk9bUSCJf9pVVrYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJFu2iqsJulp6g7DTTSz4nC+jySmga576/HZHI6o4Yn58tM9ramP1r2snY3/blK6fl7GSMdHIxHNcio5qpyiovzKB46SrpLhSQ19BUxVNNUxtmhmhej2SRuTlrmuTyVFRUVFTyVFPMR3UD26uyy5dPNaqRW2igfesHc5eEfZVkRstCz9a0Ur2RonzQTUvrVHFiAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEqyP9KfXn2f5l/EccKqRTamRRYNv3X+a3fH8rrbLDh+VWuapsWMXK9eBVT1tikhjlZQwTPj72UtQrVciNXwnJzz5AWsEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZwDcnyi6J+0Cs/lW/FVOatl7txfIM01PdrRhu1aikxnMKm6XST3q8nZ6PSvsF2pGycOoEV/M9XTs4aiu+Pzx2tcqUD4S2uvo5tX8J8q9nAVUEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZwFVBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cBVQSr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nAVUEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZwFVBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cBVQSr4S2uvo5tX8J8q9nHrV3VPqq1wtqbnatm0kL5YoGyT6ryiNqyyPRkbEV1vRO5z3Na1PWrnIieagV4Eq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZwFVBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cBVQSr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nAVUEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZwFVBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cBVSVbk+UXRP2gVn8q34fCW119HNq/hPlXs4n+y924vkGaanu1ow3atRSYzmFTdLpJ71eTs9HpX2C7UjZOHUCK/merp2cNRXfH547WuVA6VBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cA6lvk6tH2gYJ/NVrKqc67a21YNlWCw4hiGJbKnuU+cYfVolXrbIaGCOCmyG31NRLJUVNFHDExkMMr1c97U4Yp0UAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJJs3BcqyHeGosws9q9ItGL1F4fdqjx42ejtno/DiXsc5HP7n+XxEXj1rwnmVsARXPujPps2hs6m3JnOt/ynmFJJSzQ3L8sV8Pa+mVFhXwop2xL2q1PWzz48+T2tU6+ybH9tbmyLI7M2Kz5fdbbPa5HTRSNq4Y6BkUqqxrlc1Eeit4eiKvzIqeZYDVdnXfNcewuvyDALJBe7ta+ys/JT2Kslwp43o6engVHtRtQ+JHtic7lviKzuRUVQOc9M9NmytQ9V9ddKRjKrUdFjdbTYxItRH4lrkqquOeWgViv8RY2va90ao3ta1yN55Tg62MViuT2PNcatmXYzXx1tqvFLHW0dQz1SRSNRzV49aLwvmi+aLyi+aGVAAAAAAAAAAAAAAABzf14Z1u7Uemmbm0ldokqMLr2Vt7tFTRsnp7nbZEWJ6P+L4rfDe+OTmN7OGo9V54RUDe+lX+06c9e1v/ANo2OnuPP6/SE8bn/P4nJVTkD/BmZXu3PdC2/Ktlrb7fitLbbdjuGWikofCc2it8ToH1skjlc+R0yoxvCqjUWByta1H+fX4AAAAAAAAAAAAAAAAAAAAABgLzneI4/ktiw68XyCnvWTPnZaqJUc6Sp8GNZJVRGova1rU5VzuE5VE55VEXPnI+SahoMG6t9R5pcckvGS5LkdxyJam5XOZF9HpEo3OhoqeJqIyGCNHcIiJy5eXOVyrydB3/AHdpfFMnjwnKdvYVZ8imdEyO0XC/0lPWvdKqJGiQPkSRVeqp2oiefPlyB5rBtvXWT5/kWrbHlEFTlWKRwS3e2LFJHLTxzN7o3or2o2RqoqebFciKqIvC+R+8hzi2MyCXWNkv9JR5xcLHVXa1Q1lDPPA1jFSJJ5Ozsa5jZXs7o0lY9yc8Kn5ycb5FgmS03UDuvqE1dRS1Oca6v1qlWhiVEW92Z9sjWsty8+XLmp4kfq4kjb+sq+M53jmzerDX2fYjXJV2i+aqr6ymkT1o11fBy1yfM5q8tcnzKioBV8M0nYrBe484y67V2a5o1rmtv15RjnUjXfnRUUDUSGji+biJqPcnHiPkX4xRgAAAAAAAAAAAAAAAAAAAAAAAAABF8kV289lOwCBHuwTBayCryWZO10N5uzeJILX/AMKKD+znqE9SvWCJeU8Zqcw9e3W5sLpm6j8UxDEJZZ7bdcMnfW0rYEqFiqKmqkjgrI4VVEkmh9Gc5saua16OVrlRHdydddN02N1GmMcnxTDcqxe3yRSyJQ5VR+jXZ8jpXukqapvc7ulnerp1f3L3eL3LwqqiBTAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABPN14XfMlx2jyTB44vdph1Wl6x5ZJPDZUTMa5stFI/1pDUwukhd8yd7X+tjeNkwLNrJsfDbTnGOvlWgu9M2ojZMxY5oXeaPilYvmySN6OY9q+bXNci+aGfPlnsLrL2przqcs+mbDrvItZ27Ls+sd4vtFd0ifIjn1SMr20k0bnRSUtX2xvc5i8d7Z1RV8Z3aH1MAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD53/4U+DqG2fJjGqNP4VfPc/aLha7ldb33JRU1Rdq2tZQ2ylhqJXMbI5k0zXPRjnI1Zonu7fDVU+iBKupb5OrR9oGCfzVawPb6dM2zrPtO47fdn4jdMazCKB1BfaC4UbqZ3psDlilmjaqIjopVZ4rHNVW9siIirwpSgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAI3iyt01tmo11UTeFiOwKipu+L96o2Ohu/Dpq+2MRPU2VEkrYk/X6YicI1iFkNS2ngEGysLrMa9Pkttwa+OttNziaiy224QPSSmqWc/OyRrVVPU5vcxfJyoetqHYFVsPD2197t0VsyS01MlnyO2RPV7aG6QcJPGxy+bo15bJG//Hiljd/jAartB+b3/dGEa5xraOQYXbbji+SXuulslJbJp6mejq7PDA1zq+kqWtYja6oVUY1qqqt5Xy4Pb95vYv1sdq/duK+xhkf6U+vPs/zL+I44VUCVe83sX62O1fu3FfYw95vYv1sdq/duK+xiqgCVe83sX62O1fu3FfYw95vYv1sdq/duK+xiqgCVe83sX62O1fu3FfYw95vYv1sdq/duK+xiqgCVe83sX62O1fu3FfYw95vYv1sdq/duK+xiqgCVe83sX62O1fu3FfYxjsj6essy3HrpimR9UW0a603qint9fSyW7FkbPTzMWOSNeLOi8Oa5yLwqL5lmAEXxnp3yjDccteJYx1P7Qt1nstHDQUFJFbcW7IKeJiMjYnNmVeEa1E8158jJ+83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKtF3DL/yts/Estzu65b7kswhtduuN0pqKGq9FksdqrVjelFTwRO4mrJ+F8NHdqoiqvBVSVab+UXe32gUf8q2EqoAA9C/X+xYtZ6vIcmvNDabVQRLNVVtdUMgggjT1ufI9Ua1P71UD3zGXHJsdtN3tVgul8oaW53ySWK2Uc07WzVj44nSyJExV7n9sbHOXhPJE5Ul67B2btxvo+mbQuNY7I5EdmeRUD0dOznzW3W5/ZJLyn5tROscXqc1k7fI2zAdP4fr6tqr9SNrbxk1xjSK45JeZ/SrnWMReUY6ZURGRovqhiayJv+KxAMVsDWd+yvb2sc/t1XQR2/C57pJXxTSPSaVKml8KPwkRitdw7zXuc3y9XPqMvf8ASOl8ryePNsp1DhV4yKF0T47vcLBSVFax0SosapO+NZEVionaqL5ceXBuoAmOs9Y37DNn7TzW6Vdvloc4udvrbfHBI90sTIKNkL0mRzERqq5qqnark49aovkTbWvSfeNW9VV829jmQUSYDdLNVQ0dgc96S2y4VNRHNU+CxGdiQSPYsn5/KOcqI3jzOlwAAAAAAAAAAAAAAAABNOoe+ZNYNbRTYhklXj9yuOUYvZEuVJBTzT00FffaGjqHRtqY5YVf4NRKiK+NyIqovHker7zexfrY7V+7cV9jDqW+Tq0faBgn81WsqoHOuAYhtrKsr2VYrh1U7Kjp8OyiCyULobXi6PkgfZbZXK6VVtCor/FrpWorUanY1iccornbr7zexfrY7V+7cV9jDTfyi72+0Cj/AJVsJVQJV7zexfrY7V+7cV9jD3m9i/Wx2r924r7GKqAJV7zexfrY7V+7cV9jD3m9i/Wx2r924r7GKqAOdJ+jKhq9m+/LX772JWZmyjhoIbvVWzF55aaGJXqxIGvs6shdzI/l8bWuXuVFVUN295vYv1sdq/duK+xiqgCVe83sX62O1fu3FfYw95vYv1sdq/duK+xiqgCVe83sX62O1fu3FfYw95vYv1sdq/duK+xiqgDnXAMQ21lWV7KsVw6qdlR0+HZRBZKF0NrxdHyQPstsrldKq2hUV/i10rUVqNTsaxOOUVzva2Rju0dX2myZbRdSewL3/wBmGLWuot10tuO+i1VLXXyioqiN609rilTmGpk4VkjXI7hefI2vTfyi72+0Cj/lWwjqW+Tq0faBgn81WsCqgAAAAAAAAAAAAAAAAAAAAAAAE06h75k1g1tFNiGSVeP3K45Ri9kS5UkFPNPTQV99oaOodG2pjlhV/g1EqIr43Iiqi8eRSyVdS3ydWj7QME/mq1gPeb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsY0/ZHR7Ht2jt1DsbqC2Re2WeuiuVukltuMMmo6mN7Xtkhljs7ZI15Y3ntciOROHcoqodCgCVe83sX62O1fu3FfYw95vYv1sdq/duK+xiqgCVe83sX62O1fu3FfYw95vYv1sdq/duK+xiqgCVe83sX62O1fu3FfYw95vYv1sdq/duK+xiqgCVe83sX62O1fu3FfYw95vYv1sdq/duK+xiqgCf8AT1lN9znQWtM1ymu9NvWQYfZrpcanwmR+PVT0UUksnYxGsb3Pe5eGojU54RETyKASrpO/RY039n+Pfw6AqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAn+8MWvuYYXbbTjlD6XV0+YYndJI/FZH20tFf6CrqZOXqiL2QQSv457ndvDUVyoi0A5G6beprYl73LmGs9yzRSWy7ZNeaTArq2COJsraGbsnt0ixsa3xWN7ZGK7l729/Kr2gdcgkWE55ld36ktm4Bcbr4thx60WKqttJ4EbfAlqGTrM7vRqPd3Kxvk5yonHlx5ldAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEb2L26f2RR7rp++PHMh9FsGasbyrIPj9lvunank3wpJPAmf8A7zKx7l7adCyE06h8b2vlurbrYdPVuLMvVXHJDPR5LQvqaG40b4pI5aV3Y5qxq/vaqP8AjJ8VWqnDlc0MZfbjb6nqzwW3U9fTy1VHr/L1qYGStdJCj7hjis72ovLe5EVU59fC8FePlN/g4LDvDHevHNbd1C0N3pcwi11UQSJcl73Ppoa21wwLHLyrZY0ZGjUka5yO7FXuVeVO9Osq/XzF+ljaGQ4zea60XW343Vz0ldQ1L6eop5Eb5PjkYqOY5PmVFRQLKDi/Dce6VcidZaG39eeZV97uCQMjoKffE8001S5E/s2wpVKrnK5eOzhVX1cFLya6ZluPd930hjec3nE8TwW1UVXkdws8rI7nc6yrR6w0jKlUc6njbHH3vexEkcr2o1zeFA6FBzLncOTdKFyxjNrRsfKsiwC63yix/IbRlN1lustF6ZKkMFbS1c/dO1WzPYj2Pe5itdyiNVDLZFc8x3jvDItR2HOrviOG4FRUb79U2KZsFyutwqmukjpm1PCup4Y4mtc5Y+JHOeiI5qIvIdCA5nzFmU9K2R4jktt2Lk2R69yG+0mN3y15TdJLnPbpat3h01ZS1c3dPx4qtY+OR72qj+W9qp56Z1d6dqcNsNBneM7u3Lb6+/51YrbUwU2wLlFSRU1dcYop44YGSIyJOyRyNRqfF8uPUB2WDk7qE10ug+m3OrxjO49nrNWPtjJLles3rqqegi9NibI+CeSTup+WPcjnNcnKJ5+o0DK7zq7DrdQXnps6zsqzjYS3GiitmM++UuVR3bvmY2WCWifJKqR+Gr1dKiN7Eb3K5EQDvAEh6nc3vuJaoktuK1E9NlWYVtJjFlfTP7ZYauskSNZmLyiosUfiS8p6vD5MZ0q5Lf22HJtQZtf7jecl1le5rLUXC5Svlqq+ikRJ6Kpkkequkc6CRrVeqry6N3z+QFxBCejDI8hynTtbdMnv1xu9YzMcnpW1FfVPqJUhiu9THFGjnqq9jGNa1reeGtaiJwiHs5/kF+ouqvU2O0d7uEFquVkyKWtoYql7aepfEynWN0kaL2vVvc7tVUVU5XjjkC2gAADifPrrrK8dUGyrFujqnyTXNDaaKyOslup9mzY5TvSWB6zuZCk7GvXuRvKonrXz9Zs+bRYlg/R9uHNtG9QGV5oz3OXCalv0meT319DVQ07uPRqrxXrC9FVFVGORUVEX1gdYg4l3jlNunyjp5s2yN7ZFgGL33GK2qvFypM0msCVVSykpnRLNUpKxHuV7ncdyqqq5f1m/abx/pwqtg26fW3WHk+d3uiSSpjsj9wy3yKdiMVr1ko/SHpIxqO582qiKiL5KiAdOAivS/kF+yCi2Q+/XuvuTqHYd7oqVaupfMsFPHI1GQs7lXtjai+TU4RPmQ03q6ivl+2doXXtDnWXY1a8rye5Ul1fjd9qbXUVEUdtmmYxZYHNcqI9jV4XlAOnAco7TwvL+lPH6fc+Bbi2BkNnsldStyTHsvyCW8U1ZbppmRSyQyVCOlgmjR6ParH9ru1Wq3z5Oq4Zo6iGOoid3Mlaj2r+tFTlAJbpv5Rd7faBR/wAq2Eqp81utHrDk6eKfemu8CvElPsLNM5pW076aRWz2u2ri1iZLVtc34zJHKjo4neS9ySOaqLGW7pszaDrc1zTZLkeyHLjttbDRXDDbHUVMEyztaiol1rXIyedXoncsMXZCqKrXunTlQLNet4LervU4dpLH0zm+0siwVtayo8Cx2mT5/Sq7hzXPavrggSWZP8ZrEXuT+2HR7bleKfM9z5AudZFTSpUUUEtP4Fms8nH/AO5UPLmo5F9U87pZ/Xw9qL2pR7LZLNjlqpbFj1oorXbaKNIaajoqdkEEDE9TWRsRGtT+5ERD3QABLt49TOkenSz/AJW2zntBaJZI1kpbc13jV9WnPCeFTs5e5OfLvVEYiqnc5PWBUQaZpzZMe4dZWDZ9NjN0sFJklOtdRUN0SNKlKRz3eBK9I3OanixJHKiI5eEkROeTcwAAAAAAAcXb62ttzV/VwuZWC8XO46/xLDaKvy3G45nvjdRVFZLFJXQw93YksHDZHKidzo2uTzA7RBCNq5rWz7c0BJimUVSWPJrpc5J20VW9tPcaf8mvki8RrV7ZWovDmo5FRF4VPMu4AAAAAAANM3HsmPT2sr/s+pxm6X+kxunbXVtDa0jWpWka9vjysSRzWr4USySqiuTlI1TnkDXepb5OrR9oGCfzVayqnLOS9TOkeovUVou2ps9oLvLHnmByVVuc7wa+kT3VWtF8Wnfw9qc+XeiKxVRe1y+s6mAlWm/lF3t9oFH/ACrYSqnC29r7T2jMcqo7zs274Hj923taqK+Xe3ZFJZHR0a4baHOR9Ux7Oxnc1vrdxyiGXx694djW2MAoOmvqmyTaU13vHouS2Gpzj3V00Vo8J6y1b3OfI6jWNyR9r+9qOV3bw5VA7SBz3kVzzHeO8Mi1HYc6u+I4bgVFRvv1TYpmwXK63Cqa6SOmbU8K6nhjia1zlj4kc56Ijmoi84vMWZT0rZHiOS23YuTZHr3Ib7SY3fLXlN0kuc9ulq3eHTVlLVzd0/Hiq1j45HvaqP5b2qnmHTAOc1rso6jduZxhtDsC/wCK4JresgstZHjtV6FX3i6vgbPKj6tqeLDDEyWNqNhcxznKqq7hODx3CTL+mnZuDWxmeZFlWu89unudmpskrnXCts1xfG99NNFWSf20kMixrG5krpFRytVqonKAdIA5NsfUbFq124K3Lbrc8iusmyp8ew/H3ViyVFbUPpqbwaKlbI7iOPuernKnDGIrnL/fmL9i229e9N+1djbE2Rd6rYF5x+uuUjLdc6iO3WBzKdyxU1ujRyJH4flzMiI+RyK5V9SIHTQOJd/ZNvl2FdNdRpzMbhHlVcxblUU01dKkN+WC1JO6lquF/tUl7XJy9HcOcjvWnJve5t5Mz7pNots62vtzs0twu1mhlWmqX09XRTflKCKqpJFYqOa5q+JG9vzpyi+SgdPggGZXzNtv71uWj8WzC7YhjGH2ilueTXO0LHHcK+pq3O9HooJnNcsDEZG58j2Ij17mo1zfNTKW/Rud6/yyw3zWG48rrLQ2s7MhsWY3uovMFXRuavL6eaoSSeCoa7tVvEiRqnKK31AZbTfyi72+0Cj/AJVsI6lvk6tH2gYJ/NVrGm/lF3t9oFH/ACrYTwdUdbR23V1vuNxq4aWkpc7weeeeeRGRxRtyi1q57nL5NaiIqqq+SIgFcByjev8ACO6GqNvY/pfV9xizW73a4spq66U9ZHS2a2UyfGnmdWSfFlVkaOe1Ikc16p296KvB0H77GrP2l4r9803+mBtYNU99jVn7S8V++ab/AEx77GrP2l4r9803+mBtYNU99jVn7S8V++ab/THvsas/aXiv3zTf6YG1g1T32NWftLxX75pv9MP2Lgl4p6m32DO7DW3CSmmdBBR3SGSZytjc5Va1jlcvCIq+XqRFUDawcX9Be59jpZ7NrLeWQ1l6rcrt82S4bfa2d8slfR+K5tRQySvcrnz07kR3n643t48mlT0bsFKbINyzZ7m/hUNu2JU223Pu9z7YqaJKSB7aeFZXcMb+e5GN4T85ePWBfQap77GrP2l4r9803+mPfY1Z+0vFfvmm/wBMDawap77GrP2l4r9803+mPfY1Z+0vFfvmm/0wNrBqnvsas/aXiv3zTf6Y99jVn7S8V++ab/TA2sHMO6ev7T2hNkWHF85clTi2RUSywZRZKyK4xUlUyRUlhqaeLmRjUYsTkezvV3eqIz4qql9wTYeC7QxyDLtd5basjs9QqtZWW6qZPGj0RFVjlavxHpynLHcObz5ogGwkq6lvk6tH2gYJ/NVrKqSrqW+Tq0faBgn81WsCqgxWV5HQYfi93yy6qqUdmoZ6+o49fhxMV7uP8zVOfdX61zbfWBWvbu1NtZ/ZrnlVO27WyzYxfpbRRWOllTup4UZT8elSNYrVe6oWVrnKvDUbwgHS4OStzXnfmA9JGbRZ1ktZDkmPXanorTlFuqm0tVdbctbAkVS9KdyeDK5jlZI1Eaiqir2ojuDpXLKqppsAvNZT1EsVRFZ6iVkrHq17HpA5Ucjk80VF8+QNgBw5Wbgy609JnTpccr2nfsXseZ0lup80zpsiz11LE6iV7VdUytk8F08yNYtQ5FVvK+aKqKlK15jl/wAeyzEso6ft4Xva+A3arfRZVTXnMIb5HRQOie6KupqmRyyo9siNa6Jr1RzX8o1O0DpkHGnV3p2pw2w0Gd4zu7ctvr7/AJ1YrbUwU2wLlFSRU1dcYop44YGSIyJOyRyNRqfF8uPUbvn1treljAJ5te5rm2U5Rm93t2NWRuZ5NVXqGkraiVWNnRtQ9VaxjVfI5rVTv8NEA6UBB5umjK4LS+62zqR2iucti8Vl3qb0slvkqUTnh9q7fQkhV3krGxI7t8kfz5kO3JtjaG8emjAqjDsvuuDZzcc89yl2nsFbNTLHcqVamKaJFa5HLC+WFq9jlVFa5OefWB3SCKN3nLVdK8G5qWBUu9XYI/BpHKiP/K8iJA2nX/helKjOP1nL0OT7PxToHzZcr3HldTkVhzyazVWTyXyeGujhZc4YpO2p7++JiNV6IiORGtXj1AfQwHGNBYekC4z09DR/4QLLairqnsiigi3/ADPkkkcqI1jWpV8q5VVERE81VTac7xas2D1gUWtrrsLP7bj9DrptybSWLLrhaUkqkrvC8aT0WVniOVi8KruQOpQcq3egumh+obVeH4Bs/Ncipc4qq6kv2N5Hkk96WCiipnStuMbqp0k8PZI1jF4ejHeJxxydVASrpO/RY039n+Pfw6AqpKuk79FjTf2f49/DoCqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADjnXGoItzaO2JYaK4OtWRWzaOQ3fG7tGqpJbrpBWK6CVFTz7efivT1OY5yL6zsY1qtqcD1baHVzqK32C33K80tPJ6HQ9jZ7lcayKmic9sLeVfLUTxNdIqet3c9URFcgcw9HGz7ntbf23r3klhmsuR2y1Y/Zb/b5GKiQXKmbUMnSNV/OjV3xmO+drkOwzF0GK4var1cskteN2uju148P8o19PRxx1NZ4acR+NI1EdJ2oqoncq8J6jKAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKsj/Sn159n+ZfxHHDAdc36IG3P+K1Z//SZ/I/0p9efZ/mX8RxwqoGk4hrjXlPY7LX0+B47FUx0lNKyZlrgbI16MaqORyN5RefPn1kjv1yb07dRGVbQy631yYDsa2W9lVfKakkqI7NcqNr40bVpGjnRwyxParZe3sa5io5U5Q6SAHKW3s3xnq49zGodL1kmT2J2Q22+ZLk1DE9bXQUVDUMqEibVK3w5Z5ZI2MSONznIncruEQzNzu8HTf1A5nn+aUFbFgGyqa31EmQQU0lRBaLnSxrC6Kr8NHOhikj7HNlVOxHI5rlbynPSgA5U2nmePdWt0wzV+nJ5MkxuiyW35Jk2UUkT/AMl0dNQypPHTxVKt8OeeWVsbeyNXK1qOVyp5c7J1x/JZiv2kYh/F6c6HAEA67qiho+l/K6u5yRso4J7ZJUOk/MbElfArld/dwi8kV3vt3o02nqS+YXptMZy7YNdS+Hi9Hitn8S5Q3Ty9Hnikii5p+x/DllVWtaiLyvzL3SAOOMvxbZO9t74fr+2bNq8Wr9L4zTXm8XujtlJXuXIK6LwWsaypa+LuSBs7l5aqp4qKnHJ/aTFc+6beqXE85z3bdwzm17bp3YfdLhXWijoFpa6BqzW7ltHHHGqO/t4+5yd3Lmpzxwh2MAOHulPqy6cNVa3vGFbE3Bj1gvtHmuUST0NZO5ssbZLvVPYqoiL62uRU/uU2rc29NRYxvzRe3cgz61UGG3LHsgkpLzNIqU8zZo6ZYlavHK9yeryOtwBONXdRmj913CttWqNl2bJ6u2wtqKuKgkc9YY3O7Uc7lE4RV8ijmv5tSZ/W2hsOuMgx+z3Txmq6ovdnnuVOsXC9zUihqaZ3cq8cO8ThOF8l58tD9z3Vn+13Un4dXP22BpuA4pi2SdVu7XZFjdquqwUmNpEtbRxzrGi00vPb3ovHPCeoy/V5YrJj3R9t+hsFmobbTLiN1kWGjp2QsVy07uXdrEROfJPP+4uNG2rZSQMuE0MtU2NqTyQxrHG+Tj4ytarnK1qrzwiuVUTy5X1nmA4d2zmOrsF2L0xZDuK52agxqLELjHNNd42vpkkdRUqMRUcipzz6vIsGveo/omv2Y22wazzvX82S3OX0WghtdLHHUzPci/EYrY0XzTnnz9R0EAOMtIdUvT1qG57TxHZm2rBjt4TY18qfQ62ZWyeE+Vva7hEXyXhTy9Te6tVMzjpj3O/OLY3CPdTdan8uOeqU3hLbJ40f3cc8K9Ub6vWp2QAORN272wHqjwv3iOni9Oza45dW0lLdK+20s7qCz21s7JKmoqKnsSNq9jFayPu7nOcicceZ1tTQMpaaKlj57IWNjbz+pE4Q8oAjOp8cx647T3pdLhYrdU1jM8oom1E1Kx8rWJi1iVGo5U5REVzl4545Vf1lkZGyJiRxsaxrU4RrU4RCWab+UXe32gUf8q2EqoAAADnPqe6DdCdUzpL3l9oqbPliQthhyK0yJHU9rU+I2Zi8xztThE+M3vRqcNe06MAHO+nOiXR+D6ysGH7F09qnL7/Zqd1FUX33D0MT7hGx7mwyytex7vFWFI/Ecr3K56PdyvJufwTulj6tOqv3Nt39EqoAlXwTulj6tOqv3Nt39EfBO6WPq06q/c23f0SqgCVfBO6WPq06q/c23f0R8E7pY+rTqr9zbd/RKqAJV8E7pY+rTqr9zbd/RNIxnHrBb+sXIsUoLJQUtkptVWu3wW6CnZHSxUra2aNsDImojWxoxEajEThEThE4OjABwNR47lWmerPT3T5U2+oqcIt14vN9wq5r5tpqCahlbJbHL+uCRfif+De1PmOpPgndLH1adVfubbv6JVQBKvgndLH1adVfubbv6I+Cd0sfVp1V+5tu/olVAEq+Cd0sfVp1V+5tu/oj4J3Sx9WnVX7m27+iVUASr4J3Sx9WnVX7m27+iaZuPol0fnGsr/h+utPapxC/3mnbRU989w9DK+3xve1s0sTWMY7xUhWTw3I9qterHcpwdEADh6n6DdCdLOvLJe8QtFTeMsXOsGhmyK7SJJU9rsptfe2FicRwNXlU+K3vVq8Oe47hJV1LfJ1aPtAwT+arWVUDg/fN/wALxbYl1yHYlZb6TG6HqBtMtymuDUdTsh9xdqRVkRUVFTlU+Y9rbGe9Pe5q7CLT0mLYr1siiyy11VLdMYtKt/JVBHUNdWvqamONrY4XQJI1WPcnermoiL83SOm/lF3t9oFH/KthKqBzXc7vB039QOZ5/mlBWxYBsqmt9RJkEFNJUQWi50sawuiq/DRzoYpI+xzZVTsRyOa5W8pziNp5nj3VrdMM1fpyeTJMboslt+SZNlFJE/8AJdHTUMqTx08VSrfDnnllbG3sjVytajlcqeXPVYA5itN8tPSxuTZNw2Oyqt2D7Lu0OTUGTLTvloaOu9GjgqKSrkYi+j8+Cx7HycMcjnJ3IqcHiyvLLb1UbN1zZdUePeMJwu/R5ZfspZTPbbpZII3pTUdLO5EbUSOkej3LF3NaxvmvLkQ6iAHFmuemfV258x6jq3M7XLU3W5ZpVWqjuDpFdLaEbT00jJqPnyhl8VGPV7fjOWNiKvCcHtVm2smvvTVujSe3ZYo9m68xevpbm5vxW3ehdTvSmukKL62StRO7jntkRyL8x2SAOTav/wCmukD/AMlP/A1Jj1qYtkWj6+rr8TtMlVr7bmTWV13p4l4bZb/HXQOSqa31JHUxsVr+OP7RjV81cfQAAc35JXT9PnUTke1sjtdxmwDYlpoIK+6W+3S1f5FudF3sa+qbCjntglieiJL29rXM+MqIqKR/ZN9xDY2f2G5dL28dt5plNwzC1VtxpLBldzqMcoLY2rjdWtnRrko4Y/BR7UiV3K88I1eTvAASrTfyi72+0Cj/AJVsJ4OqOio7lq632640kNVSVWd4PBPBPGj45Y3ZRa0cxzV8nNVFVFRfJUU8+m/lF3t9oFH/ACrYR1LfJ1aPtAwT+arWBJr1/g4tDU23cf3Rq+3RYVd7TcGVNda6ejjqrNc6ZfizwOo5Piwq+NXMasStaxV7uxVTk6D96fVn7NMV+5qb/QNrAGqe9Pqz9mmK/c1N/oD3p9Wfs0xX7mpv9A2sAap70+rP2aYr9zU3+gPen1Z+zTFfuam/0DawBqnvT6s/Zpiv3NTf6B+Z9e4DY6SrulkwfH7fWwUs/hVNLbIYpWcxuava9rUVOUVUXhfUqobaAOPNX6gqts9EGs34zWR2zNcWpUvmJ3VW8rSXGKaXtaq+vw5G90UifO16/qPY6HrjT7mxzauQ7D1/T0lZW7Dqp6yzXWmjn9DrGUsEcicPRU5RyPRF9fa7+867AGqe9Pqz9mmK/c1N/oD3p9Wfs0xX7mpv9A2sAap70+rP2aYr9zU3+gPen1Z+zTFfuam/0DawBqnvT6s/Zpiv3NTf6A96fVn7NMV+5qb/AEDawBzDunoB09vvZFhyjOWpTYtjtEsUGL2Sjit0VXVPkVZZqmoi4ke1WJE1GM7Fb2KqP+MqLfcE15gur8dgxLXeJWrHLPTqrmUdupWQRq9URFe5Gp8d68Jy93Ll481U2EACVdS3ydWj7QME/mq1lVJV1LfJ1aPtAwT+arWBvGd4vBm+E3/DaqTw4b7bKm3Pf/uUmiczn/N3cnO+mepfXuodaWTVXUBe0wXM8Moo7JVUd0pZYm3P0dqRx1NA5GubVRysa1zUiV7k5VqoiodSgDlrYE22Opbph2XK3XslsS4Tunwm11cMtJcbhRUz45YpKmOReYpJnxv7GKjVRqs7m8qfzKOtjTF91rcsZxiuvFfsG5WeWhpcKjstWl5bXyRKxIZKdY+Y0a9eHSO4jREVe7g6mAHMEVfk/TFpfUOGZfhSZDr+22GKwZxPT2yW5VNsc2lYkU7oYue+m72vZKqRv4RWr5JySuntfTDlu58ByjoktNPT5jTX+F+Q12JW6oo7RFZeHelx3BGsZTcuRURkfHiq/jy4RTvMAc8dcfyWYr9pGIfxenNi6p8ByjM8BtV6wi2flTIMIyK3ZXQW1Ho1a9aWTmSnarlRqPfE6RGqq8d3byWUAQefrT0atpkS2Xa6V+VpF8TC4bTU/l9anjygdRdniMXu+Kr3Ikaevu48yNxayyLV2sdLUGYwMpsiyHckeT3alY9Htpaqvkqp3QI5PJexHtZynkqtU7cAHHmO2uui6hKnpidRTJYbRlUm0Gu8F3gOt0rfEhg7vzeUub3v7U+aJCc57UUNH0Xbdq7nJGyjg23XSVDpPzGxJe4Vcrv7uEXk+hIA5apuqf8Awd8KRSM2Hqxkkfa5HNookVrk+dF8L1mKzLXWqd49a9tizzDrHl9ldq1lxoWXKjbURIr7h8WVrXp5KrXev18KddADjvH8Iwroj6gqGHHsQstp1jtmVLbDXQ0MbJ7HfeeY6Z9T2+ItLUJyjGverWSJw3hF4OxAAJV0nfosab+z/Hv4dAVUlXSd+ixpv7P8e/h0BVQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKupb5OrR9oGCfzVayqnFPXv1d2nRN2sWu9ga+vP5HuV1xnKLRf7bNHO2r/Jl+o6uvpXwyeH4cjIadFaqPejlmiRezlVQO1gTvQG1Lru3VFk2nc8JmxWLI2yVlut9RVpUTOoFe5KeeRUY1GrLGjZUYnciNe34ylEAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACVZH+lPrz7P8y/iOOFVIptTIosG37r/Nbvj+V1tlhw/KrXNU2LGLlevAqp62xSQxysoYJnx97KWoVquRGr4Tk558jLfCW119HNq/hPlXs4CqglXwltdfRzav4T5V7OHwltdfRzav4T5V7OAqoJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4CqglXwltdfRzav4T5V7OHwltdfRzav4T5V7OAqoJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCQs6p9VS3Ca0x2rZr66nijnmpm6ryhZY4pFejHuZ+T+Ua5Y5ERVThVY7j1Kez8JbXX0c2r+E+VezgKqCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4CqglXwltdfRzav4T5V7OHwltdfRzav4T5V7OAqoJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4CqglXwltdfRzav4T5V7OHwltdfRzav4T5V7OAab+UXe32gUf8AKthKqR/p/r5L/f8Ab2Xw2PILdbcgziCrtq3ux1tpnqYI8es1M6VtPWRRTIzxqeZiOViIqxu45LAAAAAAAAAAAAAAAAAAAAAAAAAAAAEq6lvk6tH2gYJ/NVrKqSrqZZWe9dT1tFaLrc/yZmGIXSop7Xbp6+q9Fpcit1RUSMp6dj5ZeyGKR6oxjndrF8vIfCW119HNq/hPlXs4Bpv5Rd7faBR/yrYSqnNWtN24vj+abYu13w3atPSZNmFNdLXJ71eTv9IpWWC00jpOG0CqziekqGcORHfE547XNVaB8JbXX0c2r+E+VezgKqCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4CqglXwltdfRzav4T5V7OHwltdfRzav4T5V7OAqoJRJ1Na2hjdNNj+02RsarnOdqjKURqJ61Vfyd5IYfFOsrRGeWpt9wapzzIra9ytbWWnWuS1cCuT1okkVA5vP8AnAt4JV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4Bpv5Rd7faBR/yrYR1LfJ1aPtAwT+arWT/Wm7cXx/NNsXa74btWnpMmzCmulrk96vJ3+kUrLBaaR0nDaBVZxPSVDOHIjvic8drmqvt7a21YNlWCw4hiGJbKnuU+cYfVolXrbIaGCOCmyG31NRLJUVNFHDExkMMr1c97U4YoHRQAAAAAAAAAAAAAAAAAAAAAAABKupb5OrR9oGCfzVayqkq6mWVnvXU9bRWi63P8mZhiF0qKe126evqvRaXIrdUVEjKenY+WXshikeqMY53axfLyAqoJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4CqglXwltdfRzav4T5V7OHwltdfRzav4T5V7OAqoJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VezgKqCSVnVHq63UstdcLPs+lpoGq+WabVWUMYxqetXOW38In96mHxDrU0BsKiqblgNxzfJaSjqHUdTPZ9cZJWRwztRFdE90VA5GvRHNVWr5oip5eYFzBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cBVQSr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nAVUEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZwDpO/RY039n+Pfw6AqpNOmS03WwdNuqLFfbZV265W7B7FSVlHVwuhnpp46CFskUkbkRzHtcitVqoioqKilLAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAj79obov+b5tjWudWYVcbbhd4p7JLXXvNqu3T1M8lsoq9zmwQ2upa1iNrmMRVlVVVjl4TyPb90fVP+xvVX4l3H2ENN/KLvb7QKP8AlWwlVAlXuj6p/wBjeqvxLuPsIe6Pqn/Y3qr8S7j7CKqAJV7o+qf9jeqvxLuPsIe6Pqn/AGN6q/Eu4+wiqgCVe6Pqn/Y3qr8S7j7CI51P6A3N1V4basNz7TusqeOz3mmu1PVUuyrgkyNY7iaFHfkLlGyxK9i+fkvY/hVYiHXAAklFd+pu20cFut+kdS01LSxNhghi2RcGMijaiI1rWpYeERERERE9SIeb3R9U/wCxvVX4l3H2EVUASr3R9U/7G9VfiXcfYQ90fVP+xvVX4l3H2EVUASr3R9U/7G9VfiXcfYQ90fVP+xvVX4l3H2EVUASr3R9U/wCxvVX4l3H2EZXUmw8qzmXMbRmuJWrH71hmQMsVTDa71JdKWfvttFXMlZNJTUz/AMyvaxWrF5OYvCqioUAlWm/lF3t9oFH/ACrYQKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeGrqWUVLNWSsleyCN0rmwxOleqNTlUaxqK5y+Xk1EVVXyRDzAD5VabybrEt3XfduoDLtP5VDjmXRW+nvdjbEk1basduE89Na5ZKNjnSsdC+3yPk/s+5qRTK5G+Miu+qpKsc/Sn2H9n+G/xHIyqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA+TeI9C2a6n6g9n7Ira3YWLa2x3IljpqjC7hLb7g61VLVqEqYXNjd6TT0zXxRzMi+Mv8Aa9vnE6N31kAHq2u6W2922lvNnr6euoK6FlTS1NPIkkU8T2o5j2Ob5OaqKioqeSop7RGLjRVfTrcKrJbDSTVOrq6Z9VerXTxq9+MTPcrpK+lY3zWic5VdPA1P7JVdNGnasjSw0VbR3GjguFvq4aqlqomzQTwyI+OWNyIrXtcnk5qoqKip5KigeYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHjqKino6eWrq544IIGOkllkcjWMYicq5yr5IiInKqpFIrzd+pnvpscqK6z6m7lZUXeF76esyxqeSxUbk4fDQL5o6oTh86eUStjXxXhzb1xaUt3Wfbb9etR2u8V9bru21iSX+nrah9DdaymZK9tpoKNq+HVVHiOcx9Q1ERjuIu6RzVZF0d0TaSj0B00YXgU9EtPd5KJt1vSPj7JFuFSiSStenCL3RorYfNEXiJOfMs1ms1ox200dhsFspbdbbfCynpKSlibFDBE1OGsYxqIjWoicIiHugAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKtN/KLvb7QKP+VbCVUlWm/lF3t9oFH/ACrYSQ6m2d1obvst5y/ELzpW0WmjyS72Slprlj12mqeyjq5IEc98dc1qq5GIq8Inr9SAdZg523Bs3qN0n06XzOL6mvL7ntNcKSltjLfbq2C1yMqKiKFjZI5KlZe7mR3mkqJ6vL1oUrT20Y9i6esmy7xFT2+eot7pbtBGq+HR1UPcyqj81VURkjJE81XyT1gb+Di7DetHbOR6C31tu5YljdBcdbzPmxykWnqPDnopKOKqpXVaLN3Oe6OZiu7Fj9fHCcG8rknXPa8K98OoqdIX6khtiXZ9opbXdrfUTxeGkjo2VD6qZjH9vKIro1TnjnhAOmAQbFupKoz3MNMxYvbaRmN7Rxm43+Zalj1q6d0MUL442ORyNROZXI7li88Jx2lqv18teM2S4ZHfKxlLbrXTS1lXO/8ANjijarnuX/IiKB74Of8AGs76ptrWWDYWA2HXuKY1cY/SbPbcnhrqq53ClcnMcsz6eSOOi704cjOydWoqc+fkeNd/bOy/UWYXnX2CW+h2dryu9EyDErq59Ux7okbLJHTTRPj70mgXvglVOFVU7mc8ogdCAkF+6lMNo+n2n31j7JLrTXaihdZrcxOKituE6pHDRI31pKsy+G5PWio7n1Gh5ztXqhtGRak1hZPe0oczze13Guvs1ytVfPQUs1NHG9YoGRVbX8J4itVznO5VvKcIvAHTYI7hVD1fw5RQSbFynTtXjiPd6fDZbBdKetezsXt8KSaskjavd2qvcxfJFTyVeUneO7R6tdqbF2hY9aXPUdoseA5S/HIEvtjudTVzo2nhm8R74axjP/23Hk1PUB1MSrTfyi72+0Cj/lWwmb1bT7xp6Wvbuu74NX1CyMWgdi1urKNjWcL3pK2pnlVy88cK1UTjnlDCab+UXe32gUf8q2ECqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACVY5+lPsP7P8ADf4jkZVSVY5+lPsP7P8ADf4jkZVQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAP4qIqcKQ2v8ASOmK4y3akhkm1BXzOlrqaNqudh073cuqImp5/k1zlVZGJ/3Oqq9v9krkiuZ+JYop4nwTxtkjkarHsenLXNXyVFRfWgH8p6iCrgjqqWeOaGZiSRyRuRzXtVOUcip5Kip5oqHkIHCyr6Vrn4Kuln0vcJ+I1XlzsJne781V9a2t7l8v+9XLx/tCp4F6Y9krGyRva9j0RzXNXlFRfUqKB+gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAMdkWR2HEbFX5PlF4pLVabXA+prK2rlSKGCJqcue9y+SIh6Gd57imtMZqcuzO7MoLdTKyPuVrnyTTPcjY4YY2or5ZXuVGsjYiuc5UREVVJ/Y8IyHbt2oc/3JZ32+1UEzKzHMKme17KSRq8x1tx7VVk1X6lZEirHT/N3yJ4jQ9OktF56kfCu+a2itsusEcktvx2sjdDV5JwvLKi4xrw6Kk9Sso3cOk8nToif2KWmKKOCNkMMbY442o1jGpwjUTyRERPUh+wAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA1vYmxsI1Ph9xz7YmR0djsNqj8WprKl3DU+ZGtROXPe5eEaxqK5yqiIiqoGnab+UXe32gUf8q2E5q6SenSy7G19kmU1u09sWOWbO8niWjx7ObhbKJqMucyIrYIZEY1y+tVRPNfNSg9CfUBj/UbWbr2Ji9rqqC13LO4aikiq1Tx1hZZrdSNe9G+TVd6Er+1FXt71Tl3HK7bL0K9Mr62ur4sOyClkuNZPX1LaPNr7TRPqJpFklekcVY1jVc9yqqNRE8wNc6oMIpdd9LD8Vo8iyO9xU2RWV7azILtNcq1/fdoHKj6iZVe5E54RFXyRERPJDWMnq6vELvs7phtsi08+wchoqzHmRr2Ky33lXflJzFT/enU9dIvHq8RvPr5W6Wfpl0xY8IrtdUmN3KewXG4QXWppq7IblWvdUwujfE5Jp6h8rUa6Ji9jXo1eF5ReV52e7aswC+bCse1rrjcFRleN0lTQWu5OkkR9PBPx4rEYjkY7njyVzVVOV4VOV5DijYdBS2vUPXNbKGFsVNSVMEEMbU4RjGWGia1E/yIiFkx7px3DmGv7XZMu6wc6qcbulop4qu2UFhstBI+mfC3mFtVFS+KxO1e1XNVHcfPz5lfuuh9UXu155ZrnivjUezZElymP06pb+UHJAyBF5bIixf2UTG/2Ss9XPrVVXd7fQUlroKa2UEXhU1JCyCFncru2NjUa1OV5VeERPNV5A52v+MWPCup7QuIY1QsorTZsVyKhoqdnqihjhpWsb5+vhETzN+6psPv2wOnHZGF4u1z7td8brqajY3nmSRYl4YnH+647f8AOe7tfp71Nu2stNx2Pj9dXVdibMy3z0V8r7bJC2Xt8RO6kmiVyO7G+TlX1H81d096r01cK266/tV5pam4Qtp6h1fklzuaKxHdyI1tZUStYvPztRFX51A9vRWZY7nen8RyXGK2OooZrRSxqjfJ0MkcbWSRPb62PY5rmuaqIqKioqEv6d6ynzPfu8dm45MlRjFZX2uwUlXEqLBW1dDTuZVSRuTyejHvSNXJ87FTnyN0yXpW0Nld+rckumCuhrbo/wAW5JbbrW26nuL1ThXVUFNNHFUqqetZWO5+co+PY7YMSstHjeLWWhtFpt8SQ0lFQ07YYII09TWMaiNan+RAOTNcaws1D1sZhg0dXO7EcQo6bYFlsKtYlLSXq6OliqJ2oic8J4L3sb6mvnkd6+OMv1N4LSbG6otI4vW5Hktjimt2RyLWY9eJ7ZWtVsUK8Nnhcj0avqVOeFT1nRFBrnDbZn912hQ2bw8nvdvprXX13pEq+NS07nuhj8NXLG3tWR68tajl581XhDXdsdPOpd31louOyMerq+rsKTNt1RR3uvtssCS9viIjqSaJXI7tb+cq+oDH676d7NrfJY8nodpbWvkscUkPoeRZvX3Sjcj047lgne5iuT1o7jlPmOedM6KtO1Nw9Q14uGxtlY6+k2PLTNgxfMK20U8iegUru+SOne1r3/G47lTnhET1Ihd8S6QdD4Pklvy3HLFkkVztcyVFK+pzS91cTXp6ldDPVvjenn6nNVP7j1si6LunXKcqvWaXXEr3Hd8hq1r7nNQ5feaFlTUK1GrIsVPVsjRe1rU8mp6kAoGsta0Wr7JPYqDLcvyGOeoWo9Iya/VF2qWKrUTsbLO5zkZ5c9vPHKr+s1nTfyi72+0Cj/lWwmW1ZorWmmFuC6+tl2pVunh+lLX5Bcbmruznt7fTJ5ez85fzeOfn5MTpv5Rd7faBR/yrYQKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJVjn6U+w/s/wAN/iORlVJVjn6U+w/s/wAN/iORlVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADxVVLTVtNLRVtPFUU9Qx0UsUrEeyRjk4c1zV8lRUVUVF9ZGLbJUdNdwhsVyqJJtTV0zYbZXTPVzsSne7hlJO5fP8nucqNilX/aHKkb18NWOZbDwV1DRXSiqLbcqOCro6uJ8FRTzxpJHNG5Fa5j2u5RzVRVRUXyVFA84ItbblWdO11o8TyOsnqdZXGdlJYbxUyLI/HJ3qjY7dVyO81pXKqNp53LyxVbDIv8Atb3WkAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGo7J2fjOr7RT3C+rU1VbcqhKG0Wihj8avutYqKraemi5TveqIqqqqjWNRz3ua1rnJ6eytr2zAZrfj1utk+Q5hfu9tkx2jkRs9X28d80j15SCmj7m+JO/4reURO57mMd6evtVT2i+S7K2HcoMhz6vgWnkrmMVtJaqZyo5aK3xu84oEVE7nr/aTOajpF8msYHp4frS9ZBkdJtbcjKapyWm7nWSyQy+Nb8ZjenCpEqoiT1bmqqSVSoi+asjRjOe+pAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAhXWDguAZvq+OlyzCLVkt/krorXiENwjWRkN4rVSmhlVqKncyPvWWRF8uyFyrxxyl1JFU/8AbE6iqeiVviWbVFvStkX1sff7hE5kaf8AjwUKyqvl6rixUXyXgJn0T9PuNdP2ab0xnCLjULjtNlFptlHQ1CK+SGSOx0NXNMsqu+P4j7iqI3tTtSJPjO7vi9Ukq038ou9vtAo/5VsJVQAAAAAAAAAAAAAAAABKtN/KLvb7QKP+VbCVUlWm/lF3t9oFH/KthAqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAPzI9kTHSyvaxjEVznOXhERPWqqaRqjc2C7qor7ddf177hbrDeZ7HLWojfBqJ4WsV7oXNcvfGiv7UcvHKtXhOOFUMHjn6U+w/s/w3+I5GVU1XOr9i2s8dybbV2sve61WdZ7lUUVNGtbU0dIksrIe5yt70Ys06sa5yNR0r1Tjucq+vqDbWF7y11Ztoa/r31VlvcHjQ+I1GyxORVR8UrUVUbIxyK1ycrwqetU8wNyBqGq9nWHb2Hx5rjVJcKahlq6uiSOujYyXvp53wvVUY9ycK6Nyp588KnKIvkbeAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHp3iz2nIbTWWG+22muFuuED6arpKmNJIp4ntVr2Pavk5qoqoqKRiwX+79POQ2/XWd3Gpr9fXeoZRYnktXIsklrnevEVpuErvNUVeG01S5fj+UMi+J2OmuZ6N7sdkya0VdgySz0N1tdfE6Croq6nZPT1Ea+tkkb0Vr2r86KioB7wNAxfdGusm2lkOlcWr0q75h1vpay6tpmsWmpEmc5scCuRfKVEZyrOPiorfPleDfwANBzTd+vsE2FherL1dHPybPKqantVBT9r5EZFC+V88qK5FZEiRq3u4XlzkREXzVN+AAAAAAAAAAAAAAAAAAAADQq3duv6Pcds0Q26OqcvuVqqbytLAjXtpKWFWJ3Tr3csV6v+InCqva5fJE5XfQBONg7WntN9i1pru2wZDn1dTpUMonvVtJaqZyq1K24SN84oeUXtYn9pM5qtjTyc9ns7b3fr7SlJYp84ujop8mvNHYbTRQdrqirqqiVsbexiuTlre/ue7n4rUX1rwi7Za8bx2x1lyuFksFut9VeahKu5T0tLHFJWzoxGJLM5qIsj+1rW9zuV4aic8IBrGttU2zAZbhkFwuU+Q5hfux17yKsYjaisVvPZFG1PKCmj7nJHAz4rUVVXue573byAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABictyiy4Ri14zPI6pKa1WKhnuNbMv8AiQQsV71/vXtavkafoPFr1juvIbpltMsGUZZVz5Nf43fnQ1tW7v8AR1Xy5Sni8Gmb/wAGnb8/mYndP/ZtleFaSh+PTXutXIcgann22i2yRy+G79STVj6OJUXjujWf19rkK4BP8p6etBZzfarKc10fr/IL1W9npNxumM0VXVT9jGsZ3yyRue7tYxrU5Xya1ETyRDFfBO6WPq06q/c23f0SqgCVfBO6WPq06q/c23f0R8E7pY+rTqr9zbd/RKqAJV8E7pY+rTqr9zbd/RHwTulj6tOqv3Nt39EqoAlXwTulj6tOqv3Nt39E5b/wlGr+nvS/Steb9hmidb2TI7rdLdarVXUWI29k8Uzp0mejFSHn40MEzV/ucp3yYLJ8Fw/NKmyVeWY9RXaTHLk272v0uPxG0ta2N8bJ2tX4qva2V/aqovaq9ycKiKgcZdDcnS11R6378p6S9ZWPOrBT0q3yjfgdDFBURztcsFbTq6DhYpkY5UbyqtVHJ5t7XO6V+Cd0sfVp1V+5tu/on46cv9g8ayLWEnxX6/ya4WWBi+StoJHNraBqJ+ptHWU0fPqVY19XqSsASr4J3Sx9WnVX7m27+iPgndLH1adVfubbv6JVQBKvgndLH1adVfubbv6I+Cd0sfVp1V+5tu/olVAEq+Cd0sfVp1V+5tu/om64Vr3Ada2qWxa5wfH8Vts9Q6rlo7JbIaGCSdzWtdK6OFrWq9WsY1XKnPDGp8yGwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADWNj66xrauKz4VmDa2Wz1ksMlXT0tZJTeksjej/BkdGqOWJytRHs5RHN5avkqoRXpblxnX9j3TUeBT2iwY/n94kWOngVIqWlhp4FVGxxpzw1rfJrU58vJDpE0LVWrfeyqMyn/Lv5S912T1eR8ei+D6L47Y2+D+e7v48P8AP+Lzz+anAENzfqy6f+pDp73HbNL5/wC6KpsmH109ez8lVtJ4MckMjWLzUwxo7lWr5NVV8vMxeuWp0uZVhd7iRKfV23rfbILg3uVIbHkzqWNsUyJ+ayGrREY71IkrWr/jKdNbUwf3zNbZPr38qfk33R2qptnpngeN4HjRqzv7O5vdxzzx3Jz+tDG37UON5dpx2mMt5uFrlssVnmma3w3qscTWNnZ5qrHo5qPaqKqtVE8/ICfdD/yAUf8A+PX7+J1BfCYdNulF6etP2bVDsrlyRbQ+petzmpfR3z+LM+XlzO9/mnfwq9y8qnPlzwU8AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB6V7tcd8s9dZZquqpY6+mkpnT0kqxTRo9qtV0b082uTnlF+ZeD3QByppDXeGar6yc8wvArFBabTR64x5zIY1VzpJHV9wV8sj3KrpJHLyrnuVXOXzVVKBaes3prvm4l0Da9kePnqV09tW0/kevb/rmFjnyM8d0CQ+TWOXnv4XjyVfI2e0aj/JW+cj3d7oPF90GN27HvyZ6J2+B6JPUS+N43evd3ekcdvYnHZzyvPCUQDkjb+p8JwPqN0ZlVjtsj75lOw7lV3W6Vczp6qf/AGHrlZF4jlVWwxovDI28Nanzcqqr1uTvZWo/fDzjWuZ+6D8n+95fKi8+jeieL6d4tFNTeH397fC48bv7uHc9vHCc8pRAAAAAAAAAAAAAAAAAB/HJ3IqcqnKccp6z+gDkik1PhGp+tTV1vw61viluuJZbX3OuqZnT1lxqnT2/umqJnqrpHfMnK8NThGoiIiFMzTrN6a9ebVp9JZhsj8n5pVVNJRxWz8j18vdNUq1IG+NHA6JO5Xt81fwnPmqeZs9/1H+XN54huj3QeB7lbHdbN+TfRO70n019O7xPF707Oz0fjt7Hd3f60486IByR1o6nwm20Vo2wltkq8pumwcMo/T6uZ0zqSmbdaZPApmuXtgjcqdzkYiK5yqrlXy463J3vHUfvz4tasZ90H5H/ACZklnyHx/RPSPE9Bq46jwe3vZx3+H293K9vPPDuOCiAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACb7+yW8WTXz7FilU6nybMqyDF7HK386Cqq1VrqlP1+jwJPUr/wad3r9QGL0lzmuSZpu6fiSDIa9LHj7l8+2y258kTHt/umqnVs6KnHdHJDzz2opXDFYrjNlwrGLRh2OUbaS1WOhgttDA31RU8MaRxtT/I1qIZUAAAAAAAAAAAJND/2JdTlREq9lFsXFGTsT/F/KFpn7JF/8eSnuEKf3to/L1LzWST9Qv+wFvw/aUfxXYPlVDWVLk+a31aut9Yrv1sZDWunVF/3hF9aIVgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJpYLtdZupLOrFNc6t9to8HxOrp6N0zlghnmr7+2WVkfPa172wQtc5E5ckUaLz2pxSyVY5+lPsP7P8N/iORlVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADH5BZKfJLHX2CrrLhSQ3CnfTvnt9bLR1MSOTjuinic2SN6c8o5qoqKS/XWcZVhWS0+ldyXJa27SteuL5Q+NsceS00acrHKjURsdwjYnMsaIjZGossaIneyKwGu59gWN7JxqoxbKKWSSmlcyaGaCRYqijqI17oqmCVvxopo3IjmPb5oqf5UA2IEw17nGR2S/s1DtmqjkyVkT5bLemxpFT5NRxp8aVjU+LHVxt48eBP/KxosblSOngAAAAAAAAAAAAMLmOZ4xgGPVWVZheILZa6NE8SeXlVVzlRrI2Naiukkc5Ua1jUVznKjWoqqiAe7er1Z8btFZf8gulLbbbb4X1NXV1UrYoYImpy573uVEa1ETlVUlVofmO87tQZStde8S13QTsq7ZSQSy0FzyR7V5ZUVDmq2WmoueFZBy2SZPOXtYvhP8AHb8EyDdd4oM42/a5rbjNvnZW49hFQqf7Y1eYq66oiq2SdFRHR03Kxwrw53fKiLHZgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAASOh/7YfUPW3P/AG2y6st/5NgX/Fdfq+Nks7v/ABoKL0dqL/8Ax8qKnlyb7n+aWrXWEX3O754jqGw2+evmZGnMkqRsVyRsRPNz3KiNa1OVVzkROVUwOj8MuuE65t9Jk3Y7JbtJPfMhkavKOulZI6epa1fnYx8ixM/VHGxE4REQDfQAAAAAAAAAANQy/beusCyjF8MzDJ4LXeM0qZaOxU80UnFZNG1HOYkiNVjHcKnCPc3uVUROV8jbzk7q/wBUWLdO59Q4BfZZaZKujyOairYV4moK2KnhfT1Ma/M+ORGuT/IBe9xXrWdrwWrtO3J2sxvKZYcYnidFO9Kl9e9KaODmBFezvdIje9O3t557m8cpukcbYo2xNVyoxqNRXOVy8J+tV81X+9fM4Z2dtW/Z5oWy4fsSJtJsPA9pYhZMnp0TtbNK2606xVsSfPDUR9sjVTy5VzfW06zl3dpeDMve6n29hUeWeO2l/IT7/SJcfGVEVI/Rlk8XvVFRUb288KBlstzvEcFZa35ZfILd+WrlBaLe16Oc6prJndscTGtRVVVX1rxwiIqqqIiqZ85H6n9Q0FJsLAdtX3JLxfbtUbJsFLaaarmRKOyUiu4kipoWoid0jm9z5X9z3conKNREOuAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJVjn6U+w/s/w3+I5GVUlWOfpT7D+z/Df4jkZVQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADXM9wLH9jY8/HsgZOxrZWVVHW0kvhVdvq415iqqaVPOOZi+bXJ5etrkc1zmrquvNg36kyF2o9rvgjzClgdUW64xReDS5LQs4RaqBvqZMzlqT0/KrG5Uc3mN7XFNNT2Vrex7Ox5LLdpqqhq6SdtdarrRPSOstVaznw6mneqL2vbyqKiorXNc5j0c1zmqG2Almrdn32e/VGodtQU1Bn1qp1qYpoGLHR5FQNVG/lCiRVXjhVak0HKuhe5EXuY+OR9TAAAAAAABpmxtnWvAYqK209BPfMovbnQ2PH6JzfSrhK3judyvxYoGcosk7+GRt9aq5WtcHubA2JjOtrKy75FPM+SqmbSW630kSzVtyq3IvZTU0KeckruF8vJERFc5Wta5yaZiescgyvKqLbO6mwS3qgVZMexuGXxqDG0cnCv5/NqK5WqrX1CpwxFcyFGtVz5Pd15qa4W/I5dp7QusGQZ5WQOp45YUd6BY6Vy8rR2+N3mxi8J4kzk8WZURXcNRkbKaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABI9r853srB9Pwqj6GKo92WRt45RaKhkb6FA75v7WuWCREXlHMo5k48+UrhI9Ap7r3ZRvOf43u9r2ts7l/xbDRd8NBwv+5lVaisTz/8A335vUlcAAAAAAAAAAAATPN9Z37Jd1642RQ1dBHbMPgu8ddFNI9J5FqoY2R+E1GK1eFYvd3ObwnHHJTABzF1S9I943Ln2DbM13f6Cx3iy3y1S5JFVPkjhvNqo6xlSyNyxscqzRPYqxqqInx3IrmovJaJdI6XnzL3xZ9Q4VJlnjtqvy6+wUi3HxkREST0lY/F70RERHd3PCG6mi7yvWV4xqbJsrwmZ7LvYKP8ALEUbImSOqYqV7Z5qZGvRU5mijki58lTxOWq1yI5Axu8tZ37ZlLhkNhq6CB2O5ha8gqvS5HtR9PTPc57WdrHcyKi+SLwn61Qph61uuFFd7fS3W21LKikrYWVFPMz82SN7Uc1yf3Kiop7IAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEqxz9KfYf2f4b/EcjKqSrHP0p9h/Z/hv8RyMqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGm7Q1hZtn2Wno6usqbVeLVUJX2O+UXDay01rUVGzwuVOF8lVr43cskY5zHorXKhitX7IvN2uFXrfZVFTWvPbJCk1TFBylLdqTu7W3GiV3msLl4R7FVXQvXsdyise+jmn7J1vQ7Bt9JJFcZ7LkNlmWtsN9pGItRbKrt47kRfKSJ6fElhd8SRiq13zKgbgDQdbbHrshrK3Bs5tsFlzqxRtkuNBE5Vp6yncqtZX0TneclLIqKnn8aN/McnDm8u34AATDO9j5Bcr7PqzTjKOty1jGuulzqWLJb8ahenLZalGqni1Dk84qVqo5/k56xx/HUPf2Js+ew3KDAsDtcOQ55dIfGpLY6VWQUVPz2rW18rUVYKZq8onkr5XJ2RtcvPa1fqWmwSe4ZTkF5mybN7+jVvOQVUaMfK1qqrKanj5VKakjVV7IWrx5q5yvkc57ve1jq6wavtFRSW6prLndbpN6Zer5cZElr7tVqnCzTyIiJ5J8VrGo2ONqIxjWtRENyAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB+ZJGRMdLK9rGMRXOc5eERE9aqp+jQ9vati23ZKPGrrld6tViZUrPdqG1zJAt3gRjk9EmlRO9sKuVFejFarkb2qvCqihn8KzjFdi47BluFXmK62iqkmigq4muRkqxSOjf29yIqoj2ORHJ5KicoqoqKYjcWba51/re95Dtq9OtWKLT+hXKqalRyyOdfB4RadFlZyr+O9nCt555TjlJL0b3jE8A6SrBdL/eLXj1gtEtzbJV11THS0tLC24Ttb3SSKjWNTyTzVPmML1dZ3q3cXTHfW4Tm2MZnaFv1koK91nukFfC3vuFP3RSOhe5GqrHepVReFA6Lt9diWNYPTXG0zU1PjFqtTJqZ9MivhjoIoUVisRvKuakbU445VUROOT2MVyixZtjVsy/GK7020XmkirqGo8J8fiwSNRzHdr0RzeUVF4ciL+tDlrGK+v0dQbB6UcoqZpLTHjV1vOuq+dUX0i0+C/xbd3fPJSOciInrWJzF8+FLP0sfo26x/wCKtt/5uwCpgAAAAAAAAAAAAB+JoYqiJ8E8TJIpGqx7HtRWuaqcKiovrRUP2AJT0zyy0OrocCq5Xvq9fXGtw+TvcrnLBRTLHRvVV81V9H6LJ5+f9p/nKsSbGkTEupDMMe47KXO7HRZXTJ6u+to1bQVzv7+IfySnP9/n8xWQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAHOukMQ21srS+A7GvvVTsqC5ZVi9qvdZFSWvF2wRz1NJHNI2NrrQ5yMRz1REVzl445VfWB0UCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqeGrhlqKWangq5KWSWNzGTxo1XxOVOEe1HIrVVPWncip5eaKhMPeb2L9bHav3bivsYe83sX62O1fu3FfYwHBWn929bOT9cFz6fb7cLLRX63xWy1Zfk9NZY0mmsNoqayqZVMjf3QRrVtufYjkiRE8WnVqMVHKv1KIZR9L90t+aXLYlF1HbIhyW70VPbq65stOKpPPTQue6KNzvyN6kV7v714ai8o1vGe95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYxqmyMd2jq+02TLaLqT2Be/8Aswxa11Fuultx30Wqpa6+UVFURvWntcUqcw1MnCska5HcLz5AdAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAhVptOydlbJ2nDDv3NcVtuK5RSWS222yW+xOgjgdYrXWOc51ZbqiZz3TVsyqqyccdqIicGwe83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYe83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYe83sX62O1fu3FfYwHi6lY8Gsevptp5dmPuKqsIclbbcqjpX1D7ZLK9kXa+KNFdPTyucyOWHjh7VRfiua17eaej/APwhVX1E9SGX6/vktvoMehxuCssyM4bD6XSLxXSRvkYyZY5fFWRqSpyyOnbyjHK9F6aXTWxHIrXdWG1FRfJUW24r7GI5kH+DY1bkmUvzWs2rn9FfJaStopq60UWOWuSaGrgfT1CSeiWmNJFfFLI1XO5cndyiovCgSDRv+EJuXUTmuU6Xp9iWvDay/wCXVceOZBcWQQTU9iesUVLR0UTm9s9xkf39izco1ZPVKrWxu72wLAMW1pjUGK4jb1pqOFzpZHySOlnqp3rzJUTyvVXzTPdy58j1VzlXzU501l/g7NaadSB2utl5da6mmVFhrX2HFKqtYvPPlUz2Z83r8/zyse83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYe83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYe83sX62O1fu3FfYwFVBKveb2L9bHav3bivsYaLuGX/lbZ+JZbnd1y33JZhDa7dcbpTUUNV6LJY7VWrG9KKngidxNWT8L4aO7VRFVeAKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAfmRqvjc1PWqKh+gBI9L6RixHRdJp/aFrx/I4PFrVrqR8CVlBURzVcszGuZPGiP4R7eUczjlPn8lMVtXpnxe5aiuGt9J4XhmFuuF4tl0njordHbqWVaarhle56U0XxnrHErUVWr58Iqonmm2X7Lb/cN145rjGbh6NSWy2z5LlDmxMer6Z/fTUNIquRVZ403jzdze13FAre7hyotFAjnVPoKTqA1jUY/YbwyxZfbVfWY3e15RaGrViscjlRFd4UjHOjeiIvLXepVRDb9L4XdNc6jw7Ar3UUs9wx6y0ltqpKV7nQvliiaxysVzWuVvKeSq1F/uQ3QAAAAAI/tB+b3/AHRhGuca2jkGF2244vkl7rpbJSWyaepno6uzwwNc6vpKlrWI2uqFVGNaqqreV8uALACVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgOMP8I31K9TfTrsuxX+xYVj0Flb6XBieVwxSyujbU0fh1VHVseqx+MkzYqiPyRipBHy2TiRE721BQZJa9UYZbsyudTccgprBb4rtWVL1dLUViU7Enkeq+aq6TuVf8pMti9KNXtvE6rBtj9Rmyr7Y6x8ck1HU23F+1z43o9jkVtnRzVRzUXlFRfWnqVUNm95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVe83sX62O1fu3FfYw95vYv1sdq/duK+xgKqCVaLuGX/lbZ+JZbnd1y33JZhDa7dcbpTUUNV6LJY7VWrG9KKngidxNWT8L4aO7VRFVeCqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlXSd+ixpv7P8e/h0BVSVdJ36LGm/s/x7+HQAVUAAAAAAAAAAAAAAAAAAAAAJV1LfJ1aPtAwT+arWVUlXUt8nVo+0DBP5qtYFVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKtN/KLvb7QKP+VbCVUlWm/lF3t9oFH/KthKqAAAAAAAAAAAAAAAAAJVpv5Rd7faBR/wAq2EqpKtN/KLvb7QKP+VbCBVQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD8TTQ00MlRUSsiiiar5JHuRrWNROVVVXyRET5z9ko6iKmpvWNWvT9qqJIrjsu4JYJHxPVr4LX2OluUyKnm1UpI5o2u5TiWaHz5VEUPz08Qz5DZL3ua5QuZWbIuTrtSNeio6KzRtSG2R8Lx291Mxs6t48pKqX1+srJ4qWlpqGmhoqOnjgp6eNsUUUbUayNjU4a1qJ5IiIiIiHlAAAAAABKsj/Sn159n+ZfxHHCqkqyP9KfXn2f5l/EccAqoAAAAAAAAAAAAAAAAAAAAAAAJVpv5Rd7faBR/yrYSqkq038ou9vtAo/5VsJVQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAASrpO/RY039n+Pfw6AqpKuk79FjTf2f49/DoAKqAAAAA4vxvPtgY712ZbJeM4vtZg90u1Lh0dmqKyWSgt9bLbGVdPNFE5ysiV7opmKrUTlXp86+fm67thZ/Q5HhOO67zW74/Dj16sd3yJ9rrZKZ9VDWXWCip6SVY1RVjejql6tXyXwk5RUPFkOJXLLLz1QrYI1dfbBfrBkVm4VUX06hoIaiJqKnn8ZY1Yv9z1Q1bY16Zs3pyuHUEsE0bNi7HxCe2MnjVkkVqpbtSQU7OF80RXNml4/8KB0F1UXjJbvR4lpHBckuthyDY12WlddLVVOp6u326mjWeqqGSNVHMXhrI0c3z5lPW1NLU9R3T3brFmeV5XZMhsdZJY8iqrBeKi1V/wCUqCR0Mv8AbRKkiMkVqScc8OR6etCfvw/YHUP1NZpsXAtwXHBLfrSFmD2utobLQXBaqoejai4q30uORiIj1p41VqIvMaoq/MezpWyZZ079Ud91pnGf1WW0m3rcuUUF3q7fBRPkvFJxFVxeHTMZC1XQeC/hrUVexyryvmBhNcdPqZNufa2EXTfe9XWvEZ7THbWs2XdmvalRSeLJ3u8X43xvV+oo13rMw2tum46Gx3PcgxrENeWSgnyG5W2qRt2u9ZUtd4NN6W5FfC1scfiSPZ2yPc9qI5E5Mjpj9Jbfn/3vH/4eYHIb5T9OXUlk+yc1pK2HANl2q3smv0FHJPT2i6USPj7KtY0c6KKWJ7VbIrUYjmORzk5QDa8Z1ttLVGz7NDiGYZJl2urzTzw3qiye9LcKqy1LG90NTT1NQ5aiRj15Y+JzpOPiub28LzpGkOpbVuN1WyLDt3f+K2u7UGf3mCloskyumgqaejbI1ImMjqJUcyJE57UREannwbjZOpOn2rsvHsU0FDS5ZjLFmqcryhsEy22igaxfCgpqlO2OapfIqfFYr0a1HK7jyNe6X8IwvII9pV9+xCy3Kq98u/M8art8U0nakreE7nNVeP7gPd0hti07O6ktrrhuyqTLMUoLRj/oH5MvLa+3087mT+N4XhvdGx6qje/t4VeE5OhznbUNls9h6t9y2+xWmjt1K2xYy5IKSBsMaOVlTyva1ETlTokAAABKupb5OrR9oGCfzVayqkq6lvk6tH2gYJ/NVrAqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJVpv5Rd7faBR/wAq2EqpKtN/KLvb7QKP+VbCVUCb9SV1uli6f9iXmyXKqt9wocauE9LV0szopoJWwOVr2PaqOa5FTlFRUVDmbduY78paXpwuuo8ouVReksFVfrpapayVY8jjp6Gnklpp07uJJHtdJ2Ofzw9UX1+Z0d1T/o27O/4q3L/m7yR2j5RulL/ijc/4bTAZHfO6GZl09YBtHVuT3K3UuRZrikSy0lTJTTpDNdIY6ill7FRU9b45I18l4cioqG04HfcjxDqhzvWGSZBcbhasrttNmGMNrqx8yUyM4pq6lhR6r2Rtf4MiMb5J4y+ScnNfVniORaNzSwWHGbTJUa32nsrGrukcKcMsN+iucElR5epsNUxvciIicStd/ujpHqpVmD02IdQ0aPb72l3Se7Ojby51lqk9HrUX9bWI6Ob/AP0gfm6Zhd7/ANTVwZBkNyosO1Ni0ldfIKeofHT1tyrEV0bJmtciSeDTQuf2uRURZmqnma7qfD8q6mcKt+7dhbVzqz0eVR/lHHrBi98ms1LbLe5yrTrI6mVslTM5na96yuczl3ajERPPZ+njBp75pu+ZLlMLoLvt2orsguaqztkjhrGeHTRL5+uOkSBn+Vq+o0zRu6cG6c9aWLRG/Ly3Cb9hFK2y0s90ifHR3qlhVWU9TR1Hb4cyvjRnMTV8RruUVvq5DYdfZpnuIZ3nnT7nmU1WRTWXHm5JjGQ1LGR1tTbpPEjdDULGjWvmhlYieK1re5r2qqd3Kkz1puzY7OkfQFis+VVNTsLbDoLLBfrs91fNTIjZpqqtf4qqs0jIYndqPVUVyt55TyXeMEprztPa+f8AUXJYblaMWbiXuUxdLlRvpKm5RNdJPUVvgyIkjIXPVjY+9rVcjVdxwqEj1Zid/k6OumTceL2Cuvtbq2SK9VFroI/Eqau3zRz01UkLP8eRscviNYnm7s4TzXhQuOXaF2ZhNhfmemNwbBvmc23sqUt+S5I6rtl+7VTxKaWnl4p6Xvb3I18DYuxeF80TgmvUlktmqOqHXuKbX3lkGq8Sr8DuNxq20OdyY9A+5MqoGxsfMyVjJHo18qInKqqNVU8kKPlnWjrS443UW/RdybnmwqyPwbTjNLRVLqiOqf5NWuj7Wuo4mr8Z7pVZw1q8efBMd551rXAOsbWV/wCoq6YzbKCTWV0gqZLhEklEle6spV7Y0ejv9zJ2qvnwigUnRNh6fpM5bX6t6ssk2JdaKmkfJaJ9ry5DB4TvirJJSrPInCKqcOVPJVTzOjiD6t6hejjLMxpcZ1Fm2C1WSXFr46entFMyOola1ve9EVrEXjhvK8rx5F4AEq038ou9vtAo/wCVbCVUlWm/lF3t9oFH/KthAqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABI8G/7YG7su2JL/aWvDY1wmwuXzatRyye6zt/yypS0y+rh1DInmim17ezx+tdc3rLqWkbWXGniZTWqjVePTblUSNgo6ZP75KiWKP8A/wAjy6owRms9dWHCPTXV1RbaVEra1ycOra2RyyVVS7yT40s75ZF8k83qBtgAAAAAAABKsj/Sn159n+ZfxHHCqkqyP9KfXn2f5l/EccAnfWG2+XjNNF4Jbs4yzGrflWZz2+6yY5e6i11M8DbfUSIxZYHNdx3savC8p5GI2zg2V9KmIS7xwDc2wr5bcangqMisGYZHNeaSvtrpWsnWN9T3S08zGu72uY5GqreFReeTy9bGZYtr3YPTzmea3yls9ktWd1E1ZXVLu2KBi2ypaiuX9XLkT/OY3em+dc9UOuq7QfT7fFzm75u+G111Va6ad1Dabe6Vq1NTU1PYkcaJGjkazu7nOc1ETzAxm+clwm7dVVpx3Z3UVkOtsOnwBt0pEo8+mxqnqa11YrUVVbNG2R/hqvl5rwn9xStA2HQy5hPdNU9U+R7IuFHRvSotlRtOXI6eKJ6onivplnka1UVERHqiccqiL5k02xm2jdVdZtql3fe8et1lTWLKKjkvkTZInzNr14RqOa743a1f83JYNS7+6RM0y5mL6YzTCKzIa2GRW01mpmRzyRMTufyrWJ8VOOfNePUBFel3TdVuzWFXsbNt87riuk2TX+mX0DYdypqaKKnuU8UTWQpIrGo1jGpxxx5eo2fWW+slxDQW3MiyHJ6vNYNc3+5WLGb9O6J898axsbaZjnRo1ksiTypCr+EVytVVNI6Oek/px2lqOpzjYensdv8AfarLcjZPXVtOr5JGx3WoYxHefCojWonq9SG79QuCUuaZjrDpI1LU0uDWygc/M7g+02mmkhttJQPT0Nrad7Vh5fVvY5Ec1UXwnLwoGwdKN2z3C8kyfQW2cuvGRZBb6OgyqguN1qJJ5pqStjRKiJJHqqubDVxzNRqLw1j404ROOdW1lr+bdG698+7HZ20IKfGsygttqo7Pnl2tlLS07rfTyKxkNPOxiJ3vcvknzqYjamCbS6fNka/6mM23rd8/oLRcmYtfW11ht9B6LaLg9GOl5ooY+5GVCQPXxOUanKpxyp+dTdPmj92bt6kK7aOsseyiohzaCkp6qupGyTQwOtdMqtjk/OYnKqqK1U4VeUA23BrXdoN559022/bWbZBhsmJ01ylq58gmnu+OV8s7o1p47jytQ1ZI297Ue9Xt4VUXhTV5un1GdTtNqtu+96/kGXCpb45nvl3bxfSm1rYkXv8AF57exV8v1mz9MsFB047NvfSTc7RbaChnZJkODXOnoYaZ12tyrxNTzuja3xqqnd5K93L3sVrlVVRVNwqP046L7Mp/4kwCM9Vrti6hyrUds1vsvOX0WIW28ZJcqepvlTVzX2loXU8ssNY5zuan+yfKid/cqcJwXHqaze7y6UioNcZDPbr7sF9ParHcqOZWTUzZ2LLLVROavKOjpmTSIqL5K1PMxW2aCluvVpqK2V8LZaasxvKoJo3Jyj2Pip2uRf8AKiqTPRDLzkF8uGur/FUui6ebRdsdSSZju2pqqhXto5kc785W25jOV/XUKBP75sC7XDpy6RqvYO8Mpxa2ZZWxRZVkUeXVFqqKiL8nTv5qK7xWuVFkaxeXuXlePnLHraw9L9ZnVliwfrbynK742qbNR2X365bola5iK9Y3UnpLvGb2tcrm9q+SKQVciwfE+nXoiyLZNbbqPGaG4xSXGe4sR1MyNbVUoiyIqKip3K35vXwdLYv1P9B1TkdsosQ2DrdL3V1UdLb0oqSNk755HIxjGK2NFRzlcjU4X5wJqzdOzNX9XexcgynI6646hW82jF66lnnfJHjtXUUcb6etY1zu2KB8jljk7U45ka5fVyWXJ7re6/q2suEx5Ld6ax3LXFznlpaSukii8f0yJjahrWr2pK1rlRsnHcnPkpr+ucOx3YO0+pvCMttsVws17udqoq2mlby2SJ9qjRU/y/Oi/MqIpMNASbDxzrMpNObHiqayq19gFbbrXfpfVebVJWwupJl/8IxieFJ+t0ar84GUz3p9TH97awwC3b73q20ZVBepLi1+y7s6Ry00Eb4u13i/F83Lz+s6p1zgNJrbG24zRZNlF+iZNJMlXkd5nulYqv45as8yq9Wpx5Iq8Jz5Et2x+lXo3/7pkv8AzWEvQEq038ou9vtAo/5VsJVSVab+UXe32gUf8q2EqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJV0nfosab+z/AB7+HQFVJV0nfosab+z/AB7+HQAVUAAAAAAAAAAAAAAAAAAAAAJV1LfJ1aPtAwT+arWVUlXUt8nVo+0DBP5qtYFVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKtN/KLvb7QKP+VbCVUlWm/lF3t9oFH/KthKqAAAAAAAAAAAAAAAAAJVpv5Rd7faBR/yrYSqkq038ou9vtAo/5VsIFVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAD1rjcaG0W+qu1zqo6ajooX1FRNIvDIomNVznOX5kREVV/wAgEsy3nYO+MZwdn9paMCpfdheETza6vm8SntkLv18IlbUKnPKOhp3ceaKVwlnTxbq6sxCu2ffKWSC77JuMmTzRTJxJTUcjGR2+mdz5tWOiipmub5J4iyrwiuUqYAAAAAAAAAlWR/pT68+z/Mv4jjhVSVZH+lPrz7P8y/iOOAVUAAAAAAAAAAAAAAAAAAAAAAAEq038ou9vtAo/5VsJVSVab+UXe32gUf8AKthKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADmrp63bi+DaC1phWU4btWivWP4fZrXcab3q8nk8Cqgooo5Y+9lA5ju17HJy1VavHKKqeZ0qAJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VeziqgCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4qoAlXwltdfRzav4T5V7OHwltdfRzav4T5V7OKqAJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VeziqnoX6mu9bYrjR4/dIrbdJ6SaKirZaf0hlNUOYqRyui5b4iNcqOVncndxxynPIHNeDf4Q7SOc7azTVFuteZvqsT8HwH0eIXmtqq1UTtq0fQwUbqmk9HmVkL/GY3lzk4Kd8JbXX0c2r+E+Vezjkjp9/wftt1V1H12WYbuHIlyfA6i1Vdwrq+Bk0N9hr4ZVropYkVHM70R3Y5Xv7FVFXuVEcn0MAlXwltdfRzav4T5V7OHwltdfRzav4T5V7OKqAJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VeziqgCVfCW119HNq/hPlXs4fCW119HNq/hPlXs4qoAlXwltdfRzav4T5V7ONK21tqwbKsFhxDEMS2VPcp84w+rRKvW2Q0MEcFNkNvqaiWSoqaKOGJjIYZXq572pwxTooAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAc/wCO7ItOr9o7iostxbYH+zeYUd0t1Ra8Bvl1paql9ztnp1kZUUVJLEvE1NOxU7+5HRryiG1/CW119HNq/hPlXs4qoAlXwltdfRzav4T5V7OHwltdfRzav4T5V7OKqAJV8JbXX0c2r+E+Vezh8JbXX0c2r+E+VeziqgCVfCW119HNq/hPlXs49ev6pdWWqhqbpdLTs6jo6OJ9RUVFRqvKI4oYmIrnPe51vRGtREVVVV4REVSunGH+FGvO4a7RFXrXUmHXeup7vQ1t4yu8ws8OkttkoGJNPG+dytYkkq8KkaOVz2RStRq9yAXiPqa1tNG2WLH9pvY9Ec1zdUZSqORfUqL+TvND9fCW119HNq/hPlXs40noRu23otF0Wud6YZebDl2v5Ex+WWugXwbjSRsatNPBOnMc7UiVsTnMe740SqvHch0WBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cVUASr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nFVAEq+Etrr6ObV/CfKvZx6nT/XyX+/7ey+Gx5BbrbkGcQVdtW92OttM9TBHj1mpnStp6yKKZGeNTzMRysRFWN3HJYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACSdQb3ZTSY5o+l7nP2LcVpLqjV847DTt8a5Od/wZI0jpPn4dWs8uOeK2SPWP8A2ebWzbbci+Jbra9cIx13+KsNJKq3Gdn/AJSt7oHea8pb418vMCtMYyNjY42o1rURGtROERP1IfoAAAAAAAAAARTamRRYNv3X+a3fH8rrbLDh+VWuapsWMXK9eBVT1tikhjlZQwTPj72UtQrVciNXwnJzz5FrAEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZxVQBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cVUASr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nFVAEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZxVQBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cVUASr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nFVAEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZxVQBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cVUASr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nFVAEf6f6+S/3/b2Xw2PILdbcgziCrtq3ux1tpnqYI8es1M6VtPWRRTIzxqeZiOViIqxu45LAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEqwLy6gNrp+uixx3/8AJqU/6CqkqwXy6hdqp+u2Y07/ANitT/oKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlXVh+i5t9if/tMEv0f/AK1BMn/SVUlXVb59NG0Wf75idzj/APWp3t/6QKp6vJD+gAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAE82/stMS15f7lh1ZQ3DJY6iGwWukZK2Ti91bo4qSGVqcq3h9RDI9FTlIuXqnb5mwa6wi263wWxYJaZZJqax0MVGk8v+2VD2t+PNIvny+R/c9y8+bnKp829qal6qM7/wAJPnFN0/5NPi9pglsV9ut6qaaOot1vf+SG0rJ1gla6Oao7H1LY2ondy5yorEar2/TTGbTW2HHLXZLjfqy91Vvo4aae5VqMSorJGMRrppEja1ne9UVy9qInKrwgGTAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJh1JbqXp71BedrtxWXJFtD6ZiW2Gp9Hkn8WZkXDX9j/NO/lE7fNU48ueSnkD64PkArP/x6w/xOnAoVh29jeXacTc+Jc3C1y2WW8Qwud4T1WOJz3QP8lWN6OarHIqKrVRfLyMjqvOPfM1tjGwvyX+TfdHaqa5+h+P43geNGj+zv7W93HPHPanP6kOZdiInS5lOa2N/bTau27b7pU0C9vbDY8mdTSOlhVfzWRVaIr2+pEla5P8YuHSx+jbrH/irbf+bsAqYAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEq6qvPpz2Ez/fLFUR/+snb/ANJVSVdU3n0/5oz/AHyhZH/600bf+kCqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAahtTWNh29h8mFZLV3CmoZaukrVkoZGMl76edkzE5exycK6NqL5c8KvCovmbeANM3BqXC95a5vWrs/oX1NlvkHgzeEqNlhciorJYnKio2RjkRzV4XhU9Sp5GUwDC7XrnCLFgVkqKqe349b4LbSyVT2umfFExGNV6ta1qu4TzVGon9yGk4l5dTGyk/XiWJu/wDeb0n/AEFVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAASrqj89FZKz/fFoY//WrYG/8ASVUlXVB56WuzP98uNmj/APWulK3/AKQKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAB4a1tY6jnbbpYY6pYnJA+ZivjbJwvarmorVc1F45RFRVT509YEwxby6ndkJ+vDMRd/75fU/6CqnzM1B1rdQecdYNbqJNN2C059c2WjF8pqpp6ia32+ns9VcZq6rhhTteqSRVqpEjpuO6Nnm/xURPpmAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlXU756hqGf75kGNx/+te6Jv/Sbtec7xHH8lsWHXi+QU96yZ87LVRKjnSVPgxrJKqI1F7WtanKudwnKonPKoi+zk+LWLMrT+Q8kofTKJKqkrfC8V8f9tTVEdRA7liovxZYo3cc8L28KioqooZYGoWDbeusnz/ItW2PKIKnKsUjglu9sWKSOWnjmb3RvRXtRsjVRU82K5EVUReF8jIT55ilNnNLraa69uR1ttlvEFF4Ei99JHI2N8niI3w04e5qdqu7vPlE48wM+AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABCsKvfUlsqhvGS2LYetbJbYMoyKyUdDV4JX108cFuu9XQRuknbeIWyPe2lR6qkTE5eqInkXUlXTT8nV3+0DO/5qugD3OdU/wC2TVX4aXH26apbbv1T3DaeQ6z99DVUf5Bx+zX3033u7ivjen1Nyh8Lw/y58Xs/Jvd3dy93jccN7OXdAEqxz9KfYf2f4b/EcjAe5zqn/bJqr8NLj7dHuc6p/wBsmqvw0uPt0qoAlXuc6p/2yaq/DS4+3R7nOqf9smqvw0uPt0qoAlXuc6p/2yaq/DS4+3R7nOqf9smqvw0uPt0qoAlXuc6p/wBsmqvw0uPt0e5zqn/bJqr8NLj7dKqAObLL007cx/cmQ76tWxdTw5lk9rprRca1NbXHh8EKpwqN/Lvk5yMha5fnSCL1cLzv3uc6p/2yaq/DS4+3SqgCVe5zqn/bJqr8NLj7dHuc6p/2yaq/DS4+3SqgCVe5zqn/AGyaq/DS4+3R7nOqf9smqvw0uPt0qoAlXuc6p/2yaq/DS4+3R7nOqf8AbJqr8NLj7dKqAJV7nOqf9smqvw0uPt01S23fqnuG08h1n76Gqo/yDj9mvvpvvd3FfG9PqblD4Xh/lz4vZ+Te7u7l7vG44b2cu6AJVjn6U+w/s/w3+I5GA9znVP8Atk1V+Glx9umJqb/v3Btga6tGa5vr/ILLmeQVNiqYbXh1ba6qDss9xrmSsmkulSz8+gaxWrF5tevCoqIWslW5PlF0T9oFZ/Kt+AqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAADkfJNQ0GDdW+o80uOSXjJclyO45EtTcrnMi+j0iUbnQ0VPE1EZDBGjuERE5cvLnK5V5Og7/u7S+KZPHhOU7ewqz5FM6JkdouF/pKete6VUSNEgfIkiq9VTtRE8+fLkxGwNZ37K9vaxz+3VdBHb8LnuklfFNI9JpUqaXwo/CRGK13DvNe5zfL1c+oy9/0jpfK8njzbKdQ4VeMihdE+O73CwUlRWsdEqLGqTvjWRFYqJ2qi+XHlwByBkWCZLTdQO6+oTV1FLU5xrq/WqVaGJURb3Zn2yNay3Lz5cuaniR+riSNv6yr4zneObN6sNfZ9iNclXaL5qqvrKaRPWjXV8HLXJ8zmry1yfMqKhT9Z6xv2GbP2nmt0q7fLQ5xc7fW2+OCR7pYmQUbIXpMjmIjVVzVVO1XJx61RfIm2tek+8at6qr5t7HMgokwG6Waqho7A570ltlwqaiOap8FiM7EgkexZPz+Uc5URvHmB0uAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKumn5Orv8AaBnf81XQqpKumn5Orv8AaBnf81XQCqkqxz9KfYf2f4b/ABHIyqkqxz9KfYf2f4b/ABHIwKqDkvok3ntnYd9zPGNx5Iy8zyVM94xmoShgpe22MrZ6OSnVIWMR6xSQNVXKiuVJW8qvze/kG7doVXWzi+uMdv0NPrqJlXZ7tSJSwvfW3ZlCtWq+K5iyMSKOSnThj0RVcvKLwB1KDmfqt3DtbFMgtmL6VrUjuOP2erzjJIkooqn0m1Ur2NSi/tEXw3Tqsva5qo5PCXhUKLlNpzXcuNY1lmod83TBbbX0Ta5JbdZbdcPTopmNdGrvTIpOztTn83jnnz9QFTByL0t0PUntPG4dhZX1XX6op7flF2tlRaExSyMhq6ehuE1OjXSMpWyM8RkSKqtciorl4N1tOWbb6hcoypmuNht1/g+KXafH4rnQ2umr7nd6+DhKl7FqmyQQwRvXw0RYnvcrXLy1OAOhQRfBMk3Xj92zPX2zo33ptjtbbrYc1prYlJT3GJ7XosE8bVWNtVE5nLkZw1zXNVGt80Mj0pZvlGyunDXWe5rc/wAo32+2CmrbhV+BHD40z28ud2RtaxvP6mtRP7gKuCSdO2dZVnVJn0uVXX051lzq72ahXwI4vBo4HtSKP4jW93air8Z3Ll+dVKy9HOY5rXdqqioi8c8L+sD9A453HZuqDX2bazsFs6w8ilp9g5W+xT9+H2BPQ4vQ6moR0f8ArRVcqLA1vxlXyVfnMzv2s37pDTVsio+om7XrI8izyxWWLIKrHLTHNQ0dZUMgljZAynSB/rVyOexXcrxzxwB1aCEUekOo2nq4J6jrVyqqijka+SB+GY+1srUXlWKraVHIip5coqL5+Smd6lc+ybCNfU1rwK4pSZll92o8bx+o8BkywVVRIiPqPDeisekUSSyqjkVPieaKBWgSfp12Vfdh6nSryypa/LscqqzH8iVIWxc3Gke6OSTw2/FakiI2REROOJE48iU9CO8NqbNteQ2LdGSRXq9sWK+2erZQQ0vfaJ5JYWxq2FjGOdHLTytV3HPxm8+tAOriVY5+lPsP7P8ADf4jkZLabdu0r11yUevLbfootZx265Wx9AlHCr6u7UkEM003jKxZEaz0mOPta9E7mP5RSpY5+lPsP7P8N/iORgVUlW5PlF0T9oFZ/Kt+KqSrcnyi6J+0Cs/lW/AVUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJ/ujKb9ilkxyqx6u9EnuGYY/a53eEyTvpai4QxTx8PRUTuic9vKcOTnlFRURSgEq6hfjWnB4v93sDHP/ZrWO/+UCqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKumn5Orv9oGd/zVdCqkq6afk6u/2gZ3/NV0AqpKsc/Sn2H9n+G/xHIyqkqxz9KfYf2f4b/EcjA5a1xerfqbUutuom4zR01rxjK8msmQ1DvJGWuuuFQncq/qZUxUzv8AOpuWN2Ovs+wenS+X+JYrzldxyjJ7qj/Wyetolm8NV/8ABscyNP7o0OqHa+wJ+MzYU/CLA7Hql75JrStthWikc6TxHOdB29iqr1V6qqebvP1+Z7lfi2M3Wqoa66Y5a6yptbZGUM1RRxyPpWyM7JEic5FViOZ8V3bxynkvkBx9rO3dR21s82Pv/VV41lTWDMLg7Hbc3KrLcKuoktVudJAxY3U9TE1IpJXTv4VF57ufnN66HqzI8Lx7KemvO6ijfkOrLn6PC6kasdPPaqpFnpHwMc5z2xNRz4mo5VVEjRFVV8zouw4/YcVs9Lj2MWSgs9qoY/CpaGgpmU9PAz19rI2IjWp5r5IiHjhxbGafIqnMKfHLXFfqymjoqi6Mo421c1OxyuZC+ZE73MarlVGqvCKqqieYEM6E/kOr/wDjxln8aqzE9Ll/xrUF1zrp9zS90lnyGgyy7X+2xXCZsC3S2V87qmOop1cqJK1qyPjf2+bXM80TlOejLDjmPYtQuteMWG3WijfPNVOp6ClZTxLNK9ZJZFaxETve9znOdxy5zlVeVUx2Z6517sajjt2wsDx3KKSF3dHBebXBWxsX9aNla5EUCfW/e9i2XlWcYJgtEy9WTGLI51wyakq2y0SXCRH/AOsWK1FbJI1iI96tevb3IioikH6Q+jLpazjpj1pl2W6Qxm6Xm7Y7S1VbW1FO5ZJ5XN+M9y93mqnZNoxvHcfs0eO2CwW622mFixR0FHSxw07GL62pGxEaiL+rg/disNjxez0mPYzZqG0Wq3xNgpKGhpmU9PTxp6mRxsRGsanzIiIgEC6I8asOHYhsLFcXtcFttNq2LfaWipIG8RwRNkYjWNT9SIdGGjZLR5hhtL/2ltYYZXy3KtmrLpHXXp9jY6Z/Cun7oKGp8aV6/nK5Gr5IvKmBpsp6o31MTKzSetIoHPakskeyK2R7Gc/GVrVsrUcqJzwiuTn9aesDT+qL5U+nH7SHfwivMJ/hELfZbtpfF7VkkNPNaKzYuMU9fHUqiRPpn1zWyteq+SNViuRf7uTpC545j98qrbX3yw26vqrPU+m26aqpWTPoqjsczxYXORVjf2Pe3ubwvDnJ6lU9bL8IwvYNmdjme4hZcltL5GyuoLxb4qync9q8tcscrXNVU+ZeOUAguP8ATx0CYvfKDI8cxDWNBdLZUR1VHVQXCFskMzHI5r2r4vrRUQ17anvube6qrdbtL3PEKeHTlpSuqp8moamson3S5McxjWNp5oneLHTMVUXu4RJvn58rHH0pdLkMjZYumzVjHsVHNc3DrcitVPUqL4Pkpv8AZsVxfHaq41uP43a7ZUXidKq4zUdHHC+smRiMSSZzERZHoxrWo53K8NRPUgHKWqF2rprqfyLFdx1+K1Ddz2uS+0E2NUVRSULbrQRtinZ2VEsr/FkgWN6/G4Xw/UaLrjKKHSGm9KdQ9wd4VppKO84vfn88IsFTPNNSqqfOqVUDGJ/fP/edzXfFcXyCttlyv+N2u5VdlndVW2orKOOaSimc1WLJC56Ksb1aqtVzeF4VU9R6j9fYDLjMeFS4RYH49C9skdpdbIVomObJ4jXJB29iKj/jovHk7z9YHL+EYnX4huzp+pb2xEvVzx7K71eFT56+s8Con/8AQ+RWp/c1C145+lPsP7P8N/iORlFqMesFXeKLIaux2+e622OWGirpKZjqimjkREkbHIqdzEcjW9yNVEXhOfUTrHP0p9h/Z/hv8RyMCqkq3J8ouiftArP5VvxVSVbk+UXRP2gVn8q34CqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKt//Gi15F/u9gWX/wBl73f/AClVJVvn41XrGL/d7Atv/swVLv8A5QKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEq6afk6u/2gZ3/NV0Kqc1aS6hdBYNi+Q4tmu8Nf4/eqLYGcek266ZNRUlVB35Pcns74pJGvb3Me1ycp5tcip5KgHSpKsc/Sn2H9n+G/xHIx8LHpY+stqr98rd/WJpYOpvpth6ks6vs3UHrVltrMHxOkp6x2WUCQTTw19/dLEyTxe1z2Nnhc5qLy1JY1XjuTkOoASr4WPSx9ZbVX75W7+sPhY9LH1ltVfvlbv6wFVBKvhY9LH1ltVfvlbv6w+Fj0sfWW1V++Vu/rAVUEq+Fj0sfWW1V++Vu/rD4WPSx9ZbVX75W7+sBVQSr4WPSx9ZbVX75W7+sPhY9LH1ltVfvlbv6wFVBKvhY9LH1ltVfvlbv6w+Fj0sfWW1V++Vu/rAVUEq+Fj0sfWW1V++Vu/rD4WPSx9ZbVX75W7+sBVQSr4WPSx9ZbVX75W7+sPhY9LH1ltVfvlbv6wFVBKvhY9LH1ltVfvlbv6w+Fj0sfWW1V++Vu/rAVUlWOfpT7D+z/AA3+I5GPhY9LH1ltVfvlbv6xNLB1N9NsPUlnV9m6g9asttZg+J0lPWOyygSCaeGvv7pYmSeL2uexs8LnNReWpLGq8dych1ASrcnyi6J+0Cs/lW/D4WPSx9ZbVX75W7+saVl+79L7K21o6xa529hWVXKDOK2rlo7Jf6Sunjgbi98a6V0cMjnIxHPY1XKnHL2p86AdFAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKt5/GvmpYv93sCl/9m3V7v/lKqSrdvxss01F/u9gJ/wCzZLq7/wCUCqgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAejfb3asZslwyS/V0dFbLVSy11bUyc9kMETFfI93HzNa1VX/ACHvH8c1HIrXIioqcKi/OB8s+krqy2xW9aOU5hszEchtGBbmqqagt0ldQysgtsjWuSzIr1Tsb4sKOi5bwkj5Ek9TVPqaSjA2MfvzbDJGNcno2OP4VOfNIJ+F/wAytRf8xVwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEq3P8AGzzR8X+72BP/AOzjd7d/8pVT5udavWFvPQvUli+EV+sbRlFLQ3tuT4LUUvj07qplTaq21+iTsTxPEkZPWSOVWK1XIxvxWpK3sD6RgwGA+7VcJsTtkOti5U6ggdeEtkTo6RtWrEWVsSOe93Y1yqiKrl5458ueEz4AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAASrBPLqC2sn67fjbv8A+VVp/wBBVTVLFgv5F2HlWe/lTxvdNSWym9E8Dt9H9ESdO7v7l7+/x/V2px2/Pz5bWAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAml86h9bWDJrxiE1PmtxuWP1EVJcksmB327QU08lPFUtidUUdHLCr/BqIXq1HqqJI3ngpZKtN/KLvb7QKP8AlWwgPhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cVUASr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nFVAEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZxVQBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cVUASr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nFVAEq+Etrr6ObV/CfKvZxo+dZb057Jy/C86zLXW0Lhedf10txsU79UZUno80jEa5VT8nfGRFbG9EX1PiY75jo0ASr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nFVAEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZxVQBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cVUASr4S2uvo5tX8J8q9nD4S2uvo5tX8J8q9nFVAEq+Etrr6ObV/CfKvZw+Etrr6ObV/CfKvZxVQBKvhLa6+jm1fwnyr2cPhLa6+jm1fwnyr2cVUAapr3Z2IbQo7pW4lNdf9hLh+S7jT3SyVtqqqWq8CGoSN9PWwxSpzDUwPReztVsicKptZKtN/KLvb7QKP+VbCVUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAc5f4QK0JkHTBf7CtXLSpcrlZ6NZ4V4ki8S4QM72/3pzyn96HRpEusTH79k+kKq041ZLhdq517ssqU1DTPnlVjLjA97uxiKvDWtc5V44REVV8kA1DXexckq9S7K0btKsbJsHXFirKOsnc7zu9tdTSeh3NqcJykrE4fwnlI16fqKT0sfo26x/4q23/AJuwn/WXqvNrljT9y6Xtj63P8Ztdbbn22Jqqt9tFTGraiic1qKr3pyksSJ597OE/OKX022q6WLp/13Zr3baq33Chxq3wVVJVQuimglbA1HMexyI5rkVOFRURUApAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEq038ou9vtAo/5VsJVSS6lqGUmd78q5EcrIc8pZHI31qiYpYVXj/0AVoHN2Mda0OZ2OnynFumDeVzsdWj3QXKlsttlilY1ytV7Wtr1kcnLV8karl48k5KXZ9/6zv8Ap2s3parvNLi9vo6qrqnPp3Q1EDqfuSaB8Una5kzXscxWO4+MnH94FGBMMW3/AI5mulKnd2L4rk1fR0lPVyz2JlNAl3jlpnuZNTLE6VI/Ga5jk7fF4XjyVeUNqwfYmJbDwG1bLxm6RzWC70DbjBUvVG9kSt7l7/Phqt4VHJz5K1U+YDZQc75b1xarw3U1n3VdcXzN+MZBfXWS2TQUFO6WqaivRK5rFnT/AFq5I3uR68PVqc9nCl1uOR2e143U5bWVjG2ulon3GSfnySBrFerv/VTkDJg53oOuHWF16fafqNtmIZtU2KsvjMep7WyhpkuktW+qSmaiROqEjRFkVPXIi8L5oi+R78HVNkc08cL+kTfMLZHo1ZJLPau1iKvHcvFwVeE9a8Iq/wBwF5BLbn1H63sm+bT06XmauocqvtnW8W580bG0lQ1HORYGv7+7xuGOd2q3hUavDlXyNjy7Z1hwzMMNwq6Ulwlrs3q6mit8lPGx0UT4IHTPWZXPRWorWqidqOXn1oieYG3g5yy/rObg9xpbffumHd0aXG6JZ7dO202vw62pcruxsXNejl70Yqp3Ii8etE9RVtW7LuGyqGurbhqrN8HfRStibT5TSU0EtSjk574vR55mq1PUvKovPzfOBu4BItDdTmvuoevzG14Zbr7QVWE3aS0V8V2p4olmcx72eND4cj++JXxSNRy9q8tVFagFdBK8p6jsCxPeuK9PVbSXipybLaOauppaaCJ1JSxxo9USd7pEe1z0jf2o1jue1eeDUqzrBoX5nlmF4l0/bczCXDLq6y3OusVtt0lIlUkbJFax0tbG9fiyMXzYnrA6BBIKDqCvVdh91yt/Tdt+kntlRBAyy1Fst6XCtSTnmSBra1Y1Yzj4yukaqfMimlW7rXW7ZBdsUt3SrvWou9jbA+40jLRafEpkmarold/sj/jI1VT/ACAdKA0ezbbsd42DBrN1kvVBe5cbhyd7KyGNjIaeSVYvBerZFVJmuRe5qIrU+Zyns5ds6w4ZmGG4VdKS4S12b1dTRW+SnjY6KJ8EDpnrMrnorUVrVRO1HLz60RPMDbwTHPuoDFcKylMAtOO5NmuXJTNrZbFjFA2pqKancqo2WoklfHBTtcqL2+LKxXcL2ovB7Wt954hsi9XDEWW6+Y1lVpibUVuO5DReiV8cDl4bOxEc6OaJVTjxInvZz5KqL5AUQHPNP1kUl3u19t+JdOm5Mmpceu9VZau52m026WldU07+2XsV1c2RyIv/AAEVU+b5in6o3DhO5bHVXnD6isjlttU6gultuNI+kr7bVNRFdBUwSIjo3oiovn5Ki8oqp5gYHTfyi72+0Cj/AJVsJVSVab+UXe32gUf8q2EqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAapaM6/Kuy8l11+S/C9ztptN09M8fu8f02SsZ2eH2p29noXPPcvd4nqTt89rJVinl1N7JT9eH4k7/AN6vaf8AQVUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABHdbf/AFs6hf8AjtB/KdiLESPVFN6ZnG/qPv7PHzumj7uOeO7FLEnPH+cDnzpEz3qit/Trh9pwXp3xW8WeOnnjobxX5/6GsrVqJP7SSmShe5iIqry1HqqonkvmYbalLRaD1xhGldqZGtRcNnZ1U5bmktht1ZWRQ0TKhKupihggifO+FZEp4OezlUcqu45U660Rqv3lNUY/rD8u/ln8hQyRenei+j+N3Svfz4fe/t47+Pzl9R4LfqJ0O9rtu67ZItfJUWGnx+0W30RGNtkDZXSzvSTvVZHSvVnPxWoiRtTz9YEF6Z926/uPUzsfXeEXG4y49mcMWY2dtws9dbFbXNa2G4wxxVkMTlTygl5aipy93qMFlGBZVi2467o/xKvZRa+266fL1kjnWOazUEcjfyvQwNRvk2okfF2Lz8RJ5v1IdI7W00uxcu1/ndpyX8g3vAby64Q1CUfpCVdJLE6Kpo3p3sVGyNVPjcr2uai9q+o/V905+Wt+4pvL3R+D7mMfuVi/Jfofd6R6XJC/xfG707O3weO3sXnu9aceYTLqqw/Hp00dgbLZBDZJM5pbUlJGxGxsploKqPsanzIjfJDV7Pfrpk3TzjfTzcaqSTIp8nXW12WTzkfRUEjn1MzuPUklBCi8/rmb+vg6A2hqv3ybxgl2/L35O9xWSw5D4fovjel+HFLH4PPe3w+fF57uHerjjz8sBY+nqhsnUPe97x5NNJBd6BsUdh9FRsNNcHMjinrkl7uXPkhghjVvanCMVeV7uAONskp66HorutLjq0dPWR7+njofSI3Op45UylUj72tVrlYi9vKIqLxzwqes61s9u63mXehfkGYaOltbamJa2Ojxu7x1D6fuTxEic+uc1r1bz2q5qoi8KqKnka1kHR1cLno65aitO0Y7fXVeeTZ1TXiSxeOynlddFr2QOp/SG+IjXKjFd4jeeOe1OeDM+9b1j/W3xL8LG+0gJxuLT9LufqjzDHoK51rv9Bru03THbvFykttucNxnfBM1U8+O5Ea5PU5iuReeT1aDb1TtvYvT5NkdAy15ljmUXyyZXaUdytFc4bZIknHqVY3pxIx3Hmx6HRlp1RNb91V+5KjJEqZbhi9JjklClH2IjoZ3zLP4nev5yv47O3y4/OX1Gm5X0p47f+prE+pm1ZDNabnYqeaC521lN4kF2V0LoopXL3tSOVjXuTv7XK5vDfLjkDw9Vf8A3fpr7TbT/wDCnL0aFtXVvvm1GGz/AJd/JvuRyekyPj0XxvSvAbI3wfz29nPifn/G44/NXkyGc7e1PrCWjg2Vs/EsSkuDXvpGXy901A6oaxUR6xpM9veje5vPHPHcnPrA204H6UO3X+T4jnrVSK35zlObYXc3I1eFqo7zWVdA9y+pPzKqNOfnkaif39V27qg6aLxcKW02nqI1lW11bMympqamy23ySzyvcjWRsY2VVc5zlREREVVVURDRZekh/wAH266Uotkz0VzqcjrsnteSQWxEltlZPcZK2NzYVlXv8PxFjX46d6cqqIi9oErp2Lk3UPrDcFQiuXMc8v0Vuc5PNLXQ2ySlpu3/AIL1jmlT/wAtyfnTNJ1I1G4eoZ2l8g1rQWtNjypVMyiz19XUOqPQKXzjdTVMTUZ29vkrVXlF8+FRE6FqNAW1lw1HPaL76FRan8ZIKZaTvWuY+iWmRFf3p4apz3qvDuV8vL1mh0nTXvbEM8z7LNVdSFkx63Z7f3ZDUW6uwJLi+nmdDHF2pMtdH3J2xN/xE+cCy6yg25BZJ2bkueIV149IVYZMZoaqkpvA7U4RzKiaV3fz3eaO4448iaan/Sr3l/8AdMa/5rMb3qzFdx42twXbG3LTm3j+H6ElBizbMlNxz393FTN4ndyn+544+fk/WJ6t9y+1s52d+XfSfdpFbIvQfRez0T0SJ7OfE718Tv7+fzW8cfOBDtkU+56jrQVulrvhdBcU1zCtW/KLdV1cLofyjJwkbaaeJzXd3HmqqnHzGLyik6iafqP0Q7dd+1zX0S3m7pRNxa0V1HK2X8mydyyuqamVHN7fUjURefnOhY9W+HvKfc/5d58bGGY5+TfRfV21Lp/G8Xv/AOF29nZ83Pd8x/M91X7t9ga9zr8vehe4Ovra70X0XxPTfSKV0Hb396eH293dz2u5444T1gTjpGa6qr9yXq6xt/L9Vsm6QXBzv9s8KFsTKVi/qakKM7U9XC8/Oev1Cd9v6kene7WKFv5Zq75drZVvY3+0daXW+R87XL6+xJGQr5+Xdx86m3Zbom+JnNw2dpvZM2CZFe44o73FNa2XO1XVYm9sUs9I58bkma34qSRSxqreEd3cJx7GAaLnsecybY2RnNZnGbLROttJWy0cdFRWukc5HPio6Viu8LvVEV73vkkd2oiu4TgDTui3/wCrmzftOyL/AOOh4sFRtJ127RpLS5W0lVguP1lzjY1Ej9O9IqmRvVUX89YWoi8onk1vrPVxzpr6g8BuWTN1v1OWSzWTJMhrsgWiqdfMrJ6eSqk73sSd1c1HceSIqx8eXPb8xUNN6WoNSwXq41eTXTKspymrbX37ILmkbZ62ZrEYxrY42tZDCxqcMjYnDUVfWqqoHo6b+UXe32gUf8q2EqpKtN/KLvb7QKP+VbCVUAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeKqqqWhpZq6uqYqemp43SzTSvRjI2NTlznOXyRERFVVXyRDyn8c1r2qx7Uc1ycKipyioBCMd2Rrum33m+Yz57jsdgu2GYVHQXV10gSjq3zV9+ZE2Kbu7JFe5OGo1V5XyTkvB829J/4OGrwHr5vWc11nX3rsWVuS4r38LE+sncq09I1PWnokiSvTz5TwqdV/wBsPpIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAlWm/lF3t9oFH/ACrYSqkq038ou9vtAo/5VsIFVAAAAAAAAAAAAADxyQQTKizQsfx6u5qLweQAeFKOkaqObSwoqeaKjEPMAAAAAAAAAAAAAAASrTfyi72+0Cj/AJVsJVSVab+UXe32gUf8q2EqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAE/6hcpvuDaC2XmuLV3oV6x/D7zdLdU+EyTwKqCilkik7Ho5ju17Grw5FavHCoqeRiveb2L9bHav3bivsYdWP6LG5Ps/yH+HTlVAlXvN7F+tjtX7txX2MPeb2L9bHav3bivsYqoAlXvN7F+tjtX7txX2MPeb2L9bHav3bivsYqoAlXvN7F+tjtX7txX2MPeb2L9bHav3bivsYqoAlXvN7F+tjtX7txX2MPeb2L9bHav3bivsYqoAlXvN7F+tjtX7txX2MPeb2L9bHav3bivsYqoAlXvN7F+tjtX7txX2MPeb2L9bHav3bivsYqoAlXvN7F+tjtX7txX2MaVu/ENta10vn2xrF1U7KnuWK4vdb3RxVdrxd0Ek9NSSTRtka20NcrFcxEVEc1eOeFT1nRRKurH9Fjcn2f5D/DpwKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABKrhou7e6/J8txLe2wMS91twhulxt1rp7HNS+lR0VNRJIxa23Tyt5ho4OU8RW9yKqInJVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBKveb2L9bHav3bivsYe83sX62O1fu3FfYxVQBpWsdYx61jyOabNMgyq5ZVeEvdyuV7bRNnknbRUtG1rW0dPTwtY2GihRESPnnuVVXk3UAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACVdWP6LG5Ps/yH+HTlVJV1Y/osbk+z/If4dOVUAAAAPxLGk0T4le9ne1W9zF4cnKetF+ZTirdWiZcO2lpzG7JvreUdDnOUVlsu7HbIuqq6BltqahqR/2v9mviRM9XzJwB2wDjrqexWk0hq7Ccfi3nsa02S9bDtkF5v90zusbWU9DIyRJWenvkR8UPDUXhXdqL5nt4djnSpc8qtNFinXVlt+vD6yJaK2RbzmrnVkrXI5sXo6VLvGReOFZwvcnKKgHXQIT1UXjJbvR4lpHBckuthyDY12WlddLVVOp6u326mjWeqqGSNVHMXhrI0c3z5lPJpjZd7zrpsq7pfKuePLcaoblYb5Jy5krLpQtfDLJz+ciuViSIv6noqL84FyByB/g4M7zm76tXDdnZneMmvjLba8qo7jd66Srq57dc6dJGo6SRVe5I546iNOVXhGoh+NT55nuYdb16u1Rml4lwm749dIbJY1q5UoWNt1bFSuqmw93hq+SVJ/jo3lW9vnwB2EAABKurH9Fjcn2f5D/Dpyqkq6sf0WNyfZ/kP8OnAqoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAJV1Y/osbk+z/If4dOVUlXVj+ixuT7P8h/h05VQAAAHPHUn8uPTZ/x4uH8FrTocAcv9et5xbHsV1hfM3qqKmsFDsizz3GatajoGU7UlV6yIqKit49fkeez9U3QAl1o/yFsPWbLi6djaRaajjbL4qqiM7FbHyjuVTjg6ZAHH7sQz/qJ6mcz2NgG4bjglv1rCzB7XW0NloLgtVUPRtRcFb6XHI1ERy08aq1EXmNUVfmMVilkyzp33PsHWmcZ/VZbSbexetyigu9Xb4KJ8l4pIViq4vDpmMharoPBfw1qKvY5V5XzO1QB8+MeyK86Z6d+nrdeNUVRU1N519BgU0MEau76urpmSWx7+PPhtUzs5+ZJ1/wAqWXDsMpdd9Umt8HpHq9ll1LWUjpFXlZZG11P3yKvzq5/c5V/WqnUQAAAASrqx/RY3J9n+Q/w6cqpKurH9Fjcn2f5D/DpwKqAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAACVdWP6LG5Ps/wAh/h05VSVdWP6LG5Ps/wAh/h05Kv8AVR+hP9uf/Jm8f9UA6qByr/qo/Qn+3P8A5M3j/qg/1UfoT/bn/wAmbx/1QDqoHKv+qj9Cf7c/+TN4/wCqD/VR+hP9uf8AyZvH/VAOqgcq/wCqj9Cf7c/+TN4/6oP9VH6E/wBuf/Jm8f8AVAOqgcq/6qP0J/tz/wCTN4/6oP8AVR+hP9uf/Jm8f9UA6qByr/qo/Qn+3P8A5M3j/qg/1UfoT/bn/wAmbx/1QDqoHKv+qj9Cf7c/+TN4/wCqD/VR+hP9uf8AyZvH/VAOqiVdWP6LG5Ps/wAh/h05Kv8AVR+hP9uf/Jm8f9UJ/wBQv+Ee6Mc50FsvCsW3J6besgw+82u3U3udusfj1U9FLHFH3vpmsb3Pe1OXKjU55VUTzA7qAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAf/Z"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12359640" y="4114800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1417186</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9037320" y="2827020"/>
+          <a:ext cx="8198986" cy="7772400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1245,32 +1848,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="67.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -1808,7 +2411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -1830,32 +2433,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="67.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -2122,40 +2725,40 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2439,42 +3042,42 @@
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="2:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
@@ -2609,4 +3212,491 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.21875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="19.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="24.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25" style="2" customWidth="1"/>
+    <col min="10" max="11" width="25.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.21875" style="17" customWidth="1"/>
+    <col min="13" max="13" width="25.44140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" style="2"/>
+    <col min="15" max="16384" width="14.21875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="G19"/>
+      <c r="I19"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="7:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="7:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="7:14" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="7:14" x14ac:dyDescent="0.35">
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="7:14" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="14:14" x14ac:dyDescent="0.35">
+      <c r="N41" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>